--- a/RoboDK/coordinates/wingbox_robodk_coordinates generator excel.xlsx
+++ b/RoboDK/coordinates/wingbox_robodk_coordinates generator excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndigh\Documents\TU Delft Aerospace Engineering\Design and Construction\Wingbox\RoboDK wingbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndigh\Documents\GitHub\E09H-Wingbox\RoboDK\coordinates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CAC52C-3616-4B74-886F-034A77E59623}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA453D44-3F87-4C9B-BBEA-82D50D97F35E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{25CCA861-8539-4B0A-8CCD-DD87EEE5A520}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>x[mm]</t>
   </si>
@@ -48,10 +48,16 @@
     <t xml:space="preserve">row number </t>
   </si>
   <si>
-    <t>delta x</t>
+    <t>x_0</t>
   </si>
   <si>
-    <t xml:space="preserve">delta y </t>
+    <t>y_0</t>
+  </si>
+  <si>
+    <t>delta_x</t>
+  </si>
+  <si>
+    <t>delta_y</t>
   </si>
 </sst>
 </file>
@@ -403,15 +409,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2916567-A312-4CF0-9D2F-510F904FC975}">
-  <dimension ref="A1:G560"/>
+  <dimension ref="A1:J712"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J104" sqref="J104"/>
+    <sheetView tabSelected="1" topLeftCell="A285" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D300" sqref="D300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,3842 +427,6350 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
+        <f>$I$2</f>
         <v>100</v>
       </c>
       <c r="B2">
         <v>12.8</v>
       </c>
       <c r="C2">
-        <f>IF(ISEVEN(A200), -2,2)</f>
-        <v>-2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
+        <f>IF(ISEVEN(A352), -2,2)</f>
+        <v>-2</v>
       </c>
       <c r="G2">
         <v>66.36</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2">
+        <v>75.28</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
-        <f>A2+G$2</f>
-        <v>166.36</v>
+        <f>IF(ISEVEN(A353)=TRUE, A2+G$2, A2)</f>
+        <v>100</v>
       </c>
       <c r="B3">
         <v>12.8</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C66" si="0">IF(ISEVEN(A201), -2,2)</f>
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>75.28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <f>IF(ISEVEN(A353), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
-        <f>A3+G$2</f>
-        <v>232.72000000000003</v>
+        <f>IF(ISEVEN(A354)=TRUE, A2+G$2, A2)</f>
+        <v>166.36</v>
       </c>
       <c r="B4">
         <v>12.8</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <f>IF(ISEVEN(A354), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
-        <f t="shared" ref="A5:A21" si="1">A4+G$2</f>
-        <v>299.08000000000004</v>
+        <f>IF(ISEVEN(A355)=TRUE, A4+G$2, A4)</f>
+        <v>166.36</v>
       </c>
       <c r="B5">
         <v>12.8</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <f>IF(ISEVEN(A355), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
-        <f t="shared" si="1"/>
-        <v>365.44000000000005</v>
+        <f>IF(ISEVEN(A356)=TRUE, A5+G$2, A5)</f>
+        <v>232.72000000000003</v>
       </c>
       <c r="B6">
         <v>12.8</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <f>IF(ISEVEN(A356), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
-        <f t="shared" si="1"/>
-        <v>431.80000000000007</v>
+        <f>IF(ISEVEN(A357)=TRUE, A6+G$2, A6)</f>
+        <v>232.72000000000003</v>
       </c>
       <c r="B7">
         <v>12.8</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <f>IF(ISEVEN(A357), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
-        <f t="shared" si="1"/>
-        <v>498.16000000000008</v>
+        <f>IF(ISEVEN(A358)=TRUE, A7+G$2, A7)</f>
+        <v>299.08000000000004</v>
       </c>
       <c r="B8">
         <v>12.8</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <f>IF(ISEVEN(A358), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
-        <f t="shared" si="1"/>
-        <v>564.5200000000001</v>
+        <f>IF(ISEVEN(A359)=TRUE, A8+G$2, A8)</f>
+        <v>299.08000000000004</v>
       </c>
       <c r="B9">
         <v>12.8</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <f>IF(ISEVEN(A359), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
-        <f t="shared" si="1"/>
-        <v>630.88000000000011</v>
+        <f>IF(ISEVEN(A360)=TRUE, A8+G$2, A8)</f>
+        <v>365.44000000000005</v>
       </c>
       <c r="B10">
         <v>12.8</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <f>IF(ISEVEN(A360), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
-        <f t="shared" si="1"/>
-        <v>697.24000000000012</v>
+        <f>IF(ISEVEN(A361)=TRUE, A10+G$2, A10)</f>
+        <v>365.44000000000005</v>
       </c>
       <c r="B11">
         <v>12.8</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <f>IF(ISEVEN(A361), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
-        <f t="shared" si="1"/>
-        <v>763.60000000000014</v>
+        <f>IF(ISEVEN(A362)=TRUE, A11+G$2, A11)</f>
+        <v>431.80000000000007</v>
       </c>
       <c r="B12">
         <v>12.8</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <f>IF(ISEVEN(A362), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
-        <f t="shared" si="1"/>
-        <v>829.96000000000015</v>
+        <f>IF(ISEVEN(A363)=TRUE, A12+G$2, A12)</f>
+        <v>431.80000000000007</v>
       </c>
       <c r="B13">
         <v>12.8</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <f>IF(ISEVEN(A363), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
-        <f t="shared" si="1"/>
-        <v>896.32000000000016</v>
+        <f>IF(ISEVEN(A364)=TRUE, A13+G$2, A13)</f>
+        <v>498.16000000000008</v>
       </c>
       <c r="B14">
         <v>12.8</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <f>IF(ISEVEN(A364), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
-        <f t="shared" si="1"/>
-        <v>962.68000000000018</v>
+        <f>IF(ISEVEN(A365)=TRUE, A14+G$2, A14)</f>
+        <v>498.16000000000008</v>
       </c>
       <c r="B15">
         <v>12.8</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <f>IF(ISEVEN(A365), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
-        <f t="shared" si="1"/>
-        <v>1029.0400000000002</v>
+        <f>IF(ISEVEN(A366)=TRUE, A14+G$2, A14)</f>
+        <v>564.5200000000001</v>
       </c>
       <c r="B16">
         <v>12.8</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A366), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
-        <f t="shared" si="1"/>
-        <v>1095.4000000000001</v>
+        <f>IF(ISEVEN(A367)=TRUE, A16+G$2, A16)</f>
+        <v>564.5200000000001</v>
       </c>
       <c r="B17">
         <v>12.8</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A367), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
-        <f t="shared" si="1"/>
-        <v>1161.76</v>
+        <f>IF(ISEVEN(A368)=TRUE, A17+G$2, A17)</f>
+        <v>630.88000000000011</v>
       </c>
       <c r="B18">
         <v>12.8</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A368), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
-        <f t="shared" si="1"/>
-        <v>1228.1199999999999</v>
+        <f>IF(ISEVEN(A369)=TRUE, A18+G$2, A18)</f>
+        <v>630.88000000000011</v>
       </c>
       <c r="B19">
         <v>12.8</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A369), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
-        <f t="shared" si="1"/>
-        <v>1294.4799999999998</v>
+        <f>IF(ISEVEN(A370)=TRUE, A19+G$2, A19)</f>
+        <v>697.24000000000012</v>
       </c>
       <c r="B20">
         <v>12.8</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A370), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
-        <f t="shared" si="1"/>
-        <v>1360.8399999999997</v>
+        <f>IF(ISEVEN(A371)=TRUE, A19+G$2, A19)</f>
+        <v>630.88000000000011</v>
       </c>
       <c r="B21">
         <v>12.8</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A371), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>100</v>
+        <f>IF(ISEVEN(A372)=TRUE, A21+G$2, A21)</f>
+        <v>697.24000000000012</v>
       </c>
       <c r="B22">
-        <f>B2+G$3</f>
-        <v>88.08</v>
+        <v>12.8</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A372), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
-        <f>A22+G$2</f>
-        <v>166.36</v>
+        <f>IF(ISEVEN(A373)=TRUE, A22+G$2, A22)</f>
+        <v>697.24000000000012</v>
       </c>
       <c r="B23">
-        <f t="shared" ref="B23:B86" si="2">B3+G$3</f>
-        <v>88.08</v>
+        <v>12.8</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A373), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
-        <f>A23+G$2</f>
-        <v>232.72000000000003</v>
+        <f>IF(ISEVEN(A374)=TRUE, A23+G$2, A23)</f>
+        <v>763.60000000000014</v>
       </c>
       <c r="B24">
-        <f t="shared" si="2"/>
-        <v>88.08</v>
+        <v>12.8</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A374), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
-        <f t="shared" ref="A25:A41" si="3">A24+G$2</f>
-        <v>299.08000000000004</v>
+        <f>IF(ISEVEN(A375)=TRUE, A24+G$2, A24)</f>
+        <v>763.60000000000014</v>
       </c>
       <c r="B25">
-        <f t="shared" si="2"/>
-        <v>88.08</v>
+        <v>12.8</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A375), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
-        <f t="shared" si="3"/>
-        <v>365.44000000000005</v>
+        <f>IF(ISEVEN(A376)=TRUE, A25+G$2, A25)</f>
+        <v>829.96000000000015</v>
       </c>
       <c r="B26">
-        <f t="shared" si="2"/>
-        <v>88.08</v>
+        <v>12.8</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A376), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
-        <f t="shared" si="3"/>
-        <v>431.80000000000007</v>
+        <f>IF(ISEVEN(A377)=TRUE, A25+G$2, A25)</f>
+        <v>763.60000000000014</v>
       </c>
       <c r="B27">
-        <f t="shared" si="2"/>
-        <v>88.08</v>
+        <v>12.8</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A377), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
-        <f t="shared" si="3"/>
-        <v>498.16000000000008</v>
+        <f>IF(ISEVEN(A378)=TRUE, A27+G$2, A27)</f>
+        <v>829.96000000000015</v>
       </c>
       <c r="B28">
-        <f t="shared" si="2"/>
-        <v>88.08</v>
+        <v>12.8</v>
       </c>
       <c r="C28">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A378), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
-        <f t="shared" si="3"/>
-        <v>564.5200000000001</v>
+        <f>IF(ISEVEN(A379)=TRUE, A28+G$2, A28)</f>
+        <v>829.96000000000015</v>
       </c>
       <c r="B29">
-        <f t="shared" si="2"/>
-        <v>88.08</v>
+        <v>12.8</v>
       </c>
       <c r="C29">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A379), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
-        <f t="shared" si="3"/>
-        <v>630.88000000000011</v>
+        <f>IF(ISEVEN(A380)=TRUE, A29+G$2, A29)</f>
+        <v>896.32000000000016</v>
       </c>
       <c r="B30">
-        <f t="shared" si="2"/>
-        <v>88.08</v>
+        <v>12.8</v>
       </c>
       <c r="C30">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A380), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
-        <f t="shared" si="3"/>
-        <v>697.24000000000012</v>
+        <f>IF(ISEVEN(A381)=TRUE, A30+G$2, A30)</f>
+        <v>896.32000000000016</v>
       </c>
       <c r="B31">
-        <f t="shared" si="2"/>
-        <v>88.08</v>
+        <v>12.8</v>
       </c>
       <c r="C31">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A381), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
-        <f t="shared" si="3"/>
-        <v>763.60000000000014</v>
+        <f>IF(ISEVEN(A382)=TRUE, A31+G$2, A31)</f>
+        <v>962.68000000000018</v>
       </c>
       <c r="B32">
-        <f t="shared" si="2"/>
-        <v>88.08</v>
+        <v>12.8</v>
       </c>
       <c r="C32">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A382), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
-        <f t="shared" si="3"/>
-        <v>829.96000000000015</v>
+        <f>IF(ISEVEN(A383)=TRUE, A31+G$2, A31)</f>
+        <v>896.32000000000016</v>
       </c>
       <c r="B33">
-        <f t="shared" si="2"/>
-        <v>88.08</v>
+        <v>12.8</v>
       </c>
       <c r="C33">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A383), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
-        <f t="shared" si="3"/>
-        <v>896.32000000000016</v>
+        <f>IF(ISEVEN(A384)=TRUE, A33+G$2, A33)</f>
+        <v>962.68000000000018</v>
       </c>
       <c r="B34">
-        <f t="shared" si="2"/>
-        <v>88.08</v>
+        <v>12.8</v>
       </c>
       <c r="C34">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A384), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
-        <f t="shared" si="3"/>
+        <f>IF(ISEVEN(A385)=TRUE, A34+G$2, A34)</f>
         <v>962.68000000000018</v>
       </c>
       <c r="B35">
-        <f t="shared" si="2"/>
-        <v>88.08</v>
+        <v>12.8</v>
       </c>
       <c r="C35">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A385), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
-        <f t="shared" si="3"/>
+        <f>IF(ISEVEN(A386)=TRUE, A35+G$2, A35)</f>
         <v>1029.0400000000002</v>
       </c>
       <c r="B36">
-        <f t="shared" si="2"/>
-        <v>88.08</v>
+        <v>12.8</v>
       </c>
       <c r="C36">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A386), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
-        <f t="shared" si="3"/>
-        <v>1095.4000000000001</v>
+        <f>IF(ISEVEN(A387)=TRUE, A36+G$2, A36)</f>
+        <v>1029.0400000000002</v>
       </c>
       <c r="B37">
-        <f t="shared" si="2"/>
-        <v>88.08</v>
+        <v>12.8</v>
       </c>
       <c r="C37">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A387), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
-        <f t="shared" si="3"/>
-        <v>1161.76</v>
+        <f>IF(ISEVEN(A388)=TRUE, A36+G$2, A36)</f>
+        <v>1095.4000000000001</v>
       </c>
       <c r="B38">
-        <f t="shared" si="2"/>
-        <v>88.08</v>
+        <v>12.8</v>
       </c>
       <c r="C38">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A388), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
-        <f t="shared" si="3"/>
-        <v>1228.1199999999999</v>
+        <f>IF(ISEVEN(A389)=TRUE, A38+G$2, A38)</f>
+        <v>1095.4000000000001</v>
       </c>
       <c r="B39">
-        <f t="shared" si="2"/>
-        <v>88.08</v>
+        <v>12.8</v>
       </c>
       <c r="C39">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A389), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
-        <f t="shared" si="3"/>
-        <v>1294.4799999999998</v>
+        <f>IF(ISEVEN(A390)=TRUE, A39+G$2, A39)</f>
+        <v>1161.76</v>
       </c>
       <c r="B40">
-        <f t="shared" si="2"/>
-        <v>88.08</v>
+        <v>12.8</v>
       </c>
       <c r="C40">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A390), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
-        <f t="shared" si="3"/>
-        <v>1360.8399999999997</v>
+        <f>IF(ISEVEN(A391)=TRUE, A40+G$2, A40)</f>
+        <v>1161.76</v>
       </c>
       <c r="B41">
-        <f t="shared" si="2"/>
-        <v>88.08</v>
+        <v>12.8</v>
       </c>
       <c r="C41">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A391), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>100</v>
+        <f>IF(ISEVEN(A392)=TRUE, A40+G$2, A40)</f>
+        <v>1228.1199999999999</v>
       </c>
       <c r="B42">
-        <f t="shared" si="2"/>
-        <v>163.36000000000001</v>
+        <v>12.8</v>
       </c>
       <c r="C42">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A392), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43">
-        <f>A42+G$2</f>
-        <v>166.36</v>
+        <f>IF(ISEVEN(A393)=TRUE, A42+G$2, A42)</f>
+        <v>1228.1199999999999</v>
       </c>
       <c r="B43">
-        <f t="shared" si="2"/>
-        <v>163.36000000000001</v>
+        <v>12.8</v>
       </c>
       <c r="C43">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A393), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44">
-        <f>A43+G$2</f>
-        <v>232.72000000000003</v>
+        <f>IF(ISEVEN(A394)=TRUE, A43+G$2, A43)</f>
+        <v>1294.4799999999998</v>
       </c>
       <c r="B44">
-        <f t="shared" si="2"/>
-        <v>163.36000000000001</v>
+        <v>12.8</v>
       </c>
       <c r="C44">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A394), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45">
-        <f t="shared" ref="A45:A61" si="4">A44+G$2</f>
-        <v>299.08000000000004</v>
+        <f>IF(ISEVEN(A395)=TRUE, A44+G$2, A44)</f>
+        <v>1294.4799999999998</v>
       </c>
       <c r="B45">
-        <f t="shared" si="2"/>
-        <v>163.36000000000001</v>
+        <v>12.8</v>
       </c>
       <c r="C45">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A395), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46">
-        <f t="shared" si="4"/>
-        <v>365.44000000000005</v>
+        <f>IF(ISEVEN(A396)=TRUE, A45+G$2, A45)</f>
+        <v>1360.8399999999997</v>
       </c>
       <c r="B46">
-        <f t="shared" si="2"/>
-        <v>163.36000000000001</v>
+        <v>12.8</v>
       </c>
       <c r="C46">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A396), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47">
-        <f t="shared" si="4"/>
-        <v>431.80000000000007</v>
+        <f>IF(ISEVEN(A397)=TRUE, A46+G$2, A46)</f>
+        <v>1360.8399999999997</v>
       </c>
       <c r="B47">
-        <f t="shared" si="2"/>
-        <v>163.36000000000001</v>
+        <v>12.8</v>
       </c>
       <c r="C47">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A397), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48">
-        <f t="shared" si="4"/>
-        <v>498.16000000000008</v>
+        <f>IF(ISEVEN(A398)=TRUE, A46+G$2, A46)</f>
+        <v>1427.1999999999996</v>
       </c>
       <c r="B48">
-        <f t="shared" si="2"/>
-        <v>163.36000000000001</v>
+        <v>12.8</v>
       </c>
       <c r="C48">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A398), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49">
-        <f t="shared" si="4"/>
-        <v>564.5200000000001</v>
+        <f>IF(ISEVEN(A399)=TRUE, A48+G$2, A48)</f>
+        <v>1427.1999999999996</v>
       </c>
       <c r="B49">
-        <f t="shared" si="2"/>
-        <v>163.36000000000001</v>
+        <v>12.8</v>
       </c>
       <c r="C49">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A399), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50">
-        <f t="shared" si="4"/>
-        <v>630.88000000000011</v>
+        <f>IF(ISEVEN(A400)=TRUE, A49+G$2, A49)</f>
+        <v>1493.5599999999995</v>
       </c>
       <c r="B50">
-        <f t="shared" si="2"/>
-        <v>163.36000000000001</v>
+        <v>12.8</v>
       </c>
       <c r="C50">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A400), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51">
-        <f t="shared" si="4"/>
-        <v>697.24000000000012</v>
+        <f>IF(ISEVEN(A401)=TRUE, A50+G$2, A50)</f>
+        <v>1493.5599999999995</v>
       </c>
       <c r="B51">
-        <f t="shared" si="2"/>
-        <v>163.36000000000001</v>
+        <v>12.8</v>
       </c>
       <c r="C51">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A401), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52">
-        <f t="shared" si="4"/>
-        <v>763.60000000000014</v>
+        <f>$I$2</f>
+        <v>100</v>
       </c>
       <c r="B52">
-        <f t="shared" si="2"/>
-        <v>163.36000000000001</v>
+        <f t="shared" ref="B52:B115" si="0">B32+H$2</f>
+        <v>88.08</v>
       </c>
       <c r="C52">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A402), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53">
-        <f t="shared" si="4"/>
-        <v>829.96000000000015</v>
+        <f>IF(ISEVEN(A403)=TRUE, A52+G$2, A52)</f>
+        <v>100</v>
       </c>
       <c r="B53">
-        <f t="shared" si="2"/>
-        <v>163.36000000000001</v>
+        <f t="shared" si="0"/>
+        <v>88.08</v>
       </c>
       <c r="C53">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A403), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54">
-        <f t="shared" si="4"/>
-        <v>896.32000000000016</v>
+        <f>IF(ISEVEN(A404)=TRUE, A52+G$2, A52)</f>
+        <v>166.36</v>
       </c>
       <c r="B54">
-        <f t="shared" si="2"/>
-        <v>163.36000000000001</v>
+        <f t="shared" si="0"/>
+        <v>88.08</v>
       </c>
       <c r="C54">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A404), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55">
-        <f t="shared" si="4"/>
-        <v>962.68000000000018</v>
+        <f>IF(ISEVEN(A405)=TRUE, A54+G$2, A54)</f>
+        <v>166.36</v>
       </c>
       <c r="B55">
-        <f t="shared" si="2"/>
-        <v>163.36000000000001</v>
+        <f t="shared" si="0"/>
+        <v>88.08</v>
       </c>
       <c r="C55">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A405), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56">
-        <f t="shared" si="4"/>
-        <v>1029.0400000000002</v>
+        <f>IF(ISEVEN(A406)=TRUE, A55+G$2, A55)</f>
+        <v>232.72000000000003</v>
       </c>
       <c r="B56">
-        <f t="shared" si="2"/>
-        <v>163.36000000000001</v>
+        <f t="shared" si="0"/>
+        <v>88.08</v>
       </c>
       <c r="C56">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A406), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57">
-        <f t="shared" si="4"/>
-        <v>1095.4000000000001</v>
+        <f>IF(ISEVEN(A407)=TRUE, A56+G$2, A56)</f>
+        <v>232.72000000000003</v>
       </c>
       <c r="B57">
-        <f t="shared" si="2"/>
-        <v>163.36000000000001</v>
+        <f t="shared" si="0"/>
+        <v>88.08</v>
       </c>
       <c r="C57">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A407), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58">
-        <f t="shared" si="4"/>
-        <v>1161.76</v>
+        <f>IF(ISEVEN(A408)=TRUE, A57+G$2, A57)</f>
+        <v>299.08000000000004</v>
       </c>
       <c r="B58">
-        <f t="shared" si="2"/>
-        <v>163.36000000000001</v>
+        <f t="shared" si="0"/>
+        <v>88.08</v>
       </c>
       <c r="C58">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A408), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59">
-        <f t="shared" si="4"/>
-        <v>1228.1199999999999</v>
+        <f>IF(ISEVEN(A409)=TRUE, A58+G$2, A58)</f>
+        <v>299.08000000000004</v>
       </c>
       <c r="B59">
-        <f t="shared" si="2"/>
-        <v>163.36000000000001</v>
+        <f t="shared" si="0"/>
+        <v>88.08</v>
       </c>
       <c r="C59">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A409), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60">
-        <f t="shared" si="4"/>
-        <v>1294.4799999999998</v>
+        <f>IF(ISEVEN(A410)=TRUE, A58+G$2, A58)</f>
+        <v>365.44000000000005</v>
       </c>
       <c r="B60">
-        <f t="shared" si="2"/>
-        <v>163.36000000000001</v>
+        <f t="shared" si="0"/>
+        <v>88.08</v>
       </c>
       <c r="C60">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A410), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61">
-        <f t="shared" si="4"/>
-        <v>1360.8399999999997</v>
+        <f>IF(ISEVEN(A411)=TRUE, A60+G$2, A60)</f>
+        <v>365.44000000000005</v>
       </c>
       <c r="B61">
-        <f t="shared" si="2"/>
-        <v>163.36000000000001</v>
+        <f t="shared" si="0"/>
+        <v>88.08</v>
       </c>
       <c r="C61">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A411), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>100</v>
+        <f>IF(ISEVEN(A412)=TRUE, A61+G$2, A61)</f>
+        <v>431.80000000000007</v>
       </c>
       <c r="B62">
-        <f t="shared" si="2"/>
-        <v>238.64000000000001</v>
+        <f t="shared" si="0"/>
+        <v>88.08</v>
       </c>
       <c r="C62">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A412), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63">
-        <f>A62+G$2</f>
-        <v>166.36</v>
+        <f>IF(ISEVEN(A413)=TRUE, A62+G$2, A62)</f>
+        <v>431.80000000000007</v>
       </c>
       <c r="B63">
-        <f t="shared" si="2"/>
-        <v>238.64000000000001</v>
+        <f t="shared" si="0"/>
+        <v>88.08</v>
       </c>
       <c r="C63">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A413), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64">
-        <f>A63+G$2</f>
-        <v>232.72000000000003</v>
+        <f>IF(ISEVEN(A414)=TRUE, A63+G$2, A63)</f>
+        <v>498.16000000000008</v>
       </c>
       <c r="B64">
-        <f t="shared" si="2"/>
-        <v>238.64000000000001</v>
+        <f t="shared" si="0"/>
+        <v>88.08</v>
       </c>
       <c r="C64">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A414), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65">
-        <f t="shared" ref="A65:A81" si="5">A64+G$2</f>
-        <v>299.08000000000004</v>
+        <f>IF(ISEVEN(A415)=TRUE, A64+G$2, A64)</f>
+        <v>498.16000000000008</v>
       </c>
       <c r="B65">
-        <f t="shared" si="2"/>
-        <v>238.64000000000001</v>
+        <f t="shared" si="0"/>
+        <v>88.08</v>
       </c>
       <c r="C65">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A415), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66">
-        <f t="shared" si="5"/>
-        <v>365.44000000000005</v>
+        <f>IF(ISEVEN(A416)=TRUE, A64+G$2, A64)</f>
+        <v>564.5200000000001</v>
       </c>
       <c r="B66">
-        <f t="shared" si="2"/>
-        <v>238.64000000000001</v>
+        <f t="shared" si="0"/>
+        <v>88.08</v>
       </c>
       <c r="C66">
-        <f t="shared" si="0"/>
+        <f>IF(ISEVEN(A416), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67">
-        <f t="shared" si="5"/>
-        <v>431.80000000000007</v>
+        <f>IF(ISEVEN(A417)=TRUE, A66+G$2, A66)</f>
+        <v>564.5200000000001</v>
       </c>
       <c r="B67">
-        <f t="shared" si="2"/>
-        <v>238.64000000000001</v>
+        <f t="shared" si="0"/>
+        <v>88.08</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C121" si="6">IF(ISEVEN(A265), -2,2)</f>
+        <f>IF(ISEVEN(A417), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68">
-        <f t="shared" si="5"/>
-        <v>498.16000000000008</v>
+        <f>IF(ISEVEN(A418)=TRUE, A67+G$2, A67)</f>
+        <v>630.88000000000011</v>
       </c>
       <c r="B68">
-        <f t="shared" si="2"/>
-        <v>238.64000000000001</v>
+        <f t="shared" si="0"/>
+        <v>88.08</v>
       </c>
       <c r="C68">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A418), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69">
-        <f t="shared" si="5"/>
-        <v>564.5200000000001</v>
+        <f>IF(ISEVEN(A419)=TRUE, A68+G$2, A68)</f>
+        <v>630.88000000000011</v>
       </c>
       <c r="B69">
-        <f t="shared" si="2"/>
-        <v>238.64000000000001</v>
+        <f t="shared" si="0"/>
+        <v>88.08</v>
       </c>
       <c r="C69">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A419), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70">
-        <f t="shared" si="5"/>
-        <v>630.88000000000011</v>
+        <f>IF(ISEVEN(A420)=TRUE, A69+G$2, A69)</f>
+        <v>697.24000000000012</v>
       </c>
       <c r="B70">
-        <f t="shared" si="2"/>
-        <v>238.64000000000001</v>
+        <f t="shared" si="0"/>
+        <v>88.08</v>
       </c>
       <c r="C70">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A420), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71">
-        <f t="shared" si="5"/>
-        <v>697.24000000000012</v>
+        <f>IF(ISEVEN(A421)=TRUE, A69+G$2, A69)</f>
+        <v>630.88000000000011</v>
       </c>
       <c r="B71">
-        <f t="shared" si="2"/>
-        <v>238.64000000000001</v>
+        <f t="shared" si="0"/>
+        <v>88.08</v>
       </c>
       <c r="C71">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A421), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72">
-        <f t="shared" si="5"/>
-        <v>763.60000000000014</v>
+        <f>IF(ISEVEN(A422)=TRUE, A71+G$2, A71)</f>
+        <v>697.24000000000012</v>
       </c>
       <c r="B72">
-        <f t="shared" si="2"/>
-        <v>238.64000000000001</v>
+        <f t="shared" si="0"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C72">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A422), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73">
-        <f t="shared" si="5"/>
-        <v>829.96000000000015</v>
+        <f>IF(ISEVEN(A423)=TRUE, A72+G$2, A72)</f>
+        <v>697.24000000000012</v>
       </c>
       <c r="B73">
-        <f t="shared" si="2"/>
-        <v>238.64000000000001</v>
+        <f t="shared" si="0"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C73">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A423), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74">
-        <f t="shared" si="5"/>
-        <v>896.32000000000016</v>
+        <f>IF(ISEVEN(A424)=TRUE, A73+G$2, A73)</f>
+        <v>763.60000000000014</v>
       </c>
       <c r="B74">
-        <f t="shared" si="2"/>
-        <v>238.64000000000001</v>
+        <f t="shared" si="0"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C74">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A424), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75">
-        <f t="shared" si="5"/>
-        <v>962.68000000000018</v>
+        <f>IF(ISEVEN(A425)=TRUE, A74+G$2, A74)</f>
+        <v>763.60000000000014</v>
       </c>
       <c r="B75">
-        <f t="shared" si="2"/>
-        <v>238.64000000000001</v>
+        <f t="shared" si="0"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C75">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A425), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76">
-        <f t="shared" si="5"/>
-        <v>1029.0400000000002</v>
+        <f>IF(ISEVEN(A426)=TRUE, A75+G$2, A75)</f>
+        <v>829.96000000000015</v>
       </c>
       <c r="B76">
-        <f t="shared" si="2"/>
-        <v>238.64000000000001</v>
+        <f t="shared" si="0"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C76">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A426), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77">
-        <f t="shared" si="5"/>
-        <v>1095.4000000000001</v>
+        <f>IF(ISEVEN(A427)=TRUE, A75+G$2, A75)</f>
+        <v>763.60000000000014</v>
       </c>
       <c r="B77">
-        <f t="shared" si="2"/>
-        <v>238.64000000000001</v>
+        <f t="shared" si="0"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C77">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A427), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78">
-        <f t="shared" si="5"/>
-        <v>1161.76</v>
+        <f>IF(ISEVEN(A428)=TRUE, A77+G$2, A77)</f>
+        <v>829.96000000000015</v>
       </c>
       <c r="B78">
-        <f t="shared" si="2"/>
-        <v>238.64000000000001</v>
+        <f t="shared" si="0"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C78">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A428), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79">
-        <f t="shared" si="5"/>
-        <v>1228.1199999999999</v>
+        <f>IF(ISEVEN(A429)=TRUE, A78+G$2, A78)</f>
+        <v>829.96000000000015</v>
       </c>
       <c r="B79">
-        <f t="shared" si="2"/>
-        <v>238.64000000000001</v>
+        <f t="shared" si="0"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C79">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A429), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80">
-        <f t="shared" si="5"/>
-        <v>1294.4799999999998</v>
+        <f>IF(ISEVEN(A430)=TRUE, A79+G$2, A79)</f>
+        <v>896.32000000000016</v>
       </c>
       <c r="B80">
-        <f t="shared" si="2"/>
-        <v>238.64000000000001</v>
+        <f t="shared" si="0"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C80">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A430), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81">
-        <f t="shared" si="5"/>
-        <v>1360.8399999999997</v>
+        <f>IF(ISEVEN(A431)=TRUE, A80+G$2, A80)</f>
+        <v>896.32000000000016</v>
       </c>
       <c r="B81">
-        <f t="shared" si="2"/>
-        <v>238.64000000000001</v>
+        <f t="shared" si="0"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C81">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A431), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>100</v>
+        <f>IF(ISEVEN(A432)=TRUE, A81+G$2, A81)</f>
+        <v>962.68000000000018</v>
       </c>
       <c r="B82">
-        <f t="shared" si="2"/>
-        <v>313.92</v>
+        <f t="shared" si="0"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C82">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A432), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83">
-        <f>A82+G$2</f>
-        <v>166.36</v>
+        <f>IF(ISEVEN(A433)=TRUE, A81+G$2, A81)</f>
+        <v>896.32000000000016</v>
       </c>
       <c r="B83">
-        <f t="shared" si="2"/>
-        <v>313.92</v>
+        <f t="shared" si="0"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C83">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A433), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84">
-        <f>A83+G$2</f>
-        <v>232.72000000000003</v>
+        <f>IF(ISEVEN(A434)=TRUE, A83+G$2, A83)</f>
+        <v>962.68000000000018</v>
       </c>
       <c r="B84">
-        <f t="shared" si="2"/>
-        <v>313.92</v>
+        <f t="shared" si="0"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C84">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A434), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85">
-        <f t="shared" ref="A85:A101" si="7">A84+G$2</f>
-        <v>299.08000000000004</v>
+        <f>IF(ISEVEN(A435)=TRUE, A84+G$2, A84)</f>
+        <v>962.68000000000018</v>
       </c>
       <c r="B85">
-        <f t="shared" si="2"/>
-        <v>313.92</v>
+        <f t="shared" si="0"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C85">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A435), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86">
-        <f t="shared" si="7"/>
-        <v>365.44000000000005</v>
+        <f>IF(ISEVEN(A436)=TRUE, A85+G$2, A85)</f>
+        <v>1029.0400000000002</v>
       </c>
       <c r="B86">
-        <f t="shared" si="2"/>
-        <v>313.92</v>
+        <f t="shared" si="0"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C86">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A436), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87">
-        <f t="shared" si="7"/>
-        <v>431.80000000000007</v>
+        <f>IF(ISEVEN(A437)=TRUE, A86+G$2, A86)</f>
+        <v>1029.0400000000002</v>
       </c>
       <c r="B87">
-        <f t="shared" ref="B87:B121" si="8">B67+G$3</f>
-        <v>313.92</v>
+        <f t="shared" si="0"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C87">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A437), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88">
-        <f t="shared" si="7"/>
-        <v>498.16000000000008</v>
+        <f>IF(ISEVEN(A438)=TRUE, A86+G$2, A86)</f>
+        <v>1095.4000000000001</v>
       </c>
       <c r="B88">
-        <f t="shared" si="8"/>
-        <v>313.92</v>
+        <f t="shared" si="0"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C88">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A438), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89">
-        <f t="shared" si="7"/>
-        <v>564.5200000000001</v>
+        <f>IF(ISEVEN(A439)=TRUE, A88+G$2, A88)</f>
+        <v>1095.4000000000001</v>
       </c>
       <c r="B89">
-        <f t="shared" si="8"/>
-        <v>313.92</v>
+        <f t="shared" si="0"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C89">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A439), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90">
-        <f t="shared" si="7"/>
-        <v>630.88000000000011</v>
+        <f>IF(ISEVEN(A440)=TRUE, A89+G$2, A89)</f>
+        <v>1161.76</v>
       </c>
       <c r="B90">
-        <f t="shared" si="8"/>
-        <v>313.92</v>
+        <f t="shared" si="0"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C90">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A440), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91">
-        <f t="shared" si="7"/>
-        <v>697.24000000000012</v>
+        <f>IF(ISEVEN(A441)=TRUE, A90+G$2, A90)</f>
+        <v>1161.76</v>
       </c>
       <c r="B91">
-        <f t="shared" si="8"/>
-        <v>313.92</v>
+        <f t="shared" si="0"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C91">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A441), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92">
-        <f t="shared" si="7"/>
-        <v>763.60000000000014</v>
+        <f>IF(ISEVEN(A442)=TRUE, A90+G$2, A90)</f>
+        <v>1228.1199999999999</v>
       </c>
       <c r="B92">
-        <f t="shared" si="8"/>
-        <v>313.92</v>
+        <f t="shared" si="0"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C92">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A442), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93">
-        <f t="shared" si="7"/>
-        <v>829.96000000000015</v>
+        <f>IF(ISEVEN(A443)=TRUE, A92+G$2, A92)</f>
+        <v>1228.1199999999999</v>
       </c>
       <c r="B93">
-        <f t="shared" si="8"/>
-        <v>313.92</v>
+        <f t="shared" si="0"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C93">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A443), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94">
-        <f t="shared" si="7"/>
-        <v>896.32000000000016</v>
+        <f>IF(ISEVEN(A444)=TRUE, A93+G$2, A93)</f>
+        <v>1294.4799999999998</v>
       </c>
       <c r="B94">
-        <f t="shared" si="8"/>
-        <v>313.92</v>
+        <f t="shared" si="0"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C94">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A444), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95">
-        <f t="shared" si="7"/>
-        <v>962.68000000000018</v>
+        <f>IF(ISEVEN(A445)=TRUE, A94+G$2, A94)</f>
+        <v>1294.4799999999998</v>
       </c>
       <c r="B95">
-        <f t="shared" si="8"/>
-        <v>313.92</v>
+        <f t="shared" si="0"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C95">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A445), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96">
-        <f t="shared" si="7"/>
-        <v>1029.0400000000002</v>
+        <f>IF(ISEVEN(A446)=TRUE, A95+G$2, A95)</f>
+        <v>1360.8399999999997</v>
       </c>
       <c r="B96">
-        <f t="shared" si="8"/>
-        <v>313.92</v>
+        <f t="shared" si="0"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C96">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A446), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97">
-        <f t="shared" si="7"/>
-        <v>1095.4000000000001</v>
+        <f>IF(ISEVEN(A447)=TRUE, A96+G$2, A96)</f>
+        <v>1360.8399999999997</v>
       </c>
       <c r="B97">
-        <f t="shared" si="8"/>
-        <v>313.92</v>
+        <f t="shared" si="0"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C97">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A447), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98">
-        <f t="shared" si="7"/>
-        <v>1161.76</v>
+        <f>IF(ISEVEN(A448)=TRUE, A96+G$2, A96)</f>
+        <v>1427.1999999999996</v>
       </c>
       <c r="B98">
-        <f t="shared" si="8"/>
-        <v>313.92</v>
+        <f t="shared" si="0"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C98">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A448), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99">
-        <f t="shared" si="7"/>
-        <v>1228.1199999999999</v>
+        <f>IF(ISEVEN(A449)=TRUE, A98+G$2, A98)</f>
+        <v>1427.1999999999996</v>
       </c>
       <c r="B99">
-        <f t="shared" si="8"/>
-        <v>313.92</v>
+        <f t="shared" si="0"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C99">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A449), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100">
-        <f t="shared" si="7"/>
-        <v>1294.4799999999998</v>
+        <f>IF(ISEVEN(A450)=TRUE, A99+G$2, A99)</f>
+        <v>1493.5599999999995</v>
       </c>
       <c r="B100">
-        <f t="shared" si="8"/>
-        <v>313.92</v>
+        <f t="shared" si="0"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C100">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A450), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101">
-        <f t="shared" si="7"/>
-        <v>1360.8399999999997</v>
+        <f>IF(ISEVEN(A451)=TRUE, A100+G$2, A100)</f>
+        <v>1493.5599999999995</v>
       </c>
       <c r="B101">
-        <f t="shared" si="8"/>
-        <v>313.92</v>
+        <f t="shared" si="0"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C101">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A451), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102">
+        <f>$I$2</f>
         <v>100</v>
       </c>
       <c r="B102">
-        <f t="shared" si="8"/>
-        <v>389.20000000000005</v>
+        <f t="shared" si="0"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C102">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A452), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103">
-        <f>A102+G$2</f>
-        <v>166.36</v>
+        <f>IF(ISEVEN(A453)=TRUE, A102+G$2, A102)</f>
+        <v>100</v>
       </c>
       <c r="B103">
-        <f t="shared" si="8"/>
-        <v>389.20000000000005</v>
+        <f t="shared" si="0"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C103">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A453), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104">
-        <f>A103+G$2</f>
-        <v>232.72000000000003</v>
+        <f>IF(ISEVEN(A454)=TRUE, A102+G$2, A102)</f>
+        <v>166.36</v>
       </c>
       <c r="B104">
-        <f t="shared" si="8"/>
-        <v>389.20000000000005</v>
+        <f t="shared" si="0"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C104">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A454), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105">
-        <f t="shared" ref="A105:A121" si="9">A104+G$2</f>
-        <v>299.08000000000004</v>
+        <f>IF(ISEVEN(A455)=TRUE, A104+G$2, A104)</f>
+        <v>166.36</v>
       </c>
       <c r="B105">
-        <f t="shared" si="8"/>
-        <v>389.20000000000005</v>
+        <f t="shared" si="0"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C105">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A455), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106">
-        <f t="shared" si="9"/>
-        <v>365.44000000000005</v>
+        <f>IF(ISEVEN(A456)=TRUE, A105+G$2, A105)</f>
+        <v>232.72000000000003</v>
       </c>
       <c r="B106">
-        <f t="shared" si="8"/>
-        <v>389.20000000000005</v>
+        <f t="shared" si="0"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C106">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A456), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107">
-        <f t="shared" si="9"/>
-        <v>431.80000000000007</v>
+        <f>IF(ISEVEN(A457)=TRUE, A106+G$2, A106)</f>
+        <v>232.72000000000003</v>
       </c>
       <c r="B107">
-        <f t="shared" si="8"/>
-        <v>389.20000000000005</v>
+        <f t="shared" si="0"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C107">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A457), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108">
-        <f t="shared" si="9"/>
-        <v>498.16000000000008</v>
+        <f>IF(ISEVEN(A458)=TRUE, A107+G$2, A107)</f>
+        <v>299.08000000000004</v>
       </c>
       <c r="B108">
-        <f t="shared" si="8"/>
-        <v>389.20000000000005</v>
+        <f t="shared" si="0"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C108">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A458), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109">
-        <f t="shared" si="9"/>
-        <v>564.5200000000001</v>
+        <f>IF(ISEVEN(A459)=TRUE, A108+G$2, A108)</f>
+        <v>299.08000000000004</v>
       </c>
       <c r="B109">
-        <f t="shared" si="8"/>
-        <v>389.20000000000005</v>
+        <f t="shared" si="0"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C109">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A459), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110">
-        <f t="shared" si="9"/>
-        <v>630.88000000000011</v>
+        <f>IF(ISEVEN(A460)=TRUE, A108+G$2, A108)</f>
+        <v>365.44000000000005</v>
       </c>
       <c r="B110">
-        <f t="shared" si="8"/>
-        <v>389.20000000000005</v>
+        <f t="shared" si="0"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C110">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A460), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111">
-        <f t="shared" si="9"/>
-        <v>697.24000000000012</v>
+        <f>IF(ISEVEN(A461)=TRUE, A110+G$2, A110)</f>
+        <v>365.44000000000005</v>
       </c>
       <c r="B111">
-        <f t="shared" si="8"/>
-        <v>389.20000000000005</v>
+        <f t="shared" si="0"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C111">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A461), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112">
-        <f t="shared" si="9"/>
-        <v>763.60000000000014</v>
+        <f>IF(ISEVEN(A462)=TRUE, A111+G$2, A111)</f>
+        <v>431.80000000000007</v>
       </c>
       <c r="B112">
-        <f t="shared" si="8"/>
-        <v>389.20000000000005</v>
+        <f t="shared" si="0"/>
+        <v>313.92</v>
       </c>
       <c r="C112">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A462), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113">
-        <f t="shared" si="9"/>
-        <v>829.96000000000015</v>
+        <f>IF(ISEVEN(A463)=TRUE, A112+G$2, A112)</f>
+        <v>431.80000000000007</v>
       </c>
       <c r="B113">
-        <f t="shared" si="8"/>
-        <v>389.20000000000005</v>
+        <f t="shared" si="0"/>
+        <v>313.92</v>
       </c>
       <c r="C113">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A463), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114">
-        <f t="shared" si="9"/>
-        <v>896.32000000000016</v>
+        <f>IF(ISEVEN(A464)=TRUE, A113+G$2, A113)</f>
+        <v>498.16000000000008</v>
       </c>
       <c r="B114">
-        <f t="shared" si="8"/>
-        <v>389.20000000000005</v>
+        <f t="shared" si="0"/>
+        <v>313.92</v>
       </c>
       <c r="C114">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A464), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115">
-        <f t="shared" si="9"/>
-        <v>962.68000000000018</v>
+        <f>IF(ISEVEN(A465)=TRUE, A114+G$2, A114)</f>
+        <v>498.16000000000008</v>
       </c>
       <c r="B115">
-        <f t="shared" si="8"/>
-        <v>389.20000000000005</v>
+        <f t="shared" si="0"/>
+        <v>313.92</v>
       </c>
       <c r="C115">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A465), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116">
-        <f t="shared" si="9"/>
-        <v>1029.0400000000002</v>
+        <f>IF(ISEVEN(A466)=TRUE, A114+G$2, A114)</f>
+        <v>564.5200000000001</v>
       </c>
       <c r="B116">
-        <f t="shared" si="8"/>
-        <v>389.20000000000005</v>
+        <f t="shared" ref="B116:B179" si="1">B96+H$2</f>
+        <v>313.92</v>
       </c>
       <c r="C116">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A466), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117">
-        <f t="shared" si="9"/>
-        <v>1095.4000000000001</v>
+        <f>IF(ISEVEN(A467)=TRUE, A116+G$2, A116)</f>
+        <v>564.5200000000001</v>
       </c>
       <c r="B117">
-        <f t="shared" si="8"/>
-        <v>389.20000000000005</v>
+        <f t="shared" si="1"/>
+        <v>313.92</v>
       </c>
       <c r="C117">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A467), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118">
-        <f t="shared" si="9"/>
-        <v>1161.76</v>
+        <f>IF(ISEVEN(A468)=TRUE, A117+G$2, A117)</f>
+        <v>630.88000000000011</v>
       </c>
       <c r="B118">
-        <f t="shared" si="8"/>
-        <v>389.20000000000005</v>
+        <f t="shared" si="1"/>
+        <v>313.92</v>
       </c>
       <c r="C118">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A468), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119">
-        <f t="shared" si="9"/>
-        <v>1228.1199999999999</v>
+        <f>IF(ISEVEN(A469)=TRUE, A118+G$2, A118)</f>
+        <v>630.88000000000011</v>
       </c>
       <c r="B119">
-        <f t="shared" si="8"/>
-        <v>389.20000000000005</v>
+        <f t="shared" si="1"/>
+        <v>313.92</v>
       </c>
       <c r="C119">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A469), -2,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120">
-        <f t="shared" si="9"/>
-        <v>1294.4799999999998</v>
+        <f>IF(ISEVEN(A470)=TRUE, A119+G$2, A119)</f>
+        <v>697.24000000000012</v>
       </c>
       <c r="B120">
-        <f t="shared" si="8"/>
-        <v>389.20000000000005</v>
+        <f t="shared" si="1"/>
+        <v>313.92</v>
       </c>
       <c r="C120">
-        <f t="shared" si="6"/>
+        <f>IF(ISEVEN(A470), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121">
-        <f t="shared" si="9"/>
+        <f>IF(ISEVEN(A471)=TRUE, A119+G$2, A119)</f>
+        <v>630.88000000000011</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="1"/>
+        <v>313.92</v>
+      </c>
+      <c r="C121">
+        <f>IF(ISEVEN(A471), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <f>IF(ISEVEN(A472)=TRUE, A121+G$2, A121)</f>
+        <v>697.24000000000012</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="1"/>
+        <v>313.92</v>
+      </c>
+      <c r="C122">
+        <f>IF(ISEVEN(A472), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <f>IF(ISEVEN(A473)=TRUE, A122+G$2, A122)</f>
+        <v>697.24000000000012</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="1"/>
+        <v>313.92</v>
+      </c>
+      <c r="C123">
+        <f>IF(ISEVEN(A473), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <f>IF(ISEVEN(A474)=TRUE, A123+G$2, A123)</f>
+        <v>763.60000000000014</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="1"/>
+        <v>313.92</v>
+      </c>
+      <c r="C124">
+        <f>IF(ISEVEN(A474), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <f>IF(ISEVEN(A475)=TRUE, A124+G$2, A124)</f>
+        <v>763.60000000000014</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="1"/>
+        <v>313.92</v>
+      </c>
+      <c r="C125">
+        <f>IF(ISEVEN(A475), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <f>IF(ISEVEN(A476)=TRUE, A125+G$2, A125)</f>
+        <v>829.96000000000015</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="1"/>
+        <v>313.92</v>
+      </c>
+      <c r="C126">
+        <f>IF(ISEVEN(A476), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <f>IF(ISEVEN(A477)=TRUE, A125+G$2, A125)</f>
+        <v>763.60000000000014</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="1"/>
+        <v>313.92</v>
+      </c>
+      <c r="C127">
+        <f>IF(ISEVEN(A477), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <f>IF(ISEVEN(A478)=TRUE, A127+G$2, A127)</f>
+        <v>829.96000000000015</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="1"/>
+        <v>313.92</v>
+      </c>
+      <c r="C128">
+        <f>IF(ISEVEN(A478), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <f>IF(ISEVEN(A479)=TRUE, A128+G$2, A128)</f>
+        <v>829.96000000000015</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="1"/>
+        <v>313.92</v>
+      </c>
+      <c r="C129">
+        <f>IF(ISEVEN(A479), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <f>IF(ISEVEN(A480)=TRUE, A129+G$2, A129)</f>
+        <v>896.32000000000016</v>
+      </c>
+      <c r="B130">
+        <f t="shared" si="1"/>
+        <v>313.92</v>
+      </c>
+      <c r="C130">
+        <f>IF(ISEVEN(A480), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <f>IF(ISEVEN(A481)=TRUE, A130+G$2, A130)</f>
+        <v>896.32000000000016</v>
+      </c>
+      <c r="B131">
+        <f t="shared" si="1"/>
+        <v>313.92</v>
+      </c>
+      <c r="C131">
+        <f>IF(ISEVEN(A481), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <f>IF(ISEVEN(A482)=TRUE, A131+G$2, A131)</f>
+        <v>962.68000000000018</v>
+      </c>
+      <c r="B132">
+        <f t="shared" si="1"/>
+        <v>389.20000000000005</v>
+      </c>
+      <c r="C132">
+        <f>IF(ISEVEN(A482), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <f>IF(ISEVEN(A483)=TRUE, A131+G$2, A131)</f>
+        <v>896.32000000000016</v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="1"/>
+        <v>389.20000000000005</v>
+      </c>
+      <c r="C133">
+        <f>IF(ISEVEN(A483), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <f>IF(ISEVEN(A484)=TRUE, A133+G$2, A133)</f>
+        <v>962.68000000000018</v>
+      </c>
+      <c r="B134">
+        <f t="shared" si="1"/>
+        <v>389.20000000000005</v>
+      </c>
+      <c r="C134">
+        <f>IF(ISEVEN(A484), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <f>IF(ISEVEN(A485)=TRUE, A134+G$2, A134)</f>
+        <v>962.68000000000018</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="1"/>
+        <v>389.20000000000005</v>
+      </c>
+      <c r="C135">
+        <f>IF(ISEVEN(A485), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <f>IF(ISEVEN(A486)=TRUE, A135+G$2, A135)</f>
+        <v>1029.0400000000002</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="1"/>
+        <v>389.20000000000005</v>
+      </c>
+      <c r="C136">
+        <f>IF(ISEVEN(A486), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <f>IF(ISEVEN(A487)=TRUE, A136+G$2, A136)</f>
+        <v>1029.0400000000002</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="1"/>
+        <v>389.20000000000005</v>
+      </c>
+      <c r="C137">
+        <f>IF(ISEVEN(A487), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <f>IF(ISEVEN(A488)=TRUE, A136+G$2, A136)</f>
+        <v>1095.4000000000001</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="1"/>
+        <v>389.20000000000005</v>
+      </c>
+      <c r="C138">
+        <f>IF(ISEVEN(A488), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <f>IF(ISEVEN(A489)=TRUE, A138+G$2, A138)</f>
+        <v>1095.4000000000001</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="1"/>
+        <v>389.20000000000005</v>
+      </c>
+      <c r="C139">
+        <f>IF(ISEVEN(A489), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <f>IF(ISEVEN(A490)=TRUE, A139+G$2, A139)</f>
+        <v>1161.76</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="1"/>
+        <v>389.20000000000005</v>
+      </c>
+      <c r="C140">
+        <f>IF(ISEVEN(A490), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <f>IF(ISEVEN(A491)=TRUE, A140+G$2, A140)</f>
+        <v>1161.76</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="1"/>
+        <v>389.20000000000005</v>
+      </c>
+      <c r="C141">
+        <f>IF(ISEVEN(A491), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <f>IF(ISEVEN(A492)=TRUE, A140+G$2, A140)</f>
+        <v>1228.1199999999999</v>
+      </c>
+      <c r="B142">
+        <f t="shared" si="1"/>
+        <v>389.20000000000005</v>
+      </c>
+      <c r="C142">
+        <f>IF(ISEVEN(A492), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <f>IF(ISEVEN(A493)=TRUE, A142+G$2, A142)</f>
+        <v>1228.1199999999999</v>
+      </c>
+      <c r="B143">
+        <f t="shared" si="1"/>
+        <v>389.20000000000005</v>
+      </c>
+      <c r="C143">
+        <f>IF(ISEVEN(A493), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <f>IF(ISEVEN(A494)=TRUE, A143+G$2, A143)</f>
+        <v>1294.4799999999998</v>
+      </c>
+      <c r="B144">
+        <f t="shared" si="1"/>
+        <v>389.20000000000005</v>
+      </c>
+      <c r="C144">
+        <f>IF(ISEVEN(A494), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <f>IF(ISEVEN(A495)=TRUE, A144+G$2, A144)</f>
+        <v>1294.4799999999998</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="1"/>
+        <v>389.20000000000005</v>
+      </c>
+      <c r="C145">
+        <f>IF(ISEVEN(A495), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <f>IF(ISEVEN(A496)=TRUE, A145+G$2, A145)</f>
         <v>1360.8399999999997</v>
       </c>
-      <c r="B121">
-        <f t="shared" si="8"/>
+      <c r="B146">
+        <f t="shared" si="1"/>
         <v>389.20000000000005</v>
       </c>
-      <c r="C121">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
+      <c r="C146">
+        <f>IF(ISEVEN(A496), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <f>IF(ISEVEN(A497)=TRUE, A146+G$2, A146)</f>
+        <v>1360.8399999999997</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="1"/>
+        <v>389.20000000000005</v>
+      </c>
+      <c r="C147">
+        <f>IF(ISEVEN(A497), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <f>IF(ISEVEN(A498)=TRUE, A146+G$2, A146)</f>
+        <v>1427.1999999999996</v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="1"/>
+        <v>389.20000000000005</v>
+      </c>
+      <c r="C148">
+        <f>IF(ISEVEN(A498), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <f>IF(ISEVEN(A499)=TRUE, A148+G$2, A148)</f>
+        <v>1427.1999999999996</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="1"/>
+        <v>389.20000000000005</v>
+      </c>
+      <c r="C149">
+        <f>IF(ISEVEN(A499), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <f>IF(ISEVEN(A500)=TRUE, A149+G$2, A149)</f>
+        <v>1493.5599999999995</v>
+      </c>
+      <c r="B150">
+        <f t="shared" si="1"/>
+        <v>389.20000000000005</v>
+      </c>
+      <c r="C150">
+        <f>IF(ISEVEN(A500), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <f>IF(ISEVEN(A501)=TRUE, A150+G$2, A150)</f>
+        <v>1493.5599999999995</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="1"/>
+        <v>389.20000000000005</v>
+      </c>
+      <c r="C151">
+        <f>IF(ISEVEN(A501), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <f>$I$2</f>
+        <v>100</v>
+      </c>
+      <c r="B152">
+        <f>B132+H$2</f>
+        <v>464.48</v>
+      </c>
+      <c r="C152">
+        <f>IF(ISEVEN(A502), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <f>IF(ISEVEN(A503)=TRUE, A152+G$2, A152)</f>
+        <v>100</v>
+      </c>
+      <c r="B153">
+        <f>B133+H$2</f>
+        <v>464.48</v>
+      </c>
+      <c r="C153">
+        <f>IF(ISEVEN(A503), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <f>IF(ISEVEN(A504)=TRUE, A152+G$2, A152)</f>
+        <v>166.36</v>
+      </c>
+      <c r="B154">
+        <f>B134+H$2</f>
+        <v>464.48</v>
+      </c>
+      <c r="C154">
+        <f>IF(ISEVEN(A504), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <f>IF(ISEVEN(A505)=TRUE, A154+G$2, A154)</f>
+        <v>166.36</v>
+      </c>
+      <c r="B155">
+        <f>B135+H$2</f>
+        <v>464.48</v>
+      </c>
+      <c r="C155">
+        <f>IF(ISEVEN(A505), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <f>IF(ISEVEN(A506)=TRUE, A155+G$2, A155)</f>
+        <v>232.72000000000003</v>
+      </c>
+      <c r="B156">
+        <f>B136+H$2</f>
+        <v>464.48</v>
+      </c>
+      <c r="C156">
+        <f>IF(ISEVEN(A506), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <f>IF(ISEVEN(A507)=TRUE, A156+G$2, A156)</f>
+        <v>232.72000000000003</v>
+      </c>
+      <c r="B157">
+        <f>B137+H$2</f>
+        <v>464.48</v>
+      </c>
+      <c r="C157">
+        <f>IF(ISEVEN(A507), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <f>IF(ISEVEN(A508)=TRUE, A157+G$2, A157)</f>
+        <v>299.08000000000004</v>
+      </c>
+      <c r="B158">
+        <f>B138+H$2</f>
+        <v>464.48</v>
+      </c>
+      <c r="C158">
+        <f>IF(ISEVEN(A508), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <f>IF(ISEVEN(A509)=TRUE, A158+G$2, A158)</f>
+        <v>299.08000000000004</v>
+      </c>
+      <c r="B159">
+        <f>B139+H$2</f>
+        <v>464.48</v>
+      </c>
+      <c r="C159">
+        <f>IF(ISEVEN(A509), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <f>IF(ISEVEN(A510)=TRUE, A158+G$2, A158)</f>
+        <v>365.44000000000005</v>
+      </c>
+      <c r="B160">
+        <f>B140+H$2</f>
+        <v>464.48</v>
+      </c>
+      <c r="C160">
+        <f>IF(ISEVEN(A510), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <f>IF(ISEVEN(A511)=TRUE, A160+G$2, A160)</f>
+        <v>365.44000000000005</v>
+      </c>
+      <c r="B161">
+        <f>B141+H$2</f>
+        <v>464.48</v>
+      </c>
+      <c r="C161">
+        <f>IF(ISEVEN(A511), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <f>IF(ISEVEN(A512)=TRUE, A161+G$2, A161)</f>
+        <v>431.80000000000007</v>
+      </c>
+      <c r="B162">
+        <f>B142+H$2</f>
+        <v>464.48</v>
+      </c>
+      <c r="C162">
+        <f>IF(ISEVEN(A512), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <f>IF(ISEVEN(A513)=TRUE, A162+G$2, A162)</f>
+        <v>431.80000000000007</v>
+      </c>
+      <c r="B163">
+        <f>B143+H$2</f>
+        <v>464.48</v>
+      </c>
+      <c r="C163">
+        <f>IF(ISEVEN(A513), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <f>IF(ISEVEN(A514)=TRUE, A163+G$2, A163)</f>
+        <v>498.16000000000008</v>
+      </c>
+      <c r="B164">
+        <f>B144+H$2</f>
+        <v>464.48</v>
+      </c>
+      <c r="C164">
+        <f>IF(ISEVEN(A514), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <f>IF(ISEVEN(A515)=TRUE, A164+G$2, A164)</f>
+        <v>498.16000000000008</v>
+      </c>
+      <c r="B165">
+        <f>B145+H$2</f>
+        <v>464.48</v>
+      </c>
+      <c r="C165">
+        <f>IF(ISEVEN(A515), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <f>IF(ISEVEN(A516)=TRUE, A164+G$2, A164)</f>
+        <v>564.5200000000001</v>
+      </c>
+      <c r="B166">
+        <f>B146+H$2</f>
+        <v>464.48</v>
+      </c>
+      <c r="C166">
+        <f>IF(ISEVEN(A516), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <f>IF(ISEVEN(A517)=TRUE, A166+G$2, A166)</f>
+        <v>564.5200000000001</v>
+      </c>
+      <c r="B167">
+        <f>B147+H$2</f>
+        <v>464.48</v>
+      </c>
+      <c r="C167">
+        <f>IF(ISEVEN(A517), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <f>IF(ISEVEN(A518)=TRUE, A167+G$2, A167)</f>
+        <v>630.88000000000011</v>
+      </c>
+      <c r="B168">
+        <f>B148+H$2</f>
+        <v>464.48</v>
+      </c>
+      <c r="C168">
+        <f>IF(ISEVEN(A518), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A169">
+        <f>IF(ISEVEN(A519)=TRUE, A168+G$2, A168)</f>
+        <v>630.88000000000011</v>
+      </c>
+      <c r="B169">
+        <f>B149+H$2</f>
+        <v>464.48</v>
+      </c>
+      <c r="C169">
+        <f>IF(ISEVEN(A519), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <f>IF(ISEVEN(A520)=TRUE, A169+G$2, A169)</f>
+        <v>697.24000000000012</v>
+      </c>
+      <c r="B170">
+        <f>B150+H$2</f>
+        <v>464.48</v>
+      </c>
+      <c r="C170">
+        <f>IF(ISEVEN(A520), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <f>IF(ISEVEN(A521)=TRUE, A169+G$2, A169)</f>
+        <v>630.88000000000011</v>
+      </c>
+      <c r="B171">
+        <f>B151+H$2</f>
+        <v>464.48</v>
+      </c>
+      <c r="C171">
+        <f>IF(ISEVEN(A521), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172">
+        <f>IF(ISEVEN(A522)=TRUE, A171+G$2, A171)</f>
+        <v>697.24000000000012</v>
+      </c>
+      <c r="B172">
+        <f t="shared" si="1"/>
+        <v>539.76</v>
+      </c>
+      <c r="C172">
+        <f>IF(ISEVEN(A522), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <f>IF(ISEVEN(A523)=TRUE, A172+G$2, A172)</f>
+        <v>697.24000000000012</v>
+      </c>
+      <c r="B173">
+        <f t="shared" si="1"/>
+        <v>539.76</v>
+      </c>
+      <c r="C173">
+        <f>IF(ISEVEN(A523), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <f>IF(ISEVEN(A524)=TRUE, A173+G$2, A173)</f>
+        <v>763.60000000000014</v>
+      </c>
+      <c r="B174">
+        <f t="shared" si="1"/>
+        <v>539.76</v>
+      </c>
+      <c r="C174">
+        <f>IF(ISEVEN(A524), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <f>IF(ISEVEN(A525)=TRUE, A174+G$2, A174)</f>
+        <v>763.60000000000014</v>
+      </c>
+      <c r="B175">
+        <f t="shared" si="1"/>
+        <v>539.76</v>
+      </c>
+      <c r="C175">
+        <f>IF(ISEVEN(A525), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <f>IF(ISEVEN(A526)=TRUE, A175+G$2, A175)</f>
+        <v>829.96000000000015</v>
+      </c>
+      <c r="B176">
+        <f t="shared" si="1"/>
+        <v>539.76</v>
+      </c>
+      <c r="C176">
+        <f>IF(ISEVEN(A526), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <f>IF(ISEVEN(A527)=TRUE, A175+G$2, A175)</f>
+        <v>763.60000000000014</v>
+      </c>
+      <c r="B177">
+        <f t="shared" si="1"/>
+        <v>539.76</v>
+      </c>
+      <c r="C177">
+        <f>IF(ISEVEN(A527), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <f>IF(ISEVEN(A528)=TRUE, A177+G$2, A177)</f>
+        <v>829.96000000000015</v>
+      </c>
+      <c r="B178">
+        <f t="shared" si="1"/>
+        <v>539.76</v>
+      </c>
+      <c r="C178">
+        <f>IF(ISEVEN(A528), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <f>IF(ISEVEN(A529)=TRUE, A178+G$2, A178)</f>
+        <v>829.96000000000015</v>
+      </c>
+      <c r="B179">
+        <f t="shared" si="1"/>
+        <v>539.76</v>
+      </c>
+      <c r="C179">
+        <f>IF(ISEVEN(A529), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <f>IF(ISEVEN(A530)=TRUE, A179+G$2, A179)</f>
+        <v>896.32000000000016</v>
+      </c>
+      <c r="B180">
+        <f t="shared" ref="B180:B243" si="2">B160+H$2</f>
+        <v>539.76</v>
+      </c>
+      <c r="C180">
+        <f>IF(ISEVEN(A530), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <f>IF(ISEVEN(A531)=TRUE, A180+G$2, A180)</f>
+        <v>896.32000000000016</v>
+      </c>
+      <c r="B181">
+        <f t="shared" si="2"/>
+        <v>539.76</v>
+      </c>
+      <c r="C181">
+        <f>IF(ISEVEN(A531), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <f>IF(ISEVEN(A532)=TRUE, A181+G$2, A181)</f>
+        <v>962.68000000000018</v>
+      </c>
+      <c r="B182">
+        <f t="shared" si="2"/>
+        <v>539.76</v>
+      </c>
+      <c r="C182">
+        <f>IF(ISEVEN(A532), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <f>IF(ISEVEN(A533)=TRUE, A181+G$2, A181)</f>
+        <v>896.32000000000016</v>
+      </c>
+      <c r="B183">
+        <f t="shared" si="2"/>
+        <v>539.76</v>
+      </c>
+      <c r="C183">
+        <f>IF(ISEVEN(A533), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <f>IF(ISEVEN(A534)=TRUE, A183+G$2, A183)</f>
+        <v>962.68000000000018</v>
+      </c>
+      <c r="B184">
+        <f t="shared" si="2"/>
+        <v>539.76</v>
+      </c>
+      <c r="C184">
+        <f>IF(ISEVEN(A534), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <f>IF(ISEVEN(A535)=TRUE, A184+G$2, A184)</f>
+        <v>962.68000000000018</v>
+      </c>
+      <c r="B185">
+        <f t="shared" si="2"/>
+        <v>539.76</v>
+      </c>
+      <c r="C185">
+        <f>IF(ISEVEN(A535), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <f>IF(ISEVEN(A536)=TRUE, A185+G$2, A185)</f>
+        <v>1029.0400000000002</v>
+      </c>
+      <c r="B186">
+        <f t="shared" si="2"/>
+        <v>539.76</v>
+      </c>
+      <c r="C186">
+        <f>IF(ISEVEN(A536), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <f>IF(ISEVEN(A537)=TRUE, A186+G$2, A186)</f>
+        <v>1029.0400000000002</v>
+      </c>
+      <c r="B187">
+        <f t="shared" si="2"/>
+        <v>539.76</v>
+      </c>
+      <c r="C187">
+        <f>IF(ISEVEN(A537), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <f>IF(ISEVEN(A538)=TRUE, A186+G$2, A186)</f>
+        <v>1095.4000000000001</v>
+      </c>
+      <c r="B188">
+        <f t="shared" si="2"/>
+        <v>539.76</v>
+      </c>
+      <c r="C188">
+        <f>IF(ISEVEN(A538), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <f>IF(ISEVEN(A539)=TRUE, A188+G$2, A188)</f>
+        <v>1095.4000000000001</v>
+      </c>
+      <c r="B189">
+        <f t="shared" si="2"/>
+        <v>539.76</v>
+      </c>
+      <c r="C189">
+        <f>IF(ISEVEN(A539), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <f>IF(ISEVEN(A540)=TRUE, A189+G$2, A189)</f>
+        <v>1161.76</v>
+      </c>
+      <c r="B190">
+        <f t="shared" si="2"/>
+        <v>539.76</v>
+      </c>
+      <c r="C190">
+        <f>IF(ISEVEN(A540), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <f>IF(ISEVEN(A541)=TRUE, A190+G$2, A190)</f>
+        <v>1161.76</v>
+      </c>
+      <c r="B191">
+        <f t="shared" si="2"/>
+        <v>539.76</v>
+      </c>
+      <c r="C191">
+        <f>IF(ISEVEN(A541), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <f>IF(ISEVEN(A542)=TRUE, A190+G$2, A190)</f>
+        <v>1228.1199999999999</v>
+      </c>
+      <c r="B192">
+        <f t="shared" si="2"/>
+        <v>615.04</v>
+      </c>
+      <c r="C192">
+        <f>IF(ISEVEN(A542), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <f>IF(ISEVEN(A543)=TRUE, A192+G$2, A192)</f>
+        <v>1228.1199999999999</v>
+      </c>
+      <c r="B193">
+        <f t="shared" si="2"/>
+        <v>615.04</v>
+      </c>
+      <c r="C193">
+        <f>IF(ISEVEN(A543), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A194">
+        <f>IF(ISEVEN(A544)=TRUE, A193+G$2, A193)</f>
+        <v>1294.4799999999998</v>
+      </c>
+      <c r="B194">
+        <f t="shared" si="2"/>
+        <v>615.04</v>
+      </c>
+      <c r="C194">
+        <f>IF(ISEVEN(A544), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A195">
+        <f>IF(ISEVEN(A545)=TRUE, A194+G$2, A194)</f>
+        <v>1294.4799999999998</v>
+      </c>
+      <c r="B195">
+        <f t="shared" si="2"/>
+        <v>615.04</v>
+      </c>
+      <c r="C195">
+        <f>IF(ISEVEN(A545), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A196">
+        <f>IF(ISEVEN(A546)=TRUE, A195+G$2, A195)</f>
+        <v>1360.8399999999997</v>
+      </c>
+      <c r="B196">
+        <f t="shared" si="2"/>
+        <v>615.04</v>
+      </c>
+      <c r="C196">
+        <f>IF(ISEVEN(A546), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A197">
+        <f>IF(ISEVEN(A547)=TRUE, A196+G$2, A196)</f>
+        <v>1360.8399999999997</v>
+      </c>
+      <c r="B197">
+        <f t="shared" si="2"/>
+        <v>615.04</v>
+      </c>
+      <c r="C197">
+        <f>IF(ISEVEN(A547), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A198">
+        <f>IF(ISEVEN(A548)=TRUE, A196+G$2, A196)</f>
+        <v>1427.1999999999996</v>
+      </c>
+      <c r="B198">
+        <f t="shared" si="2"/>
+        <v>615.04</v>
+      </c>
+      <c r="C198">
+        <f>IF(ISEVEN(A548), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <f>IF(ISEVEN(A549)=TRUE, A198+G$2, A198)</f>
+        <v>1427.1999999999996</v>
+      </c>
+      <c r="B199">
+        <f t="shared" si="2"/>
+        <v>615.04</v>
+      </c>
+      <c r="C199">
+        <f>IF(ISEVEN(A549), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <f>IF(ISEVEN(A550)=TRUE, A199+G$2, A199)</f>
+        <v>1493.5599999999995</v>
+      </c>
+      <c r="B200">
+        <f t="shared" si="2"/>
+        <v>615.04</v>
+      </c>
+      <c r="C200">
+        <f>IF(ISEVEN(A550), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A201">
+        <f>IF(ISEVEN(A551)=TRUE, A200+G$2, A200)</f>
+        <v>1493.5599999999995</v>
+      </c>
+      <c r="B201">
+        <f t="shared" si="2"/>
+        <v>615.04</v>
+      </c>
+      <c r="C201">
+        <f>IF(ISEVEN(A551), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A202">
+        <f>$I$2</f>
+        <v>100</v>
+      </c>
+      <c r="B202">
+        <f>B182+H$2</f>
+        <v>615.04</v>
+      </c>
+      <c r="C202">
+        <f>IF(ISEVEN(A552), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A203">
+        <f>IF(ISEVEN(A553)=TRUE, A202+G$2, A202)</f>
+        <v>100</v>
+      </c>
+      <c r="B203">
+        <f>B183+H$2</f>
+        <v>615.04</v>
+      </c>
+      <c r="C203">
+        <f>IF(ISEVEN(A553), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A204">
+        <f>IF(ISEVEN(A554)=TRUE, A202+G$2, A202)</f>
+        <v>166.36</v>
+      </c>
+      <c r="B204">
+        <f>B184+H$2</f>
+        <v>615.04</v>
+      </c>
+      <c r="C204">
+        <f>IF(ISEVEN(A554), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A205">
+        <f>IF(ISEVEN(A555)=TRUE, A204+G$2, A204)</f>
+        <v>166.36</v>
+      </c>
+      <c r="B205">
+        <f>B185+H$2</f>
+        <v>615.04</v>
+      </c>
+      <c r="C205">
+        <f>IF(ISEVEN(A555), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A206">
+        <f>IF(ISEVEN(A556)=TRUE, A205+G$2, A205)</f>
+        <v>232.72000000000003</v>
+      </c>
+      <c r="B206">
+        <f>B186+H$2</f>
+        <v>615.04</v>
+      </c>
+      <c r="C206">
+        <f>IF(ISEVEN(A556), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A207">
+        <f>IF(ISEVEN(A557)=TRUE, A206+G$2, A206)</f>
+        <v>232.72000000000003</v>
+      </c>
+      <c r="B207">
+        <f>B187+H$2</f>
+        <v>615.04</v>
+      </c>
+      <c r="C207">
+        <f>IF(ISEVEN(A557), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A208">
+        <f>IF(ISEVEN(A558)=TRUE, A207+G$2, A207)</f>
+        <v>299.08000000000004</v>
+      </c>
+      <c r="B208">
+        <f>B188+H$2</f>
+        <v>615.04</v>
+      </c>
+      <c r="C208">
+        <f>IF(ISEVEN(A558), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A209">
+        <f>IF(ISEVEN(A559)=TRUE, A208+G$2, A208)</f>
+        <v>299.08000000000004</v>
+      </c>
+      <c r="B209">
+        <f>B189+H$2</f>
+        <v>615.04</v>
+      </c>
+      <c r="C209">
+        <f>IF(ISEVEN(A559), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A210">
+        <f>IF(ISEVEN(A560)=TRUE, A208+G$2, A208)</f>
+        <v>365.44000000000005</v>
+      </c>
+      <c r="B210">
+        <f>B190+H$2</f>
+        <v>615.04</v>
+      </c>
+      <c r="C210">
+        <f>IF(ISEVEN(A560), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A211">
+        <f>IF(ISEVEN(A561)=TRUE, A210+G$2, A210)</f>
+        <v>365.44000000000005</v>
+      </c>
+      <c r="B211">
+        <f>B191+H$2</f>
+        <v>615.04</v>
+      </c>
+      <c r="C211">
+        <f>IF(ISEVEN(A561), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A212">
+        <f>IF(ISEVEN(A562)=TRUE, A211+G$2, A211)</f>
+        <v>431.80000000000007</v>
+      </c>
+      <c r="B212">
+        <f>B192+H$2</f>
+        <v>690.31999999999994</v>
+      </c>
+      <c r="C212">
+        <f>IF(ISEVEN(A562), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A213">
+        <f>IF(ISEVEN(A563)=TRUE, A212+G$2, A212)</f>
+        <v>431.80000000000007</v>
+      </c>
+      <c r="B213">
+        <f>B193+H$2</f>
+        <v>690.31999999999994</v>
+      </c>
+      <c r="C213">
+        <f>IF(ISEVEN(A563), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <f>IF(ISEVEN(A564)=TRUE, A213+G$2, A213)</f>
+        <v>498.16000000000008</v>
+      </c>
+      <c r="B214">
+        <f>B194+H$2</f>
+        <v>690.31999999999994</v>
+      </c>
+      <c r="C214">
+        <f>IF(ISEVEN(A564), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A215">
+        <f>IF(ISEVEN(A565)=TRUE, A214+G$2, A214)</f>
+        <v>498.16000000000008</v>
+      </c>
+      <c r="B215">
+        <f>B195+H$2</f>
+        <v>690.31999999999994</v>
+      </c>
+      <c r="C215">
+        <f>IF(ISEVEN(A565), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A216">
+        <f>IF(ISEVEN(A566)=TRUE, A214+G$2, A214)</f>
+        <v>564.5200000000001</v>
+      </c>
+      <c r="B216">
+        <f>B196+H$2</f>
+        <v>690.31999999999994</v>
+      </c>
+      <c r="C216">
+        <f>IF(ISEVEN(A566), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A217">
+        <f>IF(ISEVEN(A567)=TRUE, A216+G$2, A216)</f>
+        <v>564.5200000000001</v>
+      </c>
+      <c r="B217">
+        <f>B197+H$2</f>
+        <v>690.31999999999994</v>
+      </c>
+      <c r="C217">
+        <f>IF(ISEVEN(A567), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A218">
+        <f>IF(ISEVEN(A568)=TRUE, A217+G$2, A217)</f>
+        <v>630.88000000000011</v>
+      </c>
+      <c r="B218">
+        <f>B198+H$2</f>
+        <v>690.31999999999994</v>
+      </c>
+      <c r="C218">
+        <f>IF(ISEVEN(A568), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A219">
+        <f>IF(ISEVEN(A569)=TRUE, A218+G$2, A218)</f>
+        <v>630.88000000000011</v>
+      </c>
+      <c r="B219">
+        <f>B199+H$2</f>
+        <v>690.31999999999994</v>
+      </c>
+      <c r="C219">
+        <f>IF(ISEVEN(A569), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A220">
+        <f>IF(ISEVEN(A570)=TRUE, A219+G$2, A219)</f>
+        <v>697.24000000000012</v>
+      </c>
+      <c r="B220">
+        <f>B200+H$2</f>
+        <v>690.31999999999994</v>
+      </c>
+      <c r="C220">
+        <f>IF(ISEVEN(A570), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A221">
+        <f>IF(ISEVEN(A571)=TRUE, A219+G$2, A219)</f>
+        <v>630.88000000000011</v>
+      </c>
+      <c r="B221">
+        <f>B201+H$2</f>
+        <v>690.31999999999994</v>
+      </c>
+      <c r="C221">
+        <f>IF(ISEVEN(A571), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A222">
+        <f>IF(ISEVEN(A572)=TRUE, A221+G$2, A221)</f>
+        <v>697.24000000000012</v>
+      </c>
+      <c r="B222">
+        <f t="shared" si="2"/>
+        <v>690.31999999999994</v>
+      </c>
+      <c r="C222">
+        <f>IF(ISEVEN(A572), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A223">
+        <f>IF(ISEVEN(A573)=TRUE, A222+G$2, A222)</f>
+        <v>697.24000000000012</v>
+      </c>
+      <c r="B223">
+        <f t="shared" si="2"/>
+        <v>690.31999999999994</v>
+      </c>
+      <c r="C223">
+        <f>IF(ISEVEN(A573), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A224">
+        <f>IF(ISEVEN(A574)=TRUE, A223+G$2, A223)</f>
+        <v>763.60000000000014</v>
+      </c>
+      <c r="B224">
+        <f t="shared" si="2"/>
+        <v>690.31999999999994</v>
+      </c>
+      <c r="C224">
+        <f>IF(ISEVEN(A574), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A225">
+        <f>IF(ISEVEN(A575)=TRUE, A224+G$2, A224)</f>
+        <v>763.60000000000014</v>
+      </c>
+      <c r="B225">
+        <f t="shared" si="2"/>
+        <v>690.31999999999994</v>
+      </c>
+      <c r="C225">
+        <f>IF(ISEVEN(A575), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A226">
+        <f>IF(ISEVEN(A576)=TRUE, A225+G$2, A225)</f>
+        <v>829.96000000000015</v>
+      </c>
+      <c r="B226">
+        <f t="shared" si="2"/>
+        <v>690.31999999999994</v>
+      </c>
+      <c r="C226">
+        <f>IF(ISEVEN(A576), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A227">
+        <f>IF(ISEVEN(A577)=TRUE, A225+G$2, A225)</f>
+        <v>763.60000000000014</v>
+      </c>
+      <c r="B227">
+        <f t="shared" si="2"/>
+        <v>690.31999999999994</v>
+      </c>
+      <c r="C227">
+        <f>IF(ISEVEN(A577), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A228">
+        <f>IF(ISEVEN(A578)=TRUE, A227+G$2, A227)</f>
+        <v>829.96000000000015</v>
+      </c>
+      <c r="B228">
+        <f t="shared" si="2"/>
+        <v>690.31999999999994</v>
+      </c>
+      <c r="C228">
+        <f>IF(ISEVEN(A578), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A229">
+        <f>IF(ISEVEN(A579)=TRUE, A228+G$2, A228)</f>
+        <v>829.96000000000015</v>
+      </c>
+      <c r="B229">
+        <f t="shared" si="2"/>
+        <v>690.31999999999994</v>
+      </c>
+      <c r="C229">
+        <f>IF(ISEVEN(A579), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A230">
+        <f>IF(ISEVEN(A580)=TRUE, A229+G$2, A229)</f>
+        <v>896.32000000000016</v>
+      </c>
+      <c r="B230">
+        <f t="shared" si="2"/>
+        <v>690.31999999999994</v>
+      </c>
+      <c r="C230">
+        <f>IF(ISEVEN(A580), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A231">
+        <f>IF(ISEVEN(A581)=TRUE, A230+G$2, A230)</f>
+        <v>896.32000000000016</v>
+      </c>
+      <c r="B231">
+        <f t="shared" si="2"/>
+        <v>690.31999999999994</v>
+      </c>
+      <c r="C231">
+        <f>IF(ISEVEN(A581), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A232">
+        <f>IF(ISEVEN(A582)=TRUE, A231+G$2, A231)</f>
+        <v>962.68000000000018</v>
+      </c>
+      <c r="B232">
+        <f t="shared" si="2"/>
+        <v>765.59999999999991</v>
+      </c>
+      <c r="C232">
+        <f>IF(ISEVEN(A582), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A233">
+        <f>IF(ISEVEN(A583)=TRUE, A231+G$2, A231)</f>
+        <v>896.32000000000016</v>
+      </c>
+      <c r="B233">
+        <f t="shared" si="2"/>
+        <v>765.59999999999991</v>
+      </c>
+      <c r="C233">
+        <f>IF(ISEVEN(A583), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A234">
+        <f>IF(ISEVEN(A584)=TRUE, A233+G$2, A233)</f>
+        <v>962.68000000000018</v>
+      </c>
+      <c r="B234">
+        <f t="shared" si="2"/>
+        <v>765.59999999999991</v>
+      </c>
+      <c r="C234">
+        <f>IF(ISEVEN(A584), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A235">
+        <f>IF(ISEVEN(A585)=TRUE, A234+G$2, A234)</f>
+        <v>962.68000000000018</v>
+      </c>
+      <c r="B235">
+        <f t="shared" si="2"/>
+        <v>765.59999999999991</v>
+      </c>
+      <c r="C235">
+        <f>IF(ISEVEN(A585), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A236">
+        <f>IF(ISEVEN(A586)=TRUE, A235+G$2, A235)</f>
+        <v>1029.0400000000002</v>
+      </c>
+      <c r="B236">
+        <f t="shared" si="2"/>
+        <v>765.59999999999991</v>
+      </c>
+      <c r="C236">
+        <f>IF(ISEVEN(A586), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A237">
+        <f>IF(ISEVEN(A587)=TRUE, A236+G$2, A236)</f>
+        <v>1029.0400000000002</v>
+      </c>
+      <c r="B237">
+        <f t="shared" si="2"/>
+        <v>765.59999999999991</v>
+      </c>
+      <c r="C237">
+        <f>IF(ISEVEN(A587), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A238">
+        <f>IF(ISEVEN(A588)=TRUE, A236+G$2, A236)</f>
+        <v>1095.4000000000001</v>
+      </c>
+      <c r="B238">
+        <f t="shared" si="2"/>
+        <v>765.59999999999991</v>
+      </c>
+      <c r="C238">
+        <f>IF(ISEVEN(A588), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A239">
+        <f>IF(ISEVEN(A589)=TRUE, A238+G$2, A238)</f>
+        <v>1095.4000000000001</v>
+      </c>
+      <c r="B239">
+        <f t="shared" si="2"/>
+        <v>765.59999999999991</v>
+      </c>
+      <c r="C239">
+        <f>IF(ISEVEN(A589), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A240">
+        <f>IF(ISEVEN(A590)=TRUE, A239+G$2, A239)</f>
+        <v>1161.76</v>
+      </c>
+      <c r="B240">
+        <f t="shared" si="2"/>
+        <v>765.59999999999991</v>
+      </c>
+      <c r="C240">
+        <f>IF(ISEVEN(A590), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A241">
+        <f>IF(ISEVEN(A591)=TRUE, A240+G$2, A240)</f>
+        <v>1161.76</v>
+      </c>
+      <c r="B241">
+        <f t="shared" si="2"/>
+        <v>765.59999999999991</v>
+      </c>
+      <c r="C241">
+        <f>IF(ISEVEN(A591), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A242">
+        <f>IF(ISEVEN(A592)=TRUE, A240+G$2, A240)</f>
+        <v>1228.1199999999999</v>
+      </c>
+      <c r="B242">
+        <f t="shared" si="2"/>
+        <v>765.59999999999991</v>
+      </c>
+      <c r="C242">
+        <f>IF(ISEVEN(A592), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A243">
+        <f>IF(ISEVEN(A593)=TRUE, A242+G$2, A242)</f>
+        <v>1228.1199999999999</v>
+      </c>
+      <c r="B243">
+        <f t="shared" si="2"/>
+        <v>765.59999999999991</v>
+      </c>
+      <c r="C243">
+        <f>IF(ISEVEN(A593), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A244">
+        <f>IF(ISEVEN(A594)=TRUE, A243+G$2, A243)</f>
+        <v>1294.4799999999998</v>
+      </c>
+      <c r="B244">
+        <f t="shared" ref="B244:B301" si="3">B224+H$2</f>
+        <v>765.59999999999991</v>
+      </c>
+      <c r="C244">
+        <f>IF(ISEVEN(A594), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A245">
+        <f>IF(ISEVEN(A595)=TRUE, A244+G$2, A244)</f>
+        <v>1294.4799999999998</v>
+      </c>
+      <c r="B245">
+        <f t="shared" si="3"/>
+        <v>765.59999999999991</v>
+      </c>
+      <c r="C245">
+        <f>IF(ISEVEN(A595), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A246">
+        <f>IF(ISEVEN(A596)=TRUE, A245+G$2, A245)</f>
+        <v>1360.8399999999997</v>
+      </c>
+      <c r="B246">
+        <f t="shared" si="3"/>
+        <v>765.59999999999991</v>
+      </c>
+      <c r="C246">
+        <f>IF(ISEVEN(A596), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A247">
+        <f>IF(ISEVEN(A597)=TRUE, A246+G$2, A246)</f>
+        <v>1360.8399999999997</v>
+      </c>
+      <c r="B247">
+        <f t="shared" si="3"/>
+        <v>765.59999999999991</v>
+      </c>
+      <c r="C247">
+        <f>IF(ISEVEN(A597), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A248">
+        <f>IF(ISEVEN(A598)=TRUE, A246+G$2, A246)</f>
+        <v>1427.1999999999996</v>
+      </c>
+      <c r="B248">
+        <f t="shared" si="3"/>
+        <v>765.59999999999991</v>
+      </c>
+      <c r="C248">
+        <f>IF(ISEVEN(A598), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A249">
+        <f>IF(ISEVEN(A599)=TRUE, A248+G$2, A248)</f>
+        <v>1427.1999999999996</v>
+      </c>
+      <c r="B249">
+        <f t="shared" si="3"/>
+        <v>765.59999999999991</v>
+      </c>
+      <c r="C249">
+        <f>IF(ISEVEN(A599), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A250">
+        <f>IF(ISEVEN(A600)=TRUE, A249+G$2, A249)</f>
+        <v>1493.5599999999995</v>
+      </c>
+      <c r="B250">
+        <f t="shared" si="3"/>
+        <v>765.59999999999991</v>
+      </c>
+      <c r="C250">
+        <f>IF(ISEVEN(A600), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A251">
+        <f>IF(ISEVEN(A601)=TRUE, A250+G$2, A250)</f>
+        <v>1493.5599999999995</v>
+      </c>
+      <c r="B251">
+        <f t="shared" si="3"/>
+        <v>765.59999999999991</v>
+      </c>
+      <c r="C251">
+        <f>IF(ISEVEN(A601), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A252">
+        <f>$I$2</f>
+        <v>100</v>
+      </c>
+      <c r="B252">
+        <f>B232+H$2</f>
+        <v>840.87999999999988</v>
+      </c>
+      <c r="C252">
+        <f>IF(ISEVEN(A602), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A253">
+        <f>IF(ISEVEN(A603)=TRUE, A252+G$2, A252)</f>
+        <v>100</v>
+      </c>
+      <c r="B253">
+        <f>B233+H$2</f>
+        <v>840.87999999999988</v>
+      </c>
+      <c r="C253">
+        <f>IF(ISEVEN(A603), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A254">
+        <f>IF(ISEVEN(A604)=TRUE, A252+G$2, A252)</f>
+        <v>166.36</v>
+      </c>
+      <c r="B254">
+        <f>B234+H$2</f>
+        <v>840.87999999999988</v>
+      </c>
+      <c r="C254">
+        <f>IF(ISEVEN(A604), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A255">
+        <f>IF(ISEVEN(A605)=TRUE, A254+G$2, A254)</f>
+        <v>166.36</v>
+      </c>
+      <c r="B255">
+        <f>B235+H$2</f>
+        <v>840.87999999999988</v>
+      </c>
+      <c r="C255">
+        <f>IF(ISEVEN(A605), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A256">
+        <f>IF(ISEVEN(A606)=TRUE, A255+G$2, A255)</f>
+        <v>232.72000000000003</v>
+      </c>
+      <c r="B256">
+        <f>B236+H$2</f>
+        <v>840.87999999999988</v>
+      </c>
+      <c r="C256">
+        <f>IF(ISEVEN(A606), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A257">
+        <f>IF(ISEVEN(A607)=TRUE, A256+G$2, A256)</f>
+        <v>232.72000000000003</v>
+      </c>
+      <c r="B257">
+        <f>B237+H$2</f>
+        <v>840.87999999999988</v>
+      </c>
+      <c r="C257">
+        <f>IF(ISEVEN(A607), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A258">
+        <f>IF(ISEVEN(A608)=TRUE, A257+G$2, A257)</f>
+        <v>299.08000000000004</v>
+      </c>
+      <c r="B258">
+        <f>B238+H$2</f>
+        <v>840.87999999999988</v>
+      </c>
+      <c r="C258">
+        <f>IF(ISEVEN(A608), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A259">
+        <f>IF(ISEVEN(A609)=TRUE, A258+G$2, A258)</f>
+        <v>299.08000000000004</v>
+      </c>
+      <c r="B259">
+        <f>B239+H$2</f>
+        <v>840.87999999999988</v>
+      </c>
+      <c r="C259">
+        <f>IF(ISEVEN(A609), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A260">
+        <f>IF(ISEVEN(A610)=TRUE, A258+G$2, A258)</f>
+        <v>365.44000000000005</v>
+      </c>
+      <c r="B260">
+        <f>B240+H$2</f>
+        <v>840.87999999999988</v>
+      </c>
+      <c r="C260">
+        <f>IF(ISEVEN(A610), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A261">
+        <f>IF(ISEVEN(A611)=TRUE, A260+G$2, A260)</f>
+        <v>365.44000000000005</v>
+      </c>
+      <c r="B261">
+        <f>B241+H$2</f>
+        <v>840.87999999999988</v>
+      </c>
+      <c r="C261">
+        <f>IF(ISEVEN(A611), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A262">
+        <f>IF(ISEVEN(A612)=TRUE, A261+G$2, A261)</f>
+        <v>431.80000000000007</v>
+      </c>
+      <c r="B262">
+        <f>B242+H$2</f>
+        <v>840.87999999999988</v>
+      </c>
+      <c r="C262">
+        <f>IF(ISEVEN(A612), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A263">
+        <f>IF(ISEVEN(A613)=TRUE, A262+G$2, A262)</f>
+        <v>431.80000000000007</v>
+      </c>
+      <c r="B263">
+        <f>B243+H$2</f>
+        <v>840.87999999999988</v>
+      </c>
+      <c r="C263">
+        <f>IF(ISEVEN(A613), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A264">
+        <f>IF(ISEVEN(A614)=TRUE, A263+G$2, A263)</f>
+        <v>498.16000000000008</v>
+      </c>
+      <c r="B264">
+        <f>B244+H$2</f>
+        <v>840.87999999999988</v>
+      </c>
+      <c r="C264">
+        <f>IF(ISEVEN(A614), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A265">
+        <f>IF(ISEVEN(A615)=TRUE, A264+G$2, A264)</f>
+        <v>498.16000000000008</v>
+      </c>
+      <c r="B265">
+        <f>B245+H$2</f>
+        <v>840.87999999999988</v>
+      </c>
+      <c r="C265">
+        <f>IF(ISEVEN(A615), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A266">
+        <f>IF(ISEVEN(A616)=TRUE, A264+G$2, A264)</f>
+        <v>564.5200000000001</v>
+      </c>
+      <c r="B266">
+        <f>B246+H$2</f>
+        <v>840.87999999999988</v>
+      </c>
+      <c r="C266">
+        <f>IF(ISEVEN(A616), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A267">
+        <f>IF(ISEVEN(A617)=TRUE, A266+G$2, A266)</f>
+        <v>564.5200000000001</v>
+      </c>
+      <c r="B267">
+        <f>B247+H$2</f>
+        <v>840.87999999999988</v>
+      </c>
+      <c r="C267">
+        <f>IF(ISEVEN(A617), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A268">
+        <f>IF(ISEVEN(A618)=TRUE, A267+G$2, A267)</f>
+        <v>630.88000000000011</v>
+      </c>
+      <c r="B268">
+        <f>B248+H$2</f>
+        <v>840.87999999999988</v>
+      </c>
+      <c r="C268">
+        <f>IF(ISEVEN(A618), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A269">
+        <f>IF(ISEVEN(A619)=TRUE, A268+G$2, A268)</f>
+        <v>630.88000000000011</v>
+      </c>
+      <c r="B269">
+        <f>B249+H$2</f>
+        <v>840.87999999999988</v>
+      </c>
+      <c r="C269">
+        <f>IF(ISEVEN(A619), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A270">
+        <f>IF(ISEVEN(A620)=TRUE, A269+G$2, A269)</f>
+        <v>697.24000000000012</v>
+      </c>
+      <c r="B270">
+        <f>B250+H$2</f>
+        <v>840.87999999999988</v>
+      </c>
+      <c r="C270">
+        <f>IF(ISEVEN(A620), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A271">
+        <f>IF(ISEVEN(A621)=TRUE, A269+G$2, A269)</f>
+        <v>630.88000000000011</v>
+      </c>
+      <c r="B271">
+        <f>B251+H$2</f>
+        <v>840.87999999999988</v>
+      </c>
+      <c r="C271">
+        <f>IF(ISEVEN(A621), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A272">
+        <f>IF(ISEVEN(A622)=TRUE, A271+G$2, A271)</f>
+        <v>697.24000000000012</v>
+      </c>
+      <c r="B272">
+        <f t="shared" si="3"/>
+        <v>916.15999999999985</v>
+      </c>
+      <c r="C272">
+        <f>IF(ISEVEN(A622), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A273">
+        <f>IF(ISEVEN(A623)=TRUE, A272+G$2, A272)</f>
+        <v>697.24000000000012</v>
+      </c>
+      <c r="B273">
+        <f t="shared" si="3"/>
+        <v>916.15999999999985</v>
+      </c>
+      <c r="C273">
+        <f>IF(ISEVEN(A623), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A274">
+        <f>IF(ISEVEN(A624)=TRUE, A273+G$2, A273)</f>
+        <v>763.60000000000014</v>
+      </c>
+      <c r="B274">
+        <f t="shared" si="3"/>
+        <v>916.15999999999985</v>
+      </c>
+      <c r="C274">
+        <f>IF(ISEVEN(A624), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A275">
+        <f>IF(ISEVEN(A625)=TRUE, A274+G$2, A274)</f>
+        <v>763.60000000000014</v>
+      </c>
+      <c r="B275">
+        <f t="shared" si="3"/>
+        <v>916.15999999999985</v>
+      </c>
+      <c r="C275">
+        <f>IF(ISEVEN(A625), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A276">
+        <f>IF(ISEVEN(A626)=TRUE, A275+G$2, A275)</f>
+        <v>829.96000000000015</v>
+      </c>
+      <c r="B276">
+        <f t="shared" si="3"/>
+        <v>916.15999999999985</v>
+      </c>
+      <c r="C276">
+        <f>IF(ISEVEN(A626), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A277">
+        <f>IF(ISEVEN(A627)=TRUE, A275+G$2, A275)</f>
+        <v>763.60000000000014</v>
+      </c>
+      <c r="B277">
+        <f t="shared" si="3"/>
+        <v>916.15999999999985</v>
+      </c>
+      <c r="C277">
+        <f>IF(ISEVEN(A627), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A278">
+        <f>IF(ISEVEN(A628)=TRUE, A277+G$2, A277)</f>
+        <v>829.96000000000015</v>
+      </c>
+      <c r="B278">
+        <f t="shared" si="3"/>
+        <v>916.15999999999985</v>
+      </c>
+      <c r="C278">
+        <f>IF(ISEVEN(A628), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A279">
+        <f>IF(ISEVEN(A629)=TRUE, A278+G$2, A278)</f>
+        <v>829.96000000000015</v>
+      </c>
+      <c r="B279">
+        <f t="shared" si="3"/>
+        <v>916.15999999999985</v>
+      </c>
+      <c r="C279">
+        <f>IF(ISEVEN(A629), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A280">
+        <f>IF(ISEVEN(A630)=TRUE, A279+G$2, A279)</f>
+        <v>896.32000000000016</v>
+      </c>
+      <c r="B280">
+        <f t="shared" si="3"/>
+        <v>916.15999999999985</v>
+      </c>
+      <c r="C280">
+        <f>IF(ISEVEN(A630), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A281">
+        <f>IF(ISEVEN(A631)=TRUE, A280+G$2, A280)</f>
+        <v>896.32000000000016</v>
+      </c>
+      <c r="B281">
+        <f t="shared" si="3"/>
+        <v>916.15999999999985</v>
+      </c>
+      <c r="C281">
+        <f>IF(ISEVEN(A631), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A282">
+        <f>IF(ISEVEN(A632)=TRUE, A281+G$2, A281)</f>
+        <v>962.68000000000018</v>
+      </c>
+      <c r="B282">
+        <f t="shared" si="3"/>
+        <v>916.15999999999985</v>
+      </c>
+      <c r="C282">
+        <f>IF(ISEVEN(A632), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A283">
+        <f>IF(ISEVEN(A633)=TRUE, A281+G$2, A281)</f>
+        <v>896.32000000000016</v>
+      </c>
+      <c r="B283">
+        <f t="shared" si="3"/>
+        <v>916.15999999999985</v>
+      </c>
+      <c r="C283">
+        <f>IF(ISEVEN(A633), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A284">
+        <f>IF(ISEVEN(A634)=TRUE, A283+G$2, A283)</f>
+        <v>962.68000000000018</v>
+      </c>
+      <c r="B284">
+        <f t="shared" si="3"/>
+        <v>916.15999999999985</v>
+      </c>
+      <c r="C284">
+        <f>IF(ISEVEN(A634), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A285">
+        <f>IF(ISEVEN(A635)=TRUE, A284+G$2, A284)</f>
+        <v>962.68000000000018</v>
+      </c>
+      <c r="B285">
+        <f t="shared" si="3"/>
+        <v>916.15999999999985</v>
+      </c>
+      <c r="C285">
+        <f>IF(ISEVEN(A635), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A286">
+        <f>IF(ISEVEN(A636)=TRUE, A285+G$2, A285)</f>
+        <v>1029.0400000000002</v>
+      </c>
+      <c r="B286">
+        <f t="shared" si="3"/>
+        <v>916.15999999999985</v>
+      </c>
+      <c r="C286">
+        <f>IF(ISEVEN(A636), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A287">
+        <f>IF(ISEVEN(A637)=TRUE, A286+G$2, A286)</f>
+        <v>1029.0400000000002</v>
+      </c>
+      <c r="B287">
+        <f t="shared" si="3"/>
+        <v>916.15999999999985</v>
+      </c>
+      <c r="C287">
+        <f>IF(ISEVEN(A637), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A288">
+        <f>IF(ISEVEN(A638)=TRUE, A286+G$2, A286)</f>
+        <v>1095.4000000000001</v>
+      </c>
+      <c r="B288">
+        <f t="shared" si="3"/>
+        <v>916.15999999999985</v>
+      </c>
+      <c r="C288">
+        <f>IF(ISEVEN(A638), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A289">
+        <f>IF(ISEVEN(A639)=TRUE, A288+G$2, A288)</f>
+        <v>1095.4000000000001</v>
+      </c>
+      <c r="B289">
+        <f t="shared" si="3"/>
+        <v>916.15999999999985</v>
+      </c>
+      <c r="C289">
+        <f>IF(ISEVEN(A639), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A290">
+        <f>IF(ISEVEN(A640)=TRUE, A289+G$2, A289)</f>
+        <v>1161.76</v>
+      </c>
+      <c r="B290">
+        <f t="shared" si="3"/>
+        <v>916.15999999999985</v>
+      </c>
+      <c r="C290">
+        <f>IF(ISEVEN(A640), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A291">
+        <f>IF(ISEVEN(A641)=TRUE, A290+G$2, A290)</f>
+        <v>1161.76</v>
+      </c>
+      <c r="B291">
+        <f t="shared" si="3"/>
+        <v>916.15999999999985</v>
+      </c>
+      <c r="C291">
+        <f>IF(ISEVEN(A641), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A292">
+        <f>IF(ISEVEN(A642)=TRUE, A290+G$2, A290)</f>
+        <v>1228.1199999999999</v>
+      </c>
+      <c r="B292">
+        <f t="shared" si="3"/>
+        <v>991.43999999999983</v>
+      </c>
+      <c r="C292">
+        <f>IF(ISEVEN(A642), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A293">
+        <f>IF(ISEVEN(A643)=TRUE, A292+G$2, A292)</f>
+        <v>1228.1199999999999</v>
+      </c>
+      <c r="B293">
+        <f t="shared" si="3"/>
+        <v>991.43999999999983</v>
+      </c>
+      <c r="C293">
+        <f>IF(ISEVEN(A643), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A294">
+        <f>IF(ISEVEN(A644)=TRUE, A293+G$2, A293)</f>
+        <v>1294.4799999999998</v>
+      </c>
+      <c r="B294">
+        <f t="shared" si="3"/>
+        <v>991.43999999999983</v>
+      </c>
+      <c r="C294">
+        <f>IF(ISEVEN(A644), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A295">
+        <f>IF(ISEVEN(A645)=TRUE, A294+G$2, A294)</f>
+        <v>1294.4799999999998</v>
+      </c>
+      <c r="B295">
+        <f t="shared" si="3"/>
+        <v>991.43999999999983</v>
+      </c>
+      <c r="C295">
+        <f>IF(ISEVEN(A645), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A296">
+        <f>IF(ISEVEN(A646)=TRUE, A295+G$2, A295)</f>
+        <v>1360.8399999999997</v>
+      </c>
+      <c r="B296">
+        <f t="shared" si="3"/>
+        <v>991.43999999999983</v>
+      </c>
+      <c r="C296">
+        <f>IF(ISEVEN(A646), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A297">
+        <f>IF(ISEVEN(A647)=TRUE, A296+G$2, A296)</f>
+        <v>1360.8399999999997</v>
+      </c>
+      <c r="B297">
+        <f t="shared" si="3"/>
+        <v>991.43999999999983</v>
+      </c>
+      <c r="C297">
+        <f>IF(ISEVEN(A647), -2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A298">
+        <f t="shared" ref="A298:A304" si="4">IF(ISEVEN(A648)=TRUE, A297+G$2, A297)</f>
+        <v>1427.1999999999996</v>
+      </c>
+      <c r="B298">
+        <f t="shared" si="3"/>
+        <v>991.43999999999983</v>
+      </c>
+      <c r="C298">
+        <f t="shared" ref="C298:C301" si="5">IF(ISEVEN(A648), -2,2)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A299">
+        <f t="shared" si="4"/>
+        <v>1427.1999999999996</v>
+      </c>
+      <c r="B299">
+        <f t="shared" si="3"/>
+        <v>991.43999999999983</v>
+      </c>
+      <c r="C299">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A300">
+        <f t="shared" si="4"/>
+        <v>1493.5599999999995</v>
+      </c>
+      <c r="B300">
+        <f t="shared" si="3"/>
+        <v>991.43999999999983</v>
+      </c>
+      <c r="C300">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A301">
+        <f t="shared" si="4"/>
+        <v>1493.5599999999995</v>
+      </c>
+      <c r="B301">
+        <f t="shared" si="3"/>
+        <v>991.43999999999983</v>
+      </c>
+      <c r="C301">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A351" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A200">
-        <f>ROW(A2)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A201">
-        <f t="shared" ref="A201:A264" si="10">ROW(A3)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A202">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A203">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A204">
-        <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A205">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A206">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A207">
-        <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A208">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A209">
-        <f t="shared" si="10"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A210">
-        <f t="shared" si="10"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A211">
-        <f t="shared" si="10"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A212">
-        <f t="shared" si="10"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A213">
-        <f t="shared" si="10"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A214">
-        <f t="shared" si="10"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A215">
-        <f t="shared" si="10"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A216">
-        <f t="shared" si="10"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A217">
-        <f t="shared" si="10"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A218">
-        <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A219">
-        <f t="shared" si="10"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A220">
-        <f t="shared" si="10"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A221">
-        <f t="shared" si="10"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A222">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A223">
-        <f t="shared" si="10"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A224">
-        <f t="shared" si="10"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A225">
-        <f t="shared" si="10"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A226">
-        <f t="shared" si="10"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A227">
-        <f t="shared" si="10"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A228">
-        <f t="shared" si="10"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A229">
-        <f t="shared" si="10"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A230">
-        <f t="shared" si="10"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A231">
-        <f t="shared" si="10"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A232">
-        <f t="shared" si="10"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A233">
-        <f t="shared" si="10"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A234">
-        <f t="shared" si="10"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A235">
-        <f t="shared" si="10"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A236">
-        <f t="shared" si="10"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A237">
-        <f t="shared" si="10"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A238">
-        <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A239">
-        <f t="shared" si="10"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A240">
-        <f t="shared" si="10"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A241">
-        <f t="shared" si="10"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A242">
-        <f t="shared" si="10"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A243">
-        <f t="shared" si="10"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A244">
-        <f t="shared" si="10"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A245">
-        <f t="shared" si="10"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A246">
-        <f t="shared" si="10"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A247">
-        <f t="shared" si="10"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A248">
-        <f t="shared" si="10"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A249">
-        <f t="shared" si="10"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A250">
-        <f t="shared" si="10"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A251">
-        <f t="shared" si="10"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A252">
-        <f t="shared" si="10"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A253">
-        <f t="shared" si="10"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A254">
-        <f t="shared" si="10"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A255">
-        <f t="shared" si="10"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A256">
-        <f t="shared" si="10"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A257">
-        <f t="shared" si="10"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A258">
-        <f t="shared" si="10"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A259">
-        <f t="shared" si="10"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A260">
-        <f t="shared" si="10"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A261">
-        <f t="shared" si="10"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A262">
-        <f t="shared" si="10"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A263">
-        <f t="shared" si="10"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A264">
-        <f t="shared" si="10"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A265">
-        <f t="shared" ref="A265:A328" si="11">ROW(A67)</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A266">
-        <f t="shared" si="11"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A267">
-        <f t="shared" si="11"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A268">
-        <f t="shared" si="11"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A269">
-        <f t="shared" si="11"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A270">
-        <f t="shared" si="11"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A271">
-        <f t="shared" si="11"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A272">
-        <f t="shared" si="11"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A273">
-        <f t="shared" si="11"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A274">
-        <f t="shared" si="11"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A275">
-        <f t="shared" si="11"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A276">
-        <f t="shared" si="11"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A277">
-        <f t="shared" si="11"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A278">
-        <f t="shared" si="11"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A279">
-        <f t="shared" si="11"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A280">
-        <f t="shared" si="11"/>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A281">
-        <f t="shared" si="11"/>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A282">
-        <f t="shared" si="11"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A283">
-        <f t="shared" si="11"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A284">
-        <f t="shared" si="11"/>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A285">
-        <f t="shared" si="11"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A286">
-        <f t="shared" si="11"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A287">
-        <f t="shared" si="11"/>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A288">
-        <f t="shared" si="11"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A289">
-        <f t="shared" si="11"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A290">
-        <f t="shared" si="11"/>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A291">
-        <f t="shared" si="11"/>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A292">
-        <f t="shared" si="11"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A293">
-        <f t="shared" si="11"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A294">
-        <f t="shared" si="11"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A295">
-        <f t="shared" si="11"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A296">
-        <f t="shared" si="11"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A297">
-        <f t="shared" si="11"/>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A298">
-        <f t="shared" si="11"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A299">
-        <f t="shared" si="11"/>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A300">
-        <f t="shared" si="11"/>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A301">
-        <f t="shared" si="11"/>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A302">
-        <f t="shared" si="11"/>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A303">
-        <f t="shared" si="11"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A304">
-        <f t="shared" si="11"/>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A305">
-        <f t="shared" si="11"/>
-        <v>107</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A306">
-        <f t="shared" si="11"/>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A307">
-        <f t="shared" si="11"/>
-        <v>109</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A308">
-        <f t="shared" si="11"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A309">
-        <f t="shared" si="11"/>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A310">
-        <f t="shared" si="11"/>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A311">
-        <f t="shared" si="11"/>
-        <v>113</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A312">
-        <f t="shared" si="11"/>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A313">
-        <f t="shared" si="11"/>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A314">
-        <f t="shared" si="11"/>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A315">
-        <f t="shared" si="11"/>
-        <v>117</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A316">
-        <f t="shared" si="11"/>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A317">
-        <f t="shared" si="11"/>
-        <v>119</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A318">
-        <f t="shared" si="11"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A319">
-        <f t="shared" si="11"/>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A320">
-        <f t="shared" si="11"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A321">
-        <f t="shared" si="11"/>
-        <v>123</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A322">
-        <f t="shared" si="11"/>
-        <v>124</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A323">
-        <f t="shared" si="11"/>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A324">
-        <f t="shared" si="11"/>
-        <v>126</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A325">
-        <f t="shared" si="11"/>
-        <v>127</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A326">
-        <f t="shared" si="11"/>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A327">
-        <f t="shared" si="11"/>
-        <v>129</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A328">
-        <f t="shared" si="11"/>
-        <v>130</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A329">
-        <f t="shared" ref="A329:A392" si="12">ROW(A131)</f>
-        <v>131</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A330">
-        <f t="shared" si="12"/>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A331">
-        <f t="shared" si="12"/>
-        <v>133</v>
-      </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A332">
-        <f t="shared" si="12"/>
-        <v>134</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A333">
-        <f t="shared" si="12"/>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A334">
-        <f t="shared" si="12"/>
-        <v>136</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A335">
-        <f t="shared" si="12"/>
-        <v>137</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A336">
-        <f t="shared" si="12"/>
-        <v>138</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A337">
-        <f t="shared" si="12"/>
-        <v>139</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A338">
-        <f t="shared" si="12"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A339">
-        <f t="shared" si="12"/>
-        <v>141</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A340">
-        <f t="shared" si="12"/>
-        <v>142</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A341">
-        <f t="shared" si="12"/>
-        <v>143</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A342">
-        <f t="shared" si="12"/>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A343">
-        <f t="shared" si="12"/>
-        <v>145</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A344">
-        <f t="shared" si="12"/>
-        <v>146</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A345">
-        <f t="shared" si="12"/>
-        <v>147</v>
-      </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A346">
-        <f t="shared" si="12"/>
-        <v>148</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A347">
-        <f t="shared" si="12"/>
-        <v>149</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A348">
-        <f t="shared" si="12"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A349">
-        <f t="shared" si="12"/>
-        <v>151</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A350">
-        <f t="shared" si="12"/>
-        <v>152</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A351">
-        <f t="shared" si="12"/>
-        <v>153</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A352">
-        <f t="shared" si="12"/>
-        <v>154</v>
+        <f>ROW(A2)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A353">
-        <f t="shared" si="12"/>
-        <v>155</v>
+        <f>ROW(A3)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A354">
-        <f t="shared" si="12"/>
-        <v>156</v>
+        <f>ROW(A4)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A355">
-        <f t="shared" si="12"/>
-        <v>157</v>
+        <f>ROW(A5)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A356">
-        <f t="shared" si="12"/>
-        <v>158</v>
+        <f>ROW(A6)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A357">
-        <f t="shared" si="12"/>
-        <v>159</v>
+        <f>ROW(A7)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A358">
-        <f t="shared" si="12"/>
-        <v>160</v>
+        <f>ROW(A8)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A359">
-        <f t="shared" si="12"/>
-        <v>161</v>
+        <f>ROW(A9)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A360">
-        <f t="shared" si="12"/>
-        <v>162</v>
+        <f>ROW(A10)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A361">
-        <f t="shared" si="12"/>
-        <v>163</v>
+        <f>ROW(A11)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A362">
-        <f t="shared" si="12"/>
-        <v>164</v>
+        <f>ROW(A12)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A363">
-        <f t="shared" si="12"/>
-        <v>165</v>
+        <f>ROW(A13)</f>
+        <v>13</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A364">
-        <f t="shared" si="12"/>
-        <v>166</v>
+        <f>ROW(A14)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A365">
-        <f t="shared" si="12"/>
-        <v>167</v>
+        <f>ROW(A15)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A366">
-        <f t="shared" si="12"/>
-        <v>168</v>
+        <f>ROW(A16)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A367">
-        <f t="shared" si="12"/>
-        <v>169</v>
+        <f>ROW(A17)</f>
+        <v>17</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A368">
-        <f t="shared" si="12"/>
-        <v>170</v>
+        <f>ROW(A18)</f>
+        <v>18</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A369">
-        <f t="shared" si="12"/>
-        <v>171</v>
+        <f>ROW(A19)</f>
+        <v>19</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A370">
-        <f t="shared" si="12"/>
-        <v>172</v>
+        <f>ROW(A20)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A371">
-        <f t="shared" si="12"/>
-        <v>173</v>
+        <f>ROW(A21)</f>
+        <v>21</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A372">
-        <f t="shared" si="12"/>
-        <v>174</v>
+        <f>ROW(A22)</f>
+        <v>22</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A373">
-        <f t="shared" si="12"/>
-        <v>175</v>
+        <f>ROW(A23)</f>
+        <v>23</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A374">
-        <f t="shared" si="12"/>
-        <v>176</v>
+        <f>ROW(A24)</f>
+        <v>24</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A375">
-        <f t="shared" si="12"/>
-        <v>177</v>
+        <f>ROW(A25)</f>
+        <v>25</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A376">
-        <f t="shared" si="12"/>
-        <v>178</v>
+        <f>ROW(A26)</f>
+        <v>26</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A377">
-        <f t="shared" si="12"/>
-        <v>179</v>
+        <f>ROW(A27)</f>
+        <v>27</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A378">
-        <f t="shared" si="12"/>
-        <v>180</v>
+        <f>ROW(A28)</f>
+        <v>28</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A379">
-        <f t="shared" si="12"/>
-        <v>181</v>
+        <f>ROW(A29)</f>
+        <v>29</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A380">
-        <f t="shared" si="12"/>
-        <v>182</v>
+        <f>ROW(A30)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A381">
-        <f t="shared" si="12"/>
-        <v>183</v>
+        <f>ROW(A31)</f>
+        <v>31</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A382">
-        <f t="shared" si="12"/>
-        <v>184</v>
+        <f>ROW(A32)</f>
+        <v>32</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A383">
-        <f t="shared" si="12"/>
-        <v>185</v>
+        <f>ROW(A33)</f>
+        <v>33</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A384">
-        <f t="shared" si="12"/>
-        <v>186</v>
+        <f>ROW(A34)</f>
+        <v>34</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A385">
-        <f t="shared" si="12"/>
-        <v>187</v>
+        <f>ROW(A35)</f>
+        <v>35</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A386">
-        <f t="shared" si="12"/>
-        <v>188</v>
+        <f>ROW(A36)</f>
+        <v>36</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A387">
-        <f t="shared" si="12"/>
-        <v>189</v>
+        <f>ROW(A37)</f>
+        <v>37</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A388">
-        <f t="shared" si="12"/>
-        <v>190</v>
+        <f>ROW(A38)</f>
+        <v>38</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A389">
-        <f t="shared" si="12"/>
-        <v>191</v>
+        <f>ROW(A39)</f>
+        <v>39</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A390">
-        <f t="shared" si="12"/>
-        <v>192</v>
+        <f>ROW(A40)</f>
+        <v>40</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A391">
-        <f t="shared" si="12"/>
-        <v>193</v>
+        <f>ROW(A41)</f>
+        <v>41</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A392">
-        <f t="shared" si="12"/>
-        <v>194</v>
+        <f>ROW(A42)</f>
+        <v>42</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A393">
-        <f t="shared" ref="A393:A456" si="13">ROW(A195)</f>
-        <v>195</v>
+        <f>ROW(A43)</f>
+        <v>43</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A394">
-        <f t="shared" si="13"/>
-        <v>196</v>
+        <f>ROW(A44)</f>
+        <v>44</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A395">
-        <f t="shared" si="13"/>
-        <v>197</v>
+        <f>ROW(A45)</f>
+        <v>45</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A396">
-        <f t="shared" si="13"/>
-        <v>198</v>
+        <f>ROW(A46)</f>
+        <v>46</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A397">
-        <f t="shared" si="13"/>
-        <v>199</v>
+        <f>ROW(A47)</f>
+        <v>47</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A398">
-        <f t="shared" si="13"/>
-        <v>200</v>
+        <f>ROW(A48)</f>
+        <v>48</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A399">
-        <f t="shared" si="13"/>
-        <v>201</v>
+        <f>ROW(A49)</f>
+        <v>49</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A400">
-        <f t="shared" si="13"/>
-        <v>202</v>
+        <f>ROW(A50)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A401">
-        <f t="shared" si="13"/>
-        <v>203</v>
+        <f>ROW(A51)</f>
+        <v>51</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A402">
-        <f t="shared" si="13"/>
-        <v>204</v>
+        <f>ROW(A52)</f>
+        <v>52</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A403">
-        <f t="shared" si="13"/>
-        <v>205</v>
+        <f>ROW(A53)</f>
+        <v>53</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A404">
-        <f t="shared" si="13"/>
-        <v>206</v>
+        <f>ROW(A54)</f>
+        <v>54</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A405">
-        <f t="shared" si="13"/>
-        <v>207</v>
+        <f>ROW(A55)</f>
+        <v>55</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A406">
-        <f t="shared" si="13"/>
-        <v>208</v>
+        <f>ROW(A56)</f>
+        <v>56</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A407">
-        <f t="shared" si="13"/>
-        <v>209</v>
+        <f>ROW(A57)</f>
+        <v>57</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A408">
-        <f t="shared" si="13"/>
-        <v>210</v>
+        <f>ROW(A58)</f>
+        <v>58</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A409">
-        <f t="shared" si="13"/>
-        <v>211</v>
+        <f>ROW(A59)</f>
+        <v>59</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A410">
-        <f t="shared" si="13"/>
-        <v>212</v>
+        <f>ROW(A60)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A411">
-        <f t="shared" si="13"/>
-        <v>213</v>
+        <f>ROW(A61)</f>
+        <v>61</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A412">
-        <f t="shared" si="13"/>
-        <v>214</v>
+        <f>ROW(A62)</f>
+        <v>62</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A413">
-        <f t="shared" si="13"/>
-        <v>215</v>
+        <f>ROW(A63)</f>
+        <v>63</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A414">
-        <f t="shared" si="13"/>
-        <v>216</v>
+        <f>ROW(A64)</f>
+        <v>64</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A415">
-        <f t="shared" si="13"/>
-        <v>217</v>
+        <f>ROW(A65)</f>
+        <v>65</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A416">
-        <f t="shared" si="13"/>
-        <v>218</v>
+        <f>ROW(A66)</f>
+        <v>66</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A417">
-        <f t="shared" si="13"/>
-        <v>219</v>
+        <f>ROW(A67)</f>
+        <v>67</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A418">
-        <f t="shared" si="13"/>
-        <v>220</v>
+        <f>ROW(A68)</f>
+        <v>68</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A419">
-        <f t="shared" si="13"/>
-        <v>221</v>
+        <f>ROW(A69)</f>
+        <v>69</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A420">
-        <f t="shared" si="13"/>
-        <v>222</v>
+        <f>ROW(A70)</f>
+        <v>70</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A421">
-        <f t="shared" si="13"/>
-        <v>223</v>
+        <f>ROW(A71)</f>
+        <v>71</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A422">
-        <f t="shared" si="13"/>
-        <v>224</v>
+        <f>ROW(A72)</f>
+        <v>72</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A423">
-        <f t="shared" si="13"/>
-        <v>225</v>
+        <f>ROW(A73)</f>
+        <v>73</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A424">
-        <f t="shared" si="13"/>
-        <v>226</v>
+        <f>ROW(A74)</f>
+        <v>74</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A425">
-        <f t="shared" si="13"/>
-        <v>227</v>
+        <f>ROW(A75)</f>
+        <v>75</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A426">
-        <f t="shared" si="13"/>
-        <v>228</v>
+        <f>ROW(A76)</f>
+        <v>76</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A427">
-        <f t="shared" si="13"/>
-        <v>229</v>
+        <f>ROW(A77)</f>
+        <v>77</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A428">
-        <f t="shared" si="13"/>
-        <v>230</v>
+        <f>ROW(A78)</f>
+        <v>78</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A429">
-        <f t="shared" si="13"/>
-        <v>231</v>
+        <f>ROW(A79)</f>
+        <v>79</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A430">
-        <f t="shared" si="13"/>
-        <v>232</v>
+        <f>ROW(A80)</f>
+        <v>80</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A431">
-        <f t="shared" si="13"/>
-        <v>233</v>
+        <f>ROW(A81)</f>
+        <v>81</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A432">
-        <f t="shared" si="13"/>
-        <v>234</v>
+        <f>ROW(A82)</f>
+        <v>82</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A433">
-        <f t="shared" si="13"/>
-        <v>235</v>
+        <f>ROW(A83)</f>
+        <v>83</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A434">
-        <f t="shared" si="13"/>
-        <v>236</v>
+        <f>ROW(A84)</f>
+        <v>84</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A435">
-        <f t="shared" si="13"/>
-        <v>237</v>
+        <f>ROW(A85)</f>
+        <v>85</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A436">
-        <f t="shared" si="13"/>
-        <v>238</v>
+        <f>ROW(A86)</f>
+        <v>86</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A437">
-        <f t="shared" si="13"/>
-        <v>239</v>
+        <f>ROW(A87)</f>
+        <v>87</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A438">
-        <f t="shared" si="13"/>
-        <v>240</v>
+        <f>ROW(A88)</f>
+        <v>88</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A439">
-        <f t="shared" si="13"/>
-        <v>241</v>
+        <f>ROW(A89)</f>
+        <v>89</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A440">
-        <f t="shared" si="13"/>
-        <v>242</v>
+        <f>ROW(A90)</f>
+        <v>90</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A441">
-        <f t="shared" si="13"/>
-        <v>243</v>
+        <f>ROW(A91)</f>
+        <v>91</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A442">
-        <f t="shared" si="13"/>
-        <v>244</v>
+        <f>ROW(A92)</f>
+        <v>92</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A443">
-        <f t="shared" si="13"/>
-        <v>245</v>
+        <f>ROW(A93)</f>
+        <v>93</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A444">
-        <f t="shared" si="13"/>
-        <v>246</v>
+        <f>ROW(A94)</f>
+        <v>94</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A445">
-        <f t="shared" si="13"/>
-        <v>247</v>
+        <f>ROW(A95)</f>
+        <v>95</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A446">
-        <f t="shared" si="13"/>
-        <v>248</v>
+        <f>ROW(A96)</f>
+        <v>96</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A447">
-        <f t="shared" si="13"/>
-        <v>249</v>
+        <f>ROW(A97)</f>
+        <v>97</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A448">
-        <f t="shared" si="13"/>
-        <v>250</v>
+        <f>ROW(A98)</f>
+        <v>98</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A449">
-        <f t="shared" si="13"/>
-        <v>251</v>
+        <f>ROW(A99)</f>
+        <v>99</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A450">
-        <f t="shared" si="13"/>
-        <v>252</v>
+        <f>ROW(A100)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A451">
-        <f t="shared" si="13"/>
-        <v>253</v>
+        <f>ROW(A101)</f>
+        <v>101</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A452">
-        <f t="shared" si="13"/>
-        <v>254</v>
+        <f>ROW(A102)</f>
+        <v>102</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A453">
-        <f t="shared" si="13"/>
-        <v>255</v>
+        <f>ROW(A103)</f>
+        <v>103</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A454">
-        <f t="shared" si="13"/>
-        <v>256</v>
+        <f>ROW(A104)</f>
+        <v>104</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A455">
-        <f t="shared" si="13"/>
-        <v>257</v>
+        <f>ROW(A105)</f>
+        <v>105</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A456">
-        <f t="shared" si="13"/>
-        <v>258</v>
+        <f>ROW(A106)</f>
+        <v>106</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A457">
-        <f t="shared" ref="A457:A520" si="14">ROW(A259)</f>
-        <v>259</v>
+        <f>ROW(A107)</f>
+        <v>107</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A458">
-        <f t="shared" si="14"/>
-        <v>260</v>
+        <f>ROW(A108)</f>
+        <v>108</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A459">
-        <f t="shared" si="14"/>
-        <v>261</v>
+        <f>ROW(A109)</f>
+        <v>109</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A460">
-        <f t="shared" si="14"/>
-        <v>262</v>
+        <f>ROW(A110)</f>
+        <v>110</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A461">
-        <f t="shared" si="14"/>
-        <v>263</v>
+        <f>ROW(A111)</f>
+        <v>111</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A462">
-        <f t="shared" si="14"/>
-        <v>264</v>
+        <f>ROW(A112)</f>
+        <v>112</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A463">
-        <f t="shared" si="14"/>
-        <v>265</v>
+        <f>ROW(A113)</f>
+        <v>113</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A464">
-        <f t="shared" si="14"/>
-        <v>266</v>
+        <f>ROW(A114)</f>
+        <v>114</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A465">
-        <f t="shared" si="14"/>
-        <v>267</v>
+        <f>ROW(A115)</f>
+        <v>115</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A466">
-        <f t="shared" si="14"/>
-        <v>268</v>
+        <f>ROW(A116)</f>
+        <v>116</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A467">
-        <f t="shared" si="14"/>
-        <v>269</v>
+        <f>ROW(A117)</f>
+        <v>117</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A468">
-        <f t="shared" si="14"/>
-        <v>270</v>
+        <f>ROW(A118)</f>
+        <v>118</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A469">
-        <f t="shared" si="14"/>
-        <v>271</v>
+        <f>ROW(A119)</f>
+        <v>119</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A470">
-        <f t="shared" si="14"/>
-        <v>272</v>
+        <f>ROW(A120)</f>
+        <v>120</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A471">
-        <f t="shared" si="14"/>
-        <v>273</v>
+        <f>ROW(A121)</f>
+        <v>121</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A472">
-        <f t="shared" si="14"/>
-        <v>274</v>
+        <f>ROW(A122)</f>
+        <v>122</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A473">
-        <f t="shared" si="14"/>
+        <f>ROW(A275)</f>
         <v>275</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A474">
-        <f t="shared" si="14"/>
+        <f>ROW(A276)</f>
         <v>276</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A475">
-        <f t="shared" si="14"/>
+        <f>ROW(A277)</f>
         <v>277</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A476">
-        <f t="shared" si="14"/>
+        <f>ROW(A278)</f>
         <v>278</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A477">
-        <f t="shared" si="14"/>
+        <f>ROW(A279)</f>
         <v>279</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A478">
-        <f t="shared" si="14"/>
+        <f>ROW(A280)</f>
         <v>280</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A479">
-        <f t="shared" si="14"/>
+        <f>ROW(A281)</f>
         <v>281</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A480">
-        <f t="shared" si="14"/>
+        <f>ROW(A282)</f>
         <v>282</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A481">
-        <f t="shared" si="14"/>
+        <f>ROW(A283)</f>
         <v>283</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A482">
-        <f t="shared" si="14"/>
+        <f>ROW(A284)</f>
         <v>284</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A483">
-        <f t="shared" si="14"/>
+        <f>ROW(A285)</f>
         <v>285</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A484">
-        <f t="shared" si="14"/>
+        <f>ROW(A286)</f>
         <v>286</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A485">
-        <f t="shared" si="14"/>
+        <f>ROW(A287)</f>
         <v>287</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A486">
-        <f t="shared" si="14"/>
+        <f>ROW(A288)</f>
         <v>288</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A487">
-        <f t="shared" si="14"/>
+        <f>ROW(A289)</f>
         <v>289</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A488">
-        <f t="shared" si="14"/>
+        <f>ROW(A290)</f>
         <v>290</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A489">
-        <f t="shared" si="14"/>
+        <f>ROW(A291)</f>
         <v>291</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A490">
-        <f t="shared" si="14"/>
+        <f>ROW(A292)</f>
         <v>292</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A491">
-        <f t="shared" si="14"/>
+        <f>ROW(A293)</f>
         <v>293</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A492">
-        <f t="shared" si="14"/>
+        <f>ROW(A294)</f>
         <v>294</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A493">
-        <f t="shared" si="14"/>
+        <f>ROW(A295)</f>
         <v>295</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A494">
-        <f t="shared" si="14"/>
+        <f>ROW(A296)</f>
         <v>296</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A495">
-        <f t="shared" si="14"/>
+        <f>ROW(A297)</f>
         <v>297</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A496">
-        <f t="shared" si="14"/>
+        <f>ROW(A298)</f>
         <v>298</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A497">
-        <f t="shared" si="14"/>
+        <f>ROW(A299)</f>
         <v>299</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A498">
-        <f t="shared" si="14"/>
+        <f>ROW(A300)</f>
         <v>300</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A499">
-        <f t="shared" si="14"/>
+        <f>ROW(A301)</f>
         <v>301</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A500">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="A500:A544" si="6">ROW(A302)</f>
         <v>302</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A501">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>303</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A502">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>304</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A503">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>305</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A504">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>306</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A505">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>307</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A506">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>308</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A507">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>309</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A508">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>310</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A509">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>311</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A510">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>312</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A511">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>313</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A512">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>314</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A513">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>315</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A514">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>316</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A515">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>317</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A516">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>318</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A517">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>319</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A518">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>320</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A519">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>321</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A520">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>322</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A521">
-        <f t="shared" ref="A521:A560" si="15">ROW(A323)</f>
+        <f t="shared" si="6"/>
         <v>323</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A522">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>324</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A523">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>325</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A524">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>326</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A525">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>327</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A526">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>328</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A527">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>329</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A528">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>330</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A529">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>331</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A530">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>332</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A531">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>333</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A532">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>334</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A533">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>335</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A534">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>336</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A535">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>337</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A536">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>338</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A537">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>339</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A538">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>340</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A539">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>341</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A540">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>342</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A541">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>343</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A542">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>344</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A543">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>345</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A544">
-        <f t="shared" si="15"/>
+        <f t="shared" si="6"/>
         <v>346</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A545">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="A545:A608" si="7">ROW(A347)</f>
         <v>347</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A546">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>348</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A547">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>349</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A548">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>350</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A549">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>351</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A550">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>352</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A551">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>353</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A552">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>354</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A553">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>355</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A554">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>356</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A555">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>357</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A556">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>358</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A557">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>359</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A558">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>360</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A559">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>361</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A560">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>362</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A561">
+        <f t="shared" si="7"/>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A562">
+        <f t="shared" si="7"/>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A563">
+        <f t="shared" si="7"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A564">
+        <f t="shared" si="7"/>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A565">
+        <f t="shared" si="7"/>
+        <v>367</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A566">
+        <f t="shared" si="7"/>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A567">
+        <f t="shared" si="7"/>
+        <v>369</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A568">
+        <f t="shared" si="7"/>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A569">
+        <f t="shared" si="7"/>
+        <v>371</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A570">
+        <f t="shared" si="7"/>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A571">
+        <f t="shared" si="7"/>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A572">
+        <f t="shared" si="7"/>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A573">
+        <f t="shared" si="7"/>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A574">
+        <f t="shared" si="7"/>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A575">
+        <f t="shared" si="7"/>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A576">
+        <f t="shared" si="7"/>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A577">
+        <f t="shared" si="7"/>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A578">
+        <f t="shared" si="7"/>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A579">
+        <f t="shared" si="7"/>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A580">
+        <f t="shared" si="7"/>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A581">
+        <f t="shared" si="7"/>
+        <v>383</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A582">
+        <f t="shared" si="7"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A583">
+        <f t="shared" si="7"/>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A584">
+        <f t="shared" si="7"/>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A585">
+        <f t="shared" si="7"/>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A586">
+        <f t="shared" si="7"/>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A587">
+        <f t="shared" si="7"/>
+        <v>389</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A588">
+        <f t="shared" si="7"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A589">
+        <f t="shared" si="7"/>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A590">
+        <f t="shared" si="7"/>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A591">
+        <f t="shared" si="7"/>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A592">
+        <f t="shared" si="7"/>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A593">
+        <f t="shared" si="7"/>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A594">
+        <f t="shared" si="7"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A595">
+        <f t="shared" si="7"/>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A596">
+        <f t="shared" si="7"/>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A597">
+        <f t="shared" si="7"/>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A598">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A599">
+        <f t="shared" si="7"/>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A600">
+        <f t="shared" si="7"/>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A601">
+        <f t="shared" si="7"/>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A602">
+        <f t="shared" si="7"/>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A603">
+        <f t="shared" si="7"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A604">
+        <f t="shared" si="7"/>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A605">
+        <f t="shared" si="7"/>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A606">
+        <f t="shared" si="7"/>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A607">
+        <f t="shared" si="7"/>
+        <v>409</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A608">
+        <f t="shared" si="7"/>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A609">
+        <f t="shared" ref="A609:A672" si="8">ROW(A411)</f>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A610">
+        <f t="shared" si="8"/>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A611">
+        <f t="shared" si="8"/>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A612">
+        <f t="shared" si="8"/>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A613">
+        <f t="shared" si="8"/>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A614">
+        <f t="shared" si="8"/>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A615">
+        <f t="shared" si="8"/>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A616">
+        <f t="shared" si="8"/>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A617">
+        <f t="shared" si="8"/>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A618">
+        <f t="shared" si="8"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A619">
+        <f t="shared" si="8"/>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A620">
+        <f t="shared" si="8"/>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A621">
+        <f t="shared" si="8"/>
+        <v>423</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A622">
+        <f t="shared" si="8"/>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A623">
+        <f t="shared" si="8"/>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A624">
+        <f t="shared" si="8"/>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A625">
+        <f t="shared" si="8"/>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A626">
+        <f t="shared" si="8"/>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A627">
+        <f t="shared" si="8"/>
+        <v>429</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A628">
+        <f t="shared" si="8"/>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A629">
+        <f t="shared" si="8"/>
+        <v>431</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A630">
+        <f t="shared" si="8"/>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A631">
+        <f t="shared" si="8"/>
+        <v>433</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A632">
+        <f t="shared" si="8"/>
+        <v>434</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A633">
+        <f t="shared" si="8"/>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A634">
+        <f t="shared" si="8"/>
+        <v>436</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A635">
+        <f t="shared" si="8"/>
+        <v>437</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A636">
+        <f t="shared" si="8"/>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A637">
+        <f t="shared" si="8"/>
+        <v>439</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A638">
+        <f t="shared" si="8"/>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A639">
+        <f t="shared" si="8"/>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A640">
+        <f t="shared" si="8"/>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A641">
+        <f t="shared" si="8"/>
+        <v>443</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A642">
+        <f t="shared" si="8"/>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A643">
+        <f t="shared" si="8"/>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A644">
+        <f t="shared" si="8"/>
+        <v>446</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A645">
+        <f t="shared" si="8"/>
+        <v>447</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A646">
+        <f t="shared" si="8"/>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A647">
+        <f t="shared" si="8"/>
+        <v>449</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A648">
+        <f t="shared" si="8"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A649">
+        <f t="shared" si="8"/>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A650">
+        <f t="shared" si="8"/>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A651">
+        <f t="shared" si="8"/>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A652">
+        <f t="shared" si="8"/>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A653">
+        <f t="shared" si="8"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A654">
+        <f t="shared" si="8"/>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A655">
+        <f t="shared" si="8"/>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A656">
+        <f t="shared" si="8"/>
+        <v>458</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A657">
+        <f t="shared" si="8"/>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A658">
+        <f t="shared" si="8"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A659">
+        <f t="shared" si="8"/>
+        <v>461</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A660">
+        <f t="shared" si="8"/>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A661">
+        <f t="shared" si="8"/>
+        <v>463</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A662">
+        <f t="shared" si="8"/>
+        <v>464</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A663">
+        <f t="shared" si="8"/>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A664">
+        <f t="shared" si="8"/>
+        <v>466</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A665">
+        <f t="shared" si="8"/>
+        <v>467</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A666">
+        <f t="shared" si="8"/>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A667">
+        <f t="shared" si="8"/>
+        <v>469</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A668">
+        <f t="shared" si="8"/>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A669">
+        <f t="shared" si="8"/>
+        <v>471</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A670">
+        <f t="shared" si="8"/>
+        <v>472</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A671">
+        <f t="shared" si="8"/>
+        <v>473</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A672">
+        <f t="shared" si="8"/>
+        <v>474</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A673">
+        <f t="shared" ref="A673:A712" si="9">ROW(A475)</f>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A674">
+        <f t="shared" si="9"/>
+        <v>476</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A675">
+        <f t="shared" si="9"/>
+        <v>477</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A676">
+        <f t="shared" si="9"/>
+        <v>478</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A677">
+        <f t="shared" si="9"/>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A678">
+        <f t="shared" si="9"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A679">
+        <f t="shared" si="9"/>
+        <v>481</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A680">
+        <f t="shared" si="9"/>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A681">
+        <f t="shared" si="9"/>
+        <v>483</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A682">
+        <f t="shared" si="9"/>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A683">
+        <f t="shared" si="9"/>
+        <v>485</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A684">
+        <f t="shared" si="9"/>
+        <v>486</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A685">
+        <f t="shared" si="9"/>
+        <v>487</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A686">
+        <f t="shared" si="9"/>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A687">
+        <f t="shared" si="9"/>
+        <v>489</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A688">
+        <f t="shared" si="9"/>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A689">
+        <f t="shared" si="9"/>
+        <v>491</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A690">
+        <f t="shared" si="9"/>
+        <v>492</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A691">
+        <f t="shared" si="9"/>
+        <v>493</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A692">
+        <f t="shared" si="9"/>
+        <v>494</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A693">
+        <f t="shared" si="9"/>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A694">
+        <f t="shared" si="9"/>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A695">
+        <f t="shared" si="9"/>
+        <v>497</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A696">
+        <f t="shared" si="9"/>
+        <v>498</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A697">
+        <f t="shared" si="9"/>
+        <v>499</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A698">
+        <f t="shared" si="9"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A699">
+        <f t="shared" si="9"/>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A700">
+        <f t="shared" si="9"/>
+        <v>502</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A701">
+        <f t="shared" si="9"/>
+        <v>503</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A702">
+        <f t="shared" si="9"/>
+        <v>504</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A703">
+        <f t="shared" si="9"/>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A704">
+        <f t="shared" si="9"/>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A705">
+        <f t="shared" si="9"/>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A706">
+        <f t="shared" si="9"/>
+        <v>508</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A707">
+        <f t="shared" si="9"/>
+        <v>509</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A708">
+        <f t="shared" si="9"/>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A709">
+        <f t="shared" si="9"/>
+        <v>511</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A710">
+        <f t="shared" si="9"/>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A711">
+        <f t="shared" si="9"/>
+        <v>513</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A712">
+        <f t="shared" si="9"/>
+        <v>514</v>
       </c>
     </row>
   </sheetData>

--- a/RoboDK/coordinates/wingbox_robodk_coordinates generator excel.xlsx
+++ b/RoboDK/coordinates/wingbox_robodk_coordinates generator excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndigh\Documents\GitHub\E09H-Wingbox\RoboDK\coordinates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA453D44-3F87-4C9B-BBEA-82D50D97F35E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D868D6A-D948-44AA-BD8A-2AB8660BE473}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{25CCA861-8539-4B0A-8CCD-DD87EEE5A520}"/>
   </bookViews>
@@ -411,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2916567-A312-4CF0-9D2F-510F904FC975}">
   <dimension ref="A1:J712"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A285" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D300" sqref="D300"/>
+    <sheetView tabSelected="1" topLeftCell="A284" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:B301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -449,7 +449,7 @@
         <v>12.8</v>
       </c>
       <c r="C2">
-        <f>IF(ISEVEN(A352), -2,2)</f>
+        <f t="shared" ref="C2:C65" si="0">IF(ISEVEN(A352), -2,2)</f>
         <v>-2</v>
       </c>
       <c r="G2">
@@ -474,7 +474,7 @@
         <v>12.8</v>
       </c>
       <c r="C3">
-        <f>IF(ISEVEN(A353), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -487,7 +487,7 @@
         <v>12.8</v>
       </c>
       <c r="C4">
-        <f>IF(ISEVEN(A354), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
@@ -500,7 +500,7 @@
         <v>12.8</v>
       </c>
       <c r="C5">
-        <f>IF(ISEVEN(A355), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -513,7 +513,7 @@
         <v>12.8</v>
       </c>
       <c r="C6">
-        <f>IF(ISEVEN(A356), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
@@ -526,7 +526,7 @@
         <v>12.8</v>
       </c>
       <c r="C7">
-        <f>IF(ISEVEN(A357), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -539,7 +539,7 @@
         <v>12.8</v>
       </c>
       <c r="C8">
-        <f>IF(ISEVEN(A358), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
@@ -552,7 +552,7 @@
         <v>12.8</v>
       </c>
       <c r="C9">
-        <f>IF(ISEVEN(A359), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -565,7 +565,7 @@
         <v>12.8</v>
       </c>
       <c r="C10">
-        <f>IF(ISEVEN(A360), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
@@ -578,7 +578,7 @@
         <v>12.8</v>
       </c>
       <c r="C11">
-        <f>IF(ISEVEN(A361), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -591,7 +591,7 @@
         <v>12.8</v>
       </c>
       <c r="C12">
-        <f>IF(ISEVEN(A362), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
@@ -604,7 +604,7 @@
         <v>12.8</v>
       </c>
       <c r="C13">
-        <f>IF(ISEVEN(A363), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -617,7 +617,7 @@
         <v>12.8</v>
       </c>
       <c r="C14">
-        <f>IF(ISEVEN(A364), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
@@ -630,7 +630,7 @@
         <v>12.8</v>
       </c>
       <c r="C15">
-        <f>IF(ISEVEN(A365), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -643,7 +643,7 @@
         <v>12.8</v>
       </c>
       <c r="C16">
-        <f>IF(ISEVEN(A366), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
@@ -656,7 +656,7 @@
         <v>12.8</v>
       </c>
       <c r="C17">
-        <f>IF(ISEVEN(A367), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -669,7 +669,7 @@
         <v>12.8</v>
       </c>
       <c r="C18">
-        <f>IF(ISEVEN(A368), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
@@ -682,7 +682,7 @@
         <v>12.8</v>
       </c>
       <c r="C19">
-        <f>IF(ISEVEN(A369), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -695,7 +695,7 @@
         <v>12.8</v>
       </c>
       <c r="C20">
-        <f>IF(ISEVEN(A370), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
@@ -708,7 +708,7 @@
         <v>12.8</v>
       </c>
       <c r="C21">
-        <f>IF(ISEVEN(A371), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -721,7 +721,7 @@
         <v>12.8</v>
       </c>
       <c r="C22">
-        <f>IF(ISEVEN(A372), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
@@ -734,7 +734,7 @@
         <v>12.8</v>
       </c>
       <c r="C23">
-        <f>IF(ISEVEN(A373), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -747,7 +747,7 @@
         <v>12.8</v>
       </c>
       <c r="C24">
-        <f>IF(ISEVEN(A374), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
@@ -760,7 +760,7 @@
         <v>12.8</v>
       </c>
       <c r="C25">
-        <f>IF(ISEVEN(A375), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -773,7 +773,7 @@
         <v>12.8</v>
       </c>
       <c r="C26">
-        <f>IF(ISEVEN(A376), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
@@ -786,7 +786,7 @@
         <v>12.8</v>
       </c>
       <c r="C27">
-        <f>IF(ISEVEN(A377), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -799,7 +799,7 @@
         <v>12.8</v>
       </c>
       <c r="C28">
-        <f>IF(ISEVEN(A378), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
@@ -812,7 +812,7 @@
         <v>12.8</v>
       </c>
       <c r="C29">
-        <f>IF(ISEVEN(A379), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -825,7 +825,7 @@
         <v>12.8</v>
       </c>
       <c r="C30">
-        <f>IF(ISEVEN(A380), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
@@ -838,7 +838,7 @@
         <v>12.8</v>
       </c>
       <c r="C31">
-        <f>IF(ISEVEN(A381), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -851,7 +851,7 @@
         <v>12.8</v>
       </c>
       <c r="C32">
-        <f>IF(ISEVEN(A382), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
@@ -864,7 +864,7 @@
         <v>12.8</v>
       </c>
       <c r="C33">
-        <f>IF(ISEVEN(A383), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -877,7 +877,7 @@
         <v>12.8</v>
       </c>
       <c r="C34">
-        <f>IF(ISEVEN(A384), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
@@ -890,7 +890,7 @@
         <v>12.8</v>
       </c>
       <c r="C35">
-        <f>IF(ISEVEN(A385), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -903,7 +903,7 @@
         <v>12.8</v>
       </c>
       <c r="C36">
-        <f>IF(ISEVEN(A386), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
@@ -916,7 +916,7 @@
         <v>12.8</v>
       </c>
       <c r="C37">
-        <f>IF(ISEVEN(A387), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -929,7 +929,7 @@
         <v>12.8</v>
       </c>
       <c r="C38">
-        <f>IF(ISEVEN(A388), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
@@ -942,7 +942,7 @@
         <v>12.8</v>
       </c>
       <c r="C39">
-        <f>IF(ISEVEN(A389), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -955,7 +955,7 @@
         <v>12.8</v>
       </c>
       <c r="C40">
-        <f>IF(ISEVEN(A390), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
@@ -968,7 +968,7 @@
         <v>12.8</v>
       </c>
       <c r="C41">
-        <f>IF(ISEVEN(A391), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -981,7 +981,7 @@
         <v>12.8</v>
       </c>
       <c r="C42">
-        <f>IF(ISEVEN(A392), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
@@ -994,7 +994,7 @@
         <v>12.8</v>
       </c>
       <c r="C43">
-        <f>IF(ISEVEN(A393), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
         <v>12.8</v>
       </c>
       <c r="C44">
-        <f>IF(ISEVEN(A394), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
         <v>12.8</v>
       </c>
       <c r="C45">
-        <f>IF(ISEVEN(A395), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
         <v>12.8</v>
       </c>
       <c r="C46">
-        <f>IF(ISEVEN(A396), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
         <v>12.8</v>
       </c>
       <c r="C47">
-        <f>IF(ISEVEN(A397), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
         <v>12.8</v>
       </c>
       <c r="C48">
-        <f>IF(ISEVEN(A398), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
@@ -1072,7 +1072,7 @@
         <v>12.8</v>
       </c>
       <c r="C49">
-        <f>IF(ISEVEN(A399), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1085,7 +1085,7 @@
         <v>12.8</v>
       </c>
       <c r="C50">
-        <f>IF(ISEVEN(A400), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
@@ -1098,7 +1098,7 @@
         <v>12.8</v>
       </c>
       <c r="C51">
-        <f>IF(ISEVEN(A401), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1108,11 +1108,11 @@
         <v>100</v>
       </c>
       <c r="B52">
-        <f t="shared" ref="B52:B115" si="0">B32+H$2</f>
+        <f>B2+H$2</f>
         <v>88.08</v>
       </c>
       <c r="C52">
-        <f>IF(ISEVEN(A402), -2,2)</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
@@ -1122,11 +1122,11 @@
         <v>100</v>
       </c>
       <c r="B53">
+        <f t="shared" ref="B53:B116" si="1">B3+H$2</f>
+        <v>88.08</v>
+      </c>
+      <c r="C53">
         <f t="shared" si="0"/>
-        <v>88.08</v>
-      </c>
-      <c r="C53">
-        <f>IF(ISEVEN(A403), -2,2)</f>
         <v>2</v>
       </c>
     </row>
@@ -1136,11 +1136,11 @@
         <v>166.36</v>
       </c>
       <c r="B54">
+        <f t="shared" si="1"/>
+        <v>88.08</v>
+      </c>
+      <c r="C54">
         <f t="shared" si="0"/>
-        <v>88.08</v>
-      </c>
-      <c r="C54">
-        <f>IF(ISEVEN(A404), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
@@ -1150,11 +1150,11 @@
         <v>166.36</v>
       </c>
       <c r="B55">
+        <f t="shared" si="1"/>
+        <v>88.08</v>
+      </c>
+      <c r="C55">
         <f t="shared" si="0"/>
-        <v>88.08</v>
-      </c>
-      <c r="C55">
-        <f>IF(ISEVEN(A405), -2,2)</f>
         <v>2</v>
       </c>
     </row>
@@ -1164,11 +1164,11 @@
         <v>232.72000000000003</v>
       </c>
       <c r="B56">
+        <f t="shared" si="1"/>
+        <v>88.08</v>
+      </c>
+      <c r="C56">
         <f t="shared" si="0"/>
-        <v>88.08</v>
-      </c>
-      <c r="C56">
-        <f>IF(ISEVEN(A406), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
@@ -1178,11 +1178,11 @@
         <v>232.72000000000003</v>
       </c>
       <c r="B57">
+        <f t="shared" si="1"/>
+        <v>88.08</v>
+      </c>
+      <c r="C57">
         <f t="shared" si="0"/>
-        <v>88.08</v>
-      </c>
-      <c r="C57">
-        <f>IF(ISEVEN(A407), -2,2)</f>
         <v>2</v>
       </c>
     </row>
@@ -1192,11 +1192,11 @@
         <v>299.08000000000004</v>
       </c>
       <c r="B58">
+        <f t="shared" si="1"/>
+        <v>88.08</v>
+      </c>
+      <c r="C58">
         <f t="shared" si="0"/>
-        <v>88.08</v>
-      </c>
-      <c r="C58">
-        <f>IF(ISEVEN(A408), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
@@ -1206,11 +1206,11 @@
         <v>299.08000000000004</v>
       </c>
       <c r="B59">
+        <f t="shared" si="1"/>
+        <v>88.08</v>
+      </c>
+      <c r="C59">
         <f t="shared" si="0"/>
-        <v>88.08</v>
-      </c>
-      <c r="C59">
-        <f>IF(ISEVEN(A409), -2,2)</f>
         <v>2</v>
       </c>
     </row>
@@ -1220,11 +1220,11 @@
         <v>365.44000000000005</v>
       </c>
       <c r="B60">
+        <f t="shared" si="1"/>
+        <v>88.08</v>
+      </c>
+      <c r="C60">
         <f t="shared" si="0"/>
-        <v>88.08</v>
-      </c>
-      <c r="C60">
-        <f>IF(ISEVEN(A410), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
@@ -1234,11 +1234,11 @@
         <v>365.44000000000005</v>
       </c>
       <c r="B61">
+        <f t="shared" si="1"/>
+        <v>88.08</v>
+      </c>
+      <c r="C61">
         <f t="shared" si="0"/>
-        <v>88.08</v>
-      </c>
-      <c r="C61">
-        <f>IF(ISEVEN(A411), -2,2)</f>
         <v>2</v>
       </c>
     </row>
@@ -1248,11 +1248,11 @@
         <v>431.80000000000007</v>
       </c>
       <c r="B62">
+        <f t="shared" si="1"/>
+        <v>88.08</v>
+      </c>
+      <c r="C62">
         <f t="shared" si="0"/>
-        <v>88.08</v>
-      </c>
-      <c r="C62">
-        <f>IF(ISEVEN(A412), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
@@ -1262,11 +1262,11 @@
         <v>431.80000000000007</v>
       </c>
       <c r="B63">
+        <f t="shared" si="1"/>
+        <v>88.08</v>
+      </c>
+      <c r="C63">
         <f t="shared" si="0"/>
-        <v>88.08</v>
-      </c>
-      <c r="C63">
-        <f>IF(ISEVEN(A413), -2,2)</f>
         <v>2</v>
       </c>
     </row>
@@ -1276,11 +1276,11 @@
         <v>498.16000000000008</v>
       </c>
       <c r="B64">
+        <f t="shared" si="1"/>
+        <v>88.08</v>
+      </c>
+      <c r="C64">
         <f t="shared" si="0"/>
-        <v>88.08</v>
-      </c>
-      <c r="C64">
-        <f>IF(ISEVEN(A414), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
@@ -1290,11 +1290,11 @@
         <v>498.16000000000008</v>
       </c>
       <c r="B65">
+        <f t="shared" si="1"/>
+        <v>88.08</v>
+      </c>
+      <c r="C65">
         <f t="shared" si="0"/>
-        <v>88.08</v>
-      </c>
-      <c r="C65">
-        <f>IF(ISEVEN(A415), -2,2)</f>
         <v>2</v>
       </c>
     </row>
@@ -1304,11 +1304,11 @@
         <v>564.5200000000001</v>
       </c>
       <c r="B66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88.08</v>
       </c>
       <c r="C66">
-        <f>IF(ISEVEN(A416), -2,2)</f>
+        <f t="shared" ref="C66:C129" si="2">IF(ISEVEN(A416), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
@@ -1318,11 +1318,11 @@
         <v>564.5200000000001</v>
       </c>
       <c r="B67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88.08</v>
       </c>
       <c r="C67">
-        <f>IF(ISEVEN(A417), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -1332,11 +1332,11 @@
         <v>630.88000000000011</v>
       </c>
       <c r="B68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88.08</v>
       </c>
       <c r="C68">
-        <f>IF(ISEVEN(A418), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
@@ -1346,11 +1346,11 @@
         <v>630.88000000000011</v>
       </c>
       <c r="B69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88.08</v>
       </c>
       <c r="C69">
-        <f>IF(ISEVEN(A419), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -1360,11 +1360,11 @@
         <v>697.24000000000012</v>
       </c>
       <c r="B70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88.08</v>
       </c>
       <c r="C70">
-        <f>IF(ISEVEN(A420), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
@@ -1374,11 +1374,11 @@
         <v>630.88000000000011</v>
       </c>
       <c r="B71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88.08</v>
       </c>
       <c r="C71">
-        <f>IF(ISEVEN(A421), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -1388,11 +1388,11 @@
         <v>697.24000000000012</v>
       </c>
       <c r="B72">
-        <f t="shared" si="0"/>
-        <v>163.36000000000001</v>
+        <f t="shared" si="1"/>
+        <v>88.08</v>
       </c>
       <c r="C72">
-        <f>IF(ISEVEN(A422), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
@@ -1402,11 +1402,11 @@
         <v>697.24000000000012</v>
       </c>
       <c r="B73">
-        <f t="shared" si="0"/>
-        <v>163.36000000000001</v>
+        <f t="shared" si="1"/>
+        <v>88.08</v>
       </c>
       <c r="C73">
-        <f>IF(ISEVEN(A423), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -1416,11 +1416,11 @@
         <v>763.60000000000014</v>
       </c>
       <c r="B74">
-        <f t="shared" si="0"/>
-        <v>163.36000000000001</v>
+        <f t="shared" si="1"/>
+        <v>88.08</v>
       </c>
       <c r="C74">
-        <f>IF(ISEVEN(A424), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
@@ -1430,11 +1430,11 @@
         <v>763.60000000000014</v>
       </c>
       <c r="B75">
-        <f t="shared" si="0"/>
-        <v>163.36000000000001</v>
+        <f t="shared" si="1"/>
+        <v>88.08</v>
       </c>
       <c r="C75">
-        <f>IF(ISEVEN(A425), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -1444,11 +1444,11 @@
         <v>829.96000000000015</v>
       </c>
       <c r="B76">
-        <f t="shared" si="0"/>
-        <v>163.36000000000001</v>
+        <f t="shared" si="1"/>
+        <v>88.08</v>
       </c>
       <c r="C76">
-        <f>IF(ISEVEN(A426), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
@@ -1458,11 +1458,11 @@
         <v>763.60000000000014</v>
       </c>
       <c r="B77">
-        <f t="shared" si="0"/>
-        <v>163.36000000000001</v>
+        <f t="shared" si="1"/>
+        <v>88.08</v>
       </c>
       <c r="C77">
-        <f>IF(ISEVEN(A427), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -1472,11 +1472,11 @@
         <v>829.96000000000015</v>
       </c>
       <c r="B78">
-        <f t="shared" si="0"/>
-        <v>163.36000000000001</v>
+        <f t="shared" si="1"/>
+        <v>88.08</v>
       </c>
       <c r="C78">
-        <f>IF(ISEVEN(A428), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
@@ -1486,11 +1486,11 @@
         <v>829.96000000000015</v>
       </c>
       <c r="B79">
-        <f t="shared" si="0"/>
-        <v>163.36000000000001</v>
+        <f t="shared" si="1"/>
+        <v>88.08</v>
       </c>
       <c r="C79">
-        <f>IF(ISEVEN(A429), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -1500,11 +1500,11 @@
         <v>896.32000000000016</v>
       </c>
       <c r="B80">
-        <f t="shared" si="0"/>
-        <v>163.36000000000001</v>
+        <f t="shared" si="1"/>
+        <v>88.08</v>
       </c>
       <c r="C80">
-        <f>IF(ISEVEN(A430), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
@@ -1514,11 +1514,11 @@
         <v>896.32000000000016</v>
       </c>
       <c r="B81">
-        <f t="shared" si="0"/>
-        <v>163.36000000000001</v>
+        <f t="shared" si="1"/>
+        <v>88.08</v>
       </c>
       <c r="C81">
-        <f>IF(ISEVEN(A431), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -1528,11 +1528,11 @@
         <v>962.68000000000018</v>
       </c>
       <c r="B82">
-        <f t="shared" si="0"/>
-        <v>163.36000000000001</v>
+        <f t="shared" si="1"/>
+        <v>88.08</v>
       </c>
       <c r="C82">
-        <f>IF(ISEVEN(A432), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
@@ -1542,11 +1542,11 @@
         <v>896.32000000000016</v>
       </c>
       <c r="B83">
-        <f t="shared" si="0"/>
-        <v>163.36000000000001</v>
+        <f t="shared" si="1"/>
+        <v>88.08</v>
       </c>
       <c r="C83">
-        <f>IF(ISEVEN(A433), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -1556,11 +1556,11 @@
         <v>962.68000000000018</v>
       </c>
       <c r="B84">
-        <f t="shared" si="0"/>
-        <v>163.36000000000001</v>
+        <f t="shared" si="1"/>
+        <v>88.08</v>
       </c>
       <c r="C84">
-        <f>IF(ISEVEN(A434), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
@@ -1570,11 +1570,11 @@
         <v>962.68000000000018</v>
       </c>
       <c r="B85">
-        <f t="shared" si="0"/>
-        <v>163.36000000000001</v>
+        <f t="shared" si="1"/>
+        <v>88.08</v>
       </c>
       <c r="C85">
-        <f>IF(ISEVEN(A435), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -1584,11 +1584,11 @@
         <v>1029.0400000000002</v>
       </c>
       <c r="B86">
-        <f t="shared" si="0"/>
-        <v>163.36000000000001</v>
+        <f t="shared" si="1"/>
+        <v>88.08</v>
       </c>
       <c r="C86">
-        <f>IF(ISEVEN(A436), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
@@ -1598,11 +1598,11 @@
         <v>1029.0400000000002</v>
       </c>
       <c r="B87">
-        <f t="shared" si="0"/>
-        <v>163.36000000000001</v>
+        <f t="shared" si="1"/>
+        <v>88.08</v>
       </c>
       <c r="C87">
-        <f>IF(ISEVEN(A437), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -1612,11 +1612,11 @@
         <v>1095.4000000000001</v>
       </c>
       <c r="B88">
-        <f t="shared" si="0"/>
-        <v>163.36000000000001</v>
+        <f t="shared" si="1"/>
+        <v>88.08</v>
       </c>
       <c r="C88">
-        <f>IF(ISEVEN(A438), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
@@ -1626,11 +1626,11 @@
         <v>1095.4000000000001</v>
       </c>
       <c r="B89">
-        <f t="shared" si="0"/>
-        <v>163.36000000000001</v>
+        <f t="shared" si="1"/>
+        <v>88.08</v>
       </c>
       <c r="C89">
-        <f>IF(ISEVEN(A439), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -1640,11 +1640,11 @@
         <v>1161.76</v>
       </c>
       <c r="B90">
-        <f t="shared" si="0"/>
-        <v>163.36000000000001</v>
+        <f t="shared" si="1"/>
+        <v>88.08</v>
       </c>
       <c r="C90">
-        <f>IF(ISEVEN(A440), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
@@ -1654,11 +1654,11 @@
         <v>1161.76</v>
       </c>
       <c r="B91">
-        <f t="shared" si="0"/>
-        <v>163.36000000000001</v>
+        <f t="shared" si="1"/>
+        <v>88.08</v>
       </c>
       <c r="C91">
-        <f>IF(ISEVEN(A441), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -1668,11 +1668,11 @@
         <v>1228.1199999999999</v>
       </c>
       <c r="B92">
-        <f t="shared" si="0"/>
-        <v>238.64000000000001</v>
+        <f t="shared" si="1"/>
+        <v>88.08</v>
       </c>
       <c r="C92">
-        <f>IF(ISEVEN(A442), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
@@ -1682,11 +1682,11 @@
         <v>1228.1199999999999</v>
       </c>
       <c r="B93">
-        <f t="shared" si="0"/>
-        <v>238.64000000000001</v>
+        <f t="shared" si="1"/>
+        <v>88.08</v>
       </c>
       <c r="C93">
-        <f>IF(ISEVEN(A443), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -1696,11 +1696,11 @@
         <v>1294.4799999999998</v>
       </c>
       <c r="B94">
-        <f t="shared" si="0"/>
-        <v>238.64000000000001</v>
+        <f t="shared" si="1"/>
+        <v>88.08</v>
       </c>
       <c r="C94">
-        <f>IF(ISEVEN(A444), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
@@ -1710,11 +1710,11 @@
         <v>1294.4799999999998</v>
       </c>
       <c r="B95">
-        <f t="shared" si="0"/>
-        <v>238.64000000000001</v>
+        <f t="shared" si="1"/>
+        <v>88.08</v>
       </c>
       <c r="C95">
-        <f>IF(ISEVEN(A445), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -1724,11 +1724,11 @@
         <v>1360.8399999999997</v>
       </c>
       <c r="B96">
-        <f t="shared" si="0"/>
-        <v>238.64000000000001</v>
+        <f t="shared" si="1"/>
+        <v>88.08</v>
       </c>
       <c r="C96">
-        <f>IF(ISEVEN(A446), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
@@ -1738,11 +1738,11 @@
         <v>1360.8399999999997</v>
       </c>
       <c r="B97">
-        <f t="shared" si="0"/>
-        <v>238.64000000000001</v>
+        <f t="shared" si="1"/>
+        <v>88.08</v>
       </c>
       <c r="C97">
-        <f>IF(ISEVEN(A447), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -1752,11 +1752,11 @@
         <v>1427.1999999999996</v>
       </c>
       <c r="B98">
-        <f t="shared" si="0"/>
-        <v>238.64000000000001</v>
+        <f t="shared" si="1"/>
+        <v>88.08</v>
       </c>
       <c r="C98">
-        <f>IF(ISEVEN(A448), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
@@ -1766,11 +1766,11 @@
         <v>1427.1999999999996</v>
       </c>
       <c r="B99">
-        <f t="shared" si="0"/>
-        <v>238.64000000000001</v>
+        <f t="shared" si="1"/>
+        <v>88.08</v>
       </c>
       <c r="C99">
-        <f>IF(ISEVEN(A449), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -1780,11 +1780,11 @@
         <v>1493.5599999999995</v>
       </c>
       <c r="B100">
-        <f t="shared" si="0"/>
-        <v>238.64000000000001</v>
+        <f t="shared" si="1"/>
+        <v>88.08</v>
       </c>
       <c r="C100">
-        <f>IF(ISEVEN(A450), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
@@ -1794,11 +1794,11 @@
         <v>1493.5599999999995</v>
       </c>
       <c r="B101">
-        <f t="shared" si="0"/>
-        <v>238.64000000000001</v>
+        <f t="shared" si="1"/>
+        <v>88.08</v>
       </c>
       <c r="C101">
-        <f>IF(ISEVEN(A451), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -1808,11 +1808,11 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <f t="shared" si="0"/>
-        <v>238.64000000000001</v>
+        <f t="shared" si="1"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C102">
-        <f>IF(ISEVEN(A452), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
@@ -1822,11 +1822,11 @@
         <v>100</v>
       </c>
       <c r="B103">
-        <f t="shared" si="0"/>
-        <v>238.64000000000001</v>
+        <f t="shared" si="1"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C103">
-        <f>IF(ISEVEN(A453), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -1836,11 +1836,11 @@
         <v>166.36</v>
       </c>
       <c r="B104">
-        <f t="shared" si="0"/>
-        <v>238.64000000000001</v>
+        <f t="shared" si="1"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C104">
-        <f>IF(ISEVEN(A454), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
@@ -1850,11 +1850,11 @@
         <v>166.36</v>
       </c>
       <c r="B105">
-        <f t="shared" si="0"/>
-        <v>238.64000000000001</v>
+        <f t="shared" si="1"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C105">
-        <f>IF(ISEVEN(A455), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -1864,11 +1864,11 @@
         <v>232.72000000000003</v>
       </c>
       <c r="B106">
-        <f t="shared" si="0"/>
-        <v>238.64000000000001</v>
+        <f t="shared" si="1"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C106">
-        <f>IF(ISEVEN(A456), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
@@ -1878,11 +1878,11 @@
         <v>232.72000000000003</v>
       </c>
       <c r="B107">
-        <f t="shared" si="0"/>
-        <v>238.64000000000001</v>
+        <f t="shared" si="1"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C107">
-        <f>IF(ISEVEN(A457), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -1892,11 +1892,11 @@
         <v>299.08000000000004</v>
       </c>
       <c r="B108">
-        <f t="shared" si="0"/>
-        <v>238.64000000000001</v>
+        <f t="shared" si="1"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C108">
-        <f>IF(ISEVEN(A458), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
@@ -1906,11 +1906,11 @@
         <v>299.08000000000004</v>
       </c>
       <c r="B109">
-        <f t="shared" si="0"/>
-        <v>238.64000000000001</v>
+        <f t="shared" si="1"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C109">
-        <f>IF(ISEVEN(A459), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -1920,11 +1920,11 @@
         <v>365.44000000000005</v>
       </c>
       <c r="B110">
-        <f t="shared" si="0"/>
-        <v>238.64000000000001</v>
+        <f t="shared" si="1"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C110">
-        <f>IF(ISEVEN(A460), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
@@ -1934,11 +1934,11 @@
         <v>365.44000000000005</v>
       </c>
       <c r="B111">
-        <f t="shared" si="0"/>
-        <v>238.64000000000001</v>
+        <f t="shared" si="1"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C111">
-        <f>IF(ISEVEN(A461), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -1948,11 +1948,11 @@
         <v>431.80000000000007</v>
       </c>
       <c r="B112">
-        <f t="shared" si="0"/>
-        <v>313.92</v>
+        <f t="shared" si="1"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C112">
-        <f>IF(ISEVEN(A462), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
@@ -1962,11 +1962,11 @@
         <v>431.80000000000007</v>
       </c>
       <c r="B113">
-        <f t="shared" si="0"/>
-        <v>313.92</v>
+        <f t="shared" si="1"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C113">
-        <f>IF(ISEVEN(A463), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -1976,11 +1976,11 @@
         <v>498.16000000000008</v>
       </c>
       <c r="B114">
-        <f t="shared" si="0"/>
-        <v>313.92</v>
+        <f t="shared" si="1"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C114">
-        <f>IF(ISEVEN(A464), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
@@ -1990,11 +1990,11 @@
         <v>498.16000000000008</v>
       </c>
       <c r="B115">
-        <f t="shared" si="0"/>
-        <v>313.92</v>
+        <f t="shared" si="1"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C115">
-        <f>IF(ISEVEN(A465), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -2004,11 +2004,11 @@
         <v>564.5200000000001</v>
       </c>
       <c r="B116">
-        <f t="shared" ref="B116:B179" si="1">B96+H$2</f>
-        <v>313.92</v>
+        <f t="shared" si="1"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C116">
-        <f>IF(ISEVEN(A466), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
@@ -2018,11 +2018,11 @@
         <v>564.5200000000001</v>
       </c>
       <c r="B117">
-        <f t="shared" si="1"/>
-        <v>313.92</v>
+        <f t="shared" ref="B117:B180" si="3">B67+H$2</f>
+        <v>163.36000000000001</v>
       </c>
       <c r="C117">
-        <f>IF(ISEVEN(A467), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -2032,11 +2032,11 @@
         <v>630.88000000000011</v>
       </c>
       <c r="B118">
-        <f t="shared" si="1"/>
-        <v>313.92</v>
+        <f t="shared" si="3"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C118">
-        <f>IF(ISEVEN(A468), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
@@ -2046,11 +2046,11 @@
         <v>630.88000000000011</v>
       </c>
       <c r="B119">
-        <f t="shared" si="1"/>
-        <v>313.92</v>
+        <f t="shared" si="3"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C119">
-        <f>IF(ISEVEN(A469), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -2060,11 +2060,11 @@
         <v>697.24000000000012</v>
       </c>
       <c r="B120">
-        <f t="shared" si="1"/>
-        <v>313.92</v>
+        <f t="shared" si="3"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C120">
-        <f>IF(ISEVEN(A470), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
@@ -2074,11 +2074,11 @@
         <v>630.88000000000011</v>
       </c>
       <c r="B121">
-        <f t="shared" si="1"/>
-        <v>313.92</v>
+        <f t="shared" si="3"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C121">
-        <f>IF(ISEVEN(A471), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -2088,11 +2088,11 @@
         <v>697.24000000000012</v>
       </c>
       <c r="B122">
-        <f t="shared" si="1"/>
-        <v>313.92</v>
+        <f t="shared" si="3"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C122">
-        <f>IF(ISEVEN(A472), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
@@ -2102,11 +2102,11 @@
         <v>697.24000000000012</v>
       </c>
       <c r="B123">
-        <f t="shared" si="1"/>
-        <v>313.92</v>
+        <f t="shared" si="3"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C123">
-        <f>IF(ISEVEN(A473), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -2116,11 +2116,11 @@
         <v>763.60000000000014</v>
       </c>
       <c r="B124">
-        <f t="shared" si="1"/>
-        <v>313.92</v>
+        <f t="shared" si="3"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C124">
-        <f>IF(ISEVEN(A474), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
@@ -2130,11 +2130,11 @@
         <v>763.60000000000014</v>
       </c>
       <c r="B125">
-        <f t="shared" si="1"/>
-        <v>313.92</v>
+        <f t="shared" si="3"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C125">
-        <f>IF(ISEVEN(A475), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -2144,11 +2144,11 @@
         <v>829.96000000000015</v>
       </c>
       <c r="B126">
-        <f t="shared" si="1"/>
-        <v>313.92</v>
+        <f t="shared" si="3"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C126">
-        <f>IF(ISEVEN(A476), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
@@ -2158,11 +2158,11 @@
         <v>763.60000000000014</v>
       </c>
       <c r="B127">
-        <f t="shared" si="1"/>
-        <v>313.92</v>
+        <f t="shared" si="3"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C127">
-        <f>IF(ISEVEN(A477), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -2172,11 +2172,11 @@
         <v>829.96000000000015</v>
       </c>
       <c r="B128">
-        <f t="shared" si="1"/>
-        <v>313.92</v>
+        <f t="shared" si="3"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C128">
-        <f>IF(ISEVEN(A478), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
     </row>
@@ -2186,11 +2186,11 @@
         <v>829.96000000000015</v>
       </c>
       <c r="B129">
-        <f t="shared" si="1"/>
-        <v>313.92</v>
+        <f t="shared" si="3"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C129">
-        <f>IF(ISEVEN(A479), -2,2)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -2200,11 +2200,11 @@
         <v>896.32000000000016</v>
       </c>
       <c r="B130">
-        <f t="shared" si="1"/>
-        <v>313.92</v>
+        <f t="shared" si="3"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C130">
-        <f>IF(ISEVEN(A480), -2,2)</f>
+        <f t="shared" ref="C130:C193" si="4">IF(ISEVEN(A480), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
@@ -2214,11 +2214,11 @@
         <v>896.32000000000016</v>
       </c>
       <c r="B131">
-        <f t="shared" si="1"/>
-        <v>313.92</v>
+        <f t="shared" si="3"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C131">
-        <f>IF(ISEVEN(A481), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -2228,11 +2228,11 @@
         <v>962.68000000000018</v>
       </c>
       <c r="B132">
-        <f t="shared" si="1"/>
-        <v>389.20000000000005</v>
+        <f t="shared" si="3"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C132">
-        <f>IF(ISEVEN(A482), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
@@ -2242,11 +2242,11 @@
         <v>896.32000000000016</v>
       </c>
       <c r="B133">
-        <f t="shared" si="1"/>
-        <v>389.20000000000005</v>
+        <f t="shared" si="3"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C133">
-        <f>IF(ISEVEN(A483), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -2256,11 +2256,11 @@
         <v>962.68000000000018</v>
       </c>
       <c r="B134">
-        <f t="shared" si="1"/>
-        <v>389.20000000000005</v>
+        <f t="shared" si="3"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C134">
-        <f>IF(ISEVEN(A484), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
@@ -2270,11 +2270,11 @@
         <v>962.68000000000018</v>
       </c>
       <c r="B135">
-        <f t="shared" si="1"/>
-        <v>389.20000000000005</v>
+        <f t="shared" si="3"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C135">
-        <f>IF(ISEVEN(A485), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -2284,11 +2284,11 @@
         <v>1029.0400000000002</v>
       </c>
       <c r="B136">
-        <f t="shared" si="1"/>
-        <v>389.20000000000005</v>
+        <f t="shared" si="3"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C136">
-        <f>IF(ISEVEN(A486), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
@@ -2298,11 +2298,11 @@
         <v>1029.0400000000002</v>
       </c>
       <c r="B137">
-        <f t="shared" si="1"/>
-        <v>389.20000000000005</v>
+        <f t="shared" si="3"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C137">
-        <f>IF(ISEVEN(A487), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -2312,11 +2312,11 @@
         <v>1095.4000000000001</v>
       </c>
       <c r="B138">
-        <f t="shared" si="1"/>
-        <v>389.20000000000005</v>
+        <f t="shared" si="3"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C138">
-        <f>IF(ISEVEN(A488), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
@@ -2326,11 +2326,11 @@
         <v>1095.4000000000001</v>
       </c>
       <c r="B139">
-        <f t="shared" si="1"/>
-        <v>389.20000000000005</v>
+        <f t="shared" si="3"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C139">
-        <f>IF(ISEVEN(A489), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -2340,11 +2340,11 @@
         <v>1161.76</v>
       </c>
       <c r="B140">
-        <f t="shared" si="1"/>
-        <v>389.20000000000005</v>
+        <f t="shared" si="3"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C140">
-        <f>IF(ISEVEN(A490), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
@@ -2354,11 +2354,11 @@
         <v>1161.76</v>
       </c>
       <c r="B141">
-        <f t="shared" si="1"/>
-        <v>389.20000000000005</v>
+        <f t="shared" si="3"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C141">
-        <f>IF(ISEVEN(A491), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -2368,11 +2368,11 @@
         <v>1228.1199999999999</v>
       </c>
       <c r="B142">
-        <f t="shared" si="1"/>
-        <v>389.20000000000005</v>
+        <f t="shared" si="3"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C142">
-        <f>IF(ISEVEN(A492), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
@@ -2382,11 +2382,11 @@
         <v>1228.1199999999999</v>
       </c>
       <c r="B143">
-        <f t="shared" si="1"/>
-        <v>389.20000000000005</v>
+        <f t="shared" si="3"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C143">
-        <f>IF(ISEVEN(A493), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -2396,11 +2396,11 @@
         <v>1294.4799999999998</v>
       </c>
       <c r="B144">
-        <f t="shared" si="1"/>
-        <v>389.20000000000005</v>
+        <f t="shared" si="3"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C144">
-        <f>IF(ISEVEN(A494), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
@@ -2410,11 +2410,11 @@
         <v>1294.4799999999998</v>
       </c>
       <c r="B145">
-        <f t="shared" si="1"/>
-        <v>389.20000000000005</v>
+        <f t="shared" si="3"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C145">
-        <f>IF(ISEVEN(A495), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -2424,11 +2424,11 @@
         <v>1360.8399999999997</v>
       </c>
       <c r="B146">
-        <f t="shared" si="1"/>
-        <v>389.20000000000005</v>
+        <f t="shared" si="3"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C146">
-        <f>IF(ISEVEN(A496), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
@@ -2438,11 +2438,11 @@
         <v>1360.8399999999997</v>
       </c>
       <c r="B147">
-        <f t="shared" si="1"/>
-        <v>389.20000000000005</v>
+        <f t="shared" si="3"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C147">
-        <f>IF(ISEVEN(A497), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -2452,11 +2452,11 @@
         <v>1427.1999999999996</v>
       </c>
       <c r="B148">
-        <f t="shared" si="1"/>
-        <v>389.20000000000005</v>
+        <f t="shared" si="3"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C148">
-        <f>IF(ISEVEN(A498), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
@@ -2466,11 +2466,11 @@
         <v>1427.1999999999996</v>
       </c>
       <c r="B149">
-        <f t="shared" si="1"/>
-        <v>389.20000000000005</v>
+        <f t="shared" si="3"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C149">
-        <f>IF(ISEVEN(A499), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -2480,11 +2480,11 @@
         <v>1493.5599999999995</v>
       </c>
       <c r="B150">
-        <f t="shared" si="1"/>
-        <v>389.20000000000005</v>
+        <f t="shared" si="3"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C150">
-        <f>IF(ISEVEN(A500), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
@@ -2494,11 +2494,11 @@
         <v>1493.5599999999995</v>
       </c>
       <c r="B151">
-        <f t="shared" si="1"/>
-        <v>389.20000000000005</v>
+        <f t="shared" si="3"/>
+        <v>163.36000000000001</v>
       </c>
       <c r="C151">
-        <f>IF(ISEVEN(A501), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -2508,11 +2508,11 @@
         <v>100</v>
       </c>
       <c r="B152">
-        <f>B132+H$2</f>
-        <v>464.48</v>
+        <f t="shared" si="3"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C152">
-        <f>IF(ISEVEN(A502), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
@@ -2522,11 +2522,11 @@
         <v>100</v>
       </c>
       <c r="B153">
-        <f>B133+H$2</f>
-        <v>464.48</v>
+        <f t="shared" si="3"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C153">
-        <f>IF(ISEVEN(A503), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -2536,11 +2536,11 @@
         <v>166.36</v>
       </c>
       <c r="B154">
-        <f>B134+H$2</f>
-        <v>464.48</v>
+        <f t="shared" si="3"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C154">
-        <f>IF(ISEVEN(A504), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
@@ -2550,11 +2550,11 @@
         <v>166.36</v>
       </c>
       <c r="B155">
-        <f>B135+H$2</f>
-        <v>464.48</v>
+        <f t="shared" si="3"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C155">
-        <f>IF(ISEVEN(A505), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -2564,11 +2564,11 @@
         <v>232.72000000000003</v>
       </c>
       <c r="B156">
-        <f>B136+H$2</f>
-        <v>464.48</v>
+        <f t="shared" si="3"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C156">
-        <f>IF(ISEVEN(A506), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
@@ -2578,11 +2578,11 @@
         <v>232.72000000000003</v>
       </c>
       <c r="B157">
-        <f>B137+H$2</f>
-        <v>464.48</v>
+        <f t="shared" si="3"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C157">
-        <f>IF(ISEVEN(A507), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -2592,11 +2592,11 @@
         <v>299.08000000000004</v>
       </c>
       <c r="B158">
-        <f>B138+H$2</f>
-        <v>464.48</v>
+        <f t="shared" si="3"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C158">
-        <f>IF(ISEVEN(A508), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
@@ -2606,11 +2606,11 @@
         <v>299.08000000000004</v>
       </c>
       <c r="B159">
-        <f>B139+H$2</f>
-        <v>464.48</v>
+        <f t="shared" si="3"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C159">
-        <f>IF(ISEVEN(A509), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -2620,11 +2620,11 @@
         <v>365.44000000000005</v>
       </c>
       <c r="B160">
-        <f>B140+H$2</f>
-        <v>464.48</v>
+        <f t="shared" si="3"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C160">
-        <f>IF(ISEVEN(A510), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
@@ -2634,11 +2634,11 @@
         <v>365.44000000000005</v>
       </c>
       <c r="B161">
-        <f>B141+H$2</f>
-        <v>464.48</v>
+        <f t="shared" si="3"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C161">
-        <f>IF(ISEVEN(A511), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -2648,11 +2648,11 @@
         <v>431.80000000000007</v>
       </c>
       <c r="B162">
-        <f>B142+H$2</f>
-        <v>464.48</v>
+        <f t="shared" si="3"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C162">
-        <f>IF(ISEVEN(A512), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
@@ -2662,11 +2662,11 @@
         <v>431.80000000000007</v>
       </c>
       <c r="B163">
-        <f>B143+H$2</f>
-        <v>464.48</v>
+        <f t="shared" si="3"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C163">
-        <f>IF(ISEVEN(A513), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -2676,11 +2676,11 @@
         <v>498.16000000000008</v>
       </c>
       <c r="B164">
-        <f>B144+H$2</f>
-        <v>464.48</v>
+        <f t="shared" si="3"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C164">
-        <f>IF(ISEVEN(A514), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
@@ -2690,11 +2690,11 @@
         <v>498.16000000000008</v>
       </c>
       <c r="B165">
-        <f>B145+H$2</f>
-        <v>464.48</v>
+        <f t="shared" si="3"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C165">
-        <f>IF(ISEVEN(A515), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -2704,11 +2704,11 @@
         <v>564.5200000000001</v>
       </c>
       <c r="B166">
-        <f>B146+H$2</f>
-        <v>464.48</v>
+        <f t="shared" si="3"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C166">
-        <f>IF(ISEVEN(A516), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
@@ -2718,11 +2718,11 @@
         <v>564.5200000000001</v>
       </c>
       <c r="B167">
-        <f>B147+H$2</f>
-        <v>464.48</v>
+        <f t="shared" si="3"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C167">
-        <f>IF(ISEVEN(A517), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -2732,11 +2732,11 @@
         <v>630.88000000000011</v>
       </c>
       <c r="B168">
-        <f>B148+H$2</f>
-        <v>464.48</v>
+        <f t="shared" si="3"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C168">
-        <f>IF(ISEVEN(A518), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
@@ -2746,11 +2746,11 @@
         <v>630.88000000000011</v>
       </c>
       <c r="B169">
-        <f>B149+H$2</f>
-        <v>464.48</v>
+        <f t="shared" si="3"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C169">
-        <f>IF(ISEVEN(A519), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -2760,11 +2760,11 @@
         <v>697.24000000000012</v>
       </c>
       <c r="B170">
-        <f>B150+H$2</f>
-        <v>464.48</v>
+        <f t="shared" si="3"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C170">
-        <f>IF(ISEVEN(A520), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
@@ -2774,11 +2774,11 @@
         <v>630.88000000000011</v>
       </c>
       <c r="B171">
-        <f>B151+H$2</f>
-        <v>464.48</v>
+        <f t="shared" si="3"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C171">
-        <f>IF(ISEVEN(A521), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -2788,11 +2788,11 @@
         <v>697.24000000000012</v>
       </c>
       <c r="B172">
-        <f t="shared" si="1"/>
-        <v>539.76</v>
+        <f t="shared" si="3"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C172">
-        <f>IF(ISEVEN(A522), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
@@ -2802,11 +2802,11 @@
         <v>697.24000000000012</v>
       </c>
       <c r="B173">
-        <f t="shared" si="1"/>
-        <v>539.76</v>
+        <f t="shared" si="3"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C173">
-        <f>IF(ISEVEN(A523), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -2816,11 +2816,11 @@
         <v>763.60000000000014</v>
       </c>
       <c r="B174">
-        <f t="shared" si="1"/>
-        <v>539.76</v>
+        <f t="shared" si="3"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C174">
-        <f>IF(ISEVEN(A524), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
@@ -2830,11 +2830,11 @@
         <v>763.60000000000014</v>
       </c>
       <c r="B175">
-        <f t="shared" si="1"/>
-        <v>539.76</v>
+        <f t="shared" si="3"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C175">
-        <f>IF(ISEVEN(A525), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -2844,11 +2844,11 @@
         <v>829.96000000000015</v>
       </c>
       <c r="B176">
-        <f t="shared" si="1"/>
-        <v>539.76</v>
+        <f t="shared" si="3"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C176">
-        <f>IF(ISEVEN(A526), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
@@ -2858,11 +2858,11 @@
         <v>763.60000000000014</v>
       </c>
       <c r="B177">
-        <f t="shared" si="1"/>
-        <v>539.76</v>
+        <f t="shared" si="3"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C177">
-        <f>IF(ISEVEN(A527), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -2872,11 +2872,11 @@
         <v>829.96000000000015</v>
       </c>
       <c r="B178">
-        <f t="shared" si="1"/>
-        <v>539.76</v>
+        <f t="shared" si="3"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C178">
-        <f>IF(ISEVEN(A528), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
@@ -2886,11 +2886,11 @@
         <v>829.96000000000015</v>
       </c>
       <c r="B179">
-        <f t="shared" si="1"/>
-        <v>539.76</v>
+        <f t="shared" si="3"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C179">
-        <f>IF(ISEVEN(A529), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -2900,11 +2900,11 @@
         <v>896.32000000000016</v>
       </c>
       <c r="B180">
-        <f t="shared" ref="B180:B243" si="2">B160+H$2</f>
-        <v>539.76</v>
+        <f t="shared" si="3"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C180">
-        <f>IF(ISEVEN(A530), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
@@ -2914,11 +2914,11 @@
         <v>896.32000000000016</v>
       </c>
       <c r="B181">
-        <f t="shared" si="2"/>
-        <v>539.76</v>
+        <f t="shared" ref="B181:B244" si="5">B131+H$2</f>
+        <v>238.64000000000001</v>
       </c>
       <c r="C181">
-        <f>IF(ISEVEN(A531), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -2928,11 +2928,11 @@
         <v>962.68000000000018</v>
       </c>
       <c r="B182">
-        <f t="shared" si="2"/>
-        <v>539.76</v>
+        <f t="shared" si="5"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C182">
-        <f>IF(ISEVEN(A532), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
@@ -2942,11 +2942,11 @@
         <v>896.32000000000016</v>
       </c>
       <c r="B183">
-        <f t="shared" si="2"/>
-        <v>539.76</v>
+        <f t="shared" si="5"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C183">
-        <f>IF(ISEVEN(A533), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -2956,11 +2956,11 @@
         <v>962.68000000000018</v>
       </c>
       <c r="B184">
-        <f t="shared" si="2"/>
-        <v>539.76</v>
+        <f t="shared" si="5"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C184">
-        <f>IF(ISEVEN(A534), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
@@ -2970,11 +2970,11 @@
         <v>962.68000000000018</v>
       </c>
       <c r="B185">
-        <f t="shared" si="2"/>
-        <v>539.76</v>
+        <f t="shared" si="5"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C185">
-        <f>IF(ISEVEN(A535), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -2984,11 +2984,11 @@
         <v>1029.0400000000002</v>
       </c>
       <c r="B186">
-        <f t="shared" si="2"/>
-        <v>539.76</v>
+        <f t="shared" si="5"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C186">
-        <f>IF(ISEVEN(A536), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
@@ -2998,11 +2998,11 @@
         <v>1029.0400000000002</v>
       </c>
       <c r="B187">
-        <f t="shared" si="2"/>
-        <v>539.76</v>
+        <f t="shared" si="5"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C187">
-        <f>IF(ISEVEN(A537), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3012,11 +3012,11 @@
         <v>1095.4000000000001</v>
       </c>
       <c r="B188">
-        <f t="shared" si="2"/>
-        <v>539.76</v>
+        <f t="shared" si="5"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C188">
-        <f>IF(ISEVEN(A538), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
@@ -3026,11 +3026,11 @@
         <v>1095.4000000000001</v>
       </c>
       <c r="B189">
-        <f t="shared" si="2"/>
-        <v>539.76</v>
+        <f t="shared" si="5"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C189">
-        <f>IF(ISEVEN(A539), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3040,11 +3040,11 @@
         <v>1161.76</v>
       </c>
       <c r="B190">
-        <f t="shared" si="2"/>
-        <v>539.76</v>
+        <f t="shared" si="5"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C190">
-        <f>IF(ISEVEN(A540), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
@@ -3054,11 +3054,11 @@
         <v>1161.76</v>
       </c>
       <c r="B191">
-        <f t="shared" si="2"/>
-        <v>539.76</v>
+        <f t="shared" si="5"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C191">
-        <f>IF(ISEVEN(A541), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3068,11 +3068,11 @@
         <v>1228.1199999999999</v>
       </c>
       <c r="B192">
-        <f t="shared" si="2"/>
-        <v>615.04</v>
+        <f t="shared" si="5"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C192">
-        <f>IF(ISEVEN(A542), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
@@ -3082,11 +3082,11 @@
         <v>1228.1199999999999</v>
       </c>
       <c r="B193">
-        <f t="shared" si="2"/>
-        <v>615.04</v>
+        <f t="shared" si="5"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C193">
-        <f>IF(ISEVEN(A543), -2,2)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3096,11 +3096,11 @@
         <v>1294.4799999999998</v>
       </c>
       <c r="B194">
-        <f t="shared" si="2"/>
-        <v>615.04</v>
+        <f t="shared" si="5"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C194">
-        <f>IF(ISEVEN(A544), -2,2)</f>
+        <f t="shared" ref="C194:C257" si="6">IF(ISEVEN(A544), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
@@ -3110,11 +3110,11 @@
         <v>1294.4799999999998</v>
       </c>
       <c r="B195">
-        <f t="shared" si="2"/>
-        <v>615.04</v>
+        <f t="shared" si="5"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C195">
-        <f>IF(ISEVEN(A545), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -3124,11 +3124,11 @@
         <v>1360.8399999999997</v>
       </c>
       <c r="B196">
-        <f t="shared" si="2"/>
-        <v>615.04</v>
+        <f t="shared" si="5"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C196">
-        <f>IF(ISEVEN(A546), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
     </row>
@@ -3138,11 +3138,11 @@
         <v>1360.8399999999997</v>
       </c>
       <c r="B197">
-        <f t="shared" si="2"/>
-        <v>615.04</v>
+        <f t="shared" si="5"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C197">
-        <f>IF(ISEVEN(A547), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -3152,11 +3152,11 @@
         <v>1427.1999999999996</v>
       </c>
       <c r="B198">
-        <f t="shared" si="2"/>
-        <v>615.04</v>
+        <f t="shared" si="5"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C198">
-        <f>IF(ISEVEN(A548), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
     </row>
@@ -3166,11 +3166,11 @@
         <v>1427.1999999999996</v>
       </c>
       <c r="B199">
-        <f t="shared" si="2"/>
-        <v>615.04</v>
+        <f t="shared" si="5"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C199">
-        <f>IF(ISEVEN(A549), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -3180,11 +3180,11 @@
         <v>1493.5599999999995</v>
       </c>
       <c r="B200">
-        <f t="shared" si="2"/>
-        <v>615.04</v>
+        <f t="shared" si="5"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C200">
-        <f>IF(ISEVEN(A550), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
     </row>
@@ -3194,11 +3194,11 @@
         <v>1493.5599999999995</v>
       </c>
       <c r="B201">
-        <f t="shared" si="2"/>
-        <v>615.04</v>
+        <f t="shared" si="5"/>
+        <v>238.64000000000001</v>
       </c>
       <c r="C201">
-        <f>IF(ISEVEN(A551), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -3208,11 +3208,11 @@
         <v>100</v>
       </c>
       <c r="B202">
-        <f>B182+H$2</f>
-        <v>615.04</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C202">
-        <f>IF(ISEVEN(A552), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
     </row>
@@ -3222,11 +3222,11 @@
         <v>100</v>
       </c>
       <c r="B203">
-        <f>B183+H$2</f>
-        <v>615.04</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C203">
-        <f>IF(ISEVEN(A553), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -3236,11 +3236,11 @@
         <v>166.36</v>
       </c>
       <c r="B204">
-        <f>B184+H$2</f>
-        <v>615.04</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C204">
-        <f>IF(ISEVEN(A554), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
     </row>
@@ -3250,11 +3250,11 @@
         <v>166.36</v>
       </c>
       <c r="B205">
-        <f>B185+H$2</f>
-        <v>615.04</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C205">
-        <f>IF(ISEVEN(A555), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -3264,11 +3264,11 @@
         <v>232.72000000000003</v>
       </c>
       <c r="B206">
-        <f>B186+H$2</f>
-        <v>615.04</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C206">
-        <f>IF(ISEVEN(A556), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
     </row>
@@ -3278,11 +3278,11 @@
         <v>232.72000000000003</v>
       </c>
       <c r="B207">
-        <f>B187+H$2</f>
-        <v>615.04</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C207">
-        <f>IF(ISEVEN(A557), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -3292,11 +3292,11 @@
         <v>299.08000000000004</v>
       </c>
       <c r="B208">
-        <f>B188+H$2</f>
-        <v>615.04</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C208">
-        <f>IF(ISEVEN(A558), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
     </row>
@@ -3306,11 +3306,11 @@
         <v>299.08000000000004</v>
       </c>
       <c r="B209">
-        <f>B189+H$2</f>
-        <v>615.04</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C209">
-        <f>IF(ISEVEN(A559), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -3320,11 +3320,11 @@
         <v>365.44000000000005</v>
       </c>
       <c r="B210">
-        <f>B190+H$2</f>
-        <v>615.04</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C210">
-        <f>IF(ISEVEN(A560), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
     </row>
@@ -3334,11 +3334,11 @@
         <v>365.44000000000005</v>
       </c>
       <c r="B211">
-        <f>B191+H$2</f>
-        <v>615.04</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C211">
-        <f>IF(ISEVEN(A561), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -3348,11 +3348,11 @@
         <v>431.80000000000007</v>
       </c>
       <c r="B212">
-        <f>B192+H$2</f>
-        <v>690.31999999999994</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C212">
-        <f>IF(ISEVEN(A562), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
     </row>
@@ -3362,11 +3362,11 @@
         <v>431.80000000000007</v>
       </c>
       <c r="B213">
-        <f>B193+H$2</f>
-        <v>690.31999999999994</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C213">
-        <f>IF(ISEVEN(A563), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -3376,11 +3376,11 @@
         <v>498.16000000000008</v>
       </c>
       <c r="B214">
-        <f>B194+H$2</f>
-        <v>690.31999999999994</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C214">
-        <f>IF(ISEVEN(A564), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
     </row>
@@ -3390,11 +3390,11 @@
         <v>498.16000000000008</v>
       </c>
       <c r="B215">
-        <f>B195+H$2</f>
-        <v>690.31999999999994</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C215">
-        <f>IF(ISEVEN(A565), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -3404,11 +3404,11 @@
         <v>564.5200000000001</v>
       </c>
       <c r="B216">
-        <f>B196+H$2</f>
-        <v>690.31999999999994</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C216">
-        <f>IF(ISEVEN(A566), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
     </row>
@@ -3418,11 +3418,11 @@
         <v>564.5200000000001</v>
       </c>
       <c r="B217">
-        <f>B197+H$2</f>
-        <v>690.31999999999994</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C217">
-        <f>IF(ISEVEN(A567), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -3432,11 +3432,11 @@
         <v>630.88000000000011</v>
       </c>
       <c r="B218">
-        <f>B198+H$2</f>
-        <v>690.31999999999994</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C218">
-        <f>IF(ISEVEN(A568), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
     </row>
@@ -3446,11 +3446,11 @@
         <v>630.88000000000011</v>
       </c>
       <c r="B219">
-        <f>B199+H$2</f>
-        <v>690.31999999999994</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C219">
-        <f>IF(ISEVEN(A569), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -3460,11 +3460,11 @@
         <v>697.24000000000012</v>
       </c>
       <c r="B220">
-        <f>B200+H$2</f>
-        <v>690.31999999999994</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C220">
-        <f>IF(ISEVEN(A570), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
     </row>
@@ -3474,11 +3474,11 @@
         <v>630.88000000000011</v>
       </c>
       <c r="B221">
-        <f>B201+H$2</f>
-        <v>690.31999999999994</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C221">
-        <f>IF(ISEVEN(A571), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -3488,11 +3488,11 @@
         <v>697.24000000000012</v>
       </c>
       <c r="B222">
-        <f t="shared" si="2"/>
-        <v>690.31999999999994</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C222">
-        <f>IF(ISEVEN(A572), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
     </row>
@@ -3502,11 +3502,11 @@
         <v>697.24000000000012</v>
       </c>
       <c r="B223">
-        <f t="shared" si="2"/>
-        <v>690.31999999999994</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C223">
-        <f>IF(ISEVEN(A573), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -3516,11 +3516,11 @@
         <v>763.60000000000014</v>
       </c>
       <c r="B224">
-        <f t="shared" si="2"/>
-        <v>690.31999999999994</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C224">
-        <f>IF(ISEVEN(A574), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
     </row>
@@ -3530,11 +3530,11 @@
         <v>763.60000000000014</v>
       </c>
       <c r="B225">
-        <f t="shared" si="2"/>
-        <v>690.31999999999994</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C225">
-        <f>IF(ISEVEN(A575), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -3544,11 +3544,11 @@
         <v>829.96000000000015</v>
       </c>
       <c r="B226">
-        <f t="shared" si="2"/>
-        <v>690.31999999999994</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C226">
-        <f>IF(ISEVEN(A576), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
     </row>
@@ -3558,11 +3558,11 @@
         <v>763.60000000000014</v>
       </c>
       <c r="B227">
-        <f t="shared" si="2"/>
-        <v>690.31999999999994</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C227">
-        <f>IF(ISEVEN(A577), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -3572,11 +3572,11 @@
         <v>829.96000000000015</v>
       </c>
       <c r="B228">
-        <f t="shared" si="2"/>
-        <v>690.31999999999994</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C228">
-        <f>IF(ISEVEN(A578), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
     </row>
@@ -3586,11 +3586,11 @@
         <v>829.96000000000015</v>
       </c>
       <c r="B229">
-        <f t="shared" si="2"/>
-        <v>690.31999999999994</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C229">
-        <f>IF(ISEVEN(A579), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -3600,11 +3600,11 @@
         <v>896.32000000000016</v>
       </c>
       <c r="B230">
-        <f t="shared" si="2"/>
-        <v>690.31999999999994</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C230">
-        <f>IF(ISEVEN(A580), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
     </row>
@@ -3614,11 +3614,11 @@
         <v>896.32000000000016</v>
       </c>
       <c r="B231">
-        <f t="shared" si="2"/>
-        <v>690.31999999999994</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C231">
-        <f>IF(ISEVEN(A581), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -3628,11 +3628,11 @@
         <v>962.68000000000018</v>
       </c>
       <c r="B232">
-        <f t="shared" si="2"/>
-        <v>765.59999999999991</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C232">
-        <f>IF(ISEVEN(A582), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
     </row>
@@ -3642,11 +3642,11 @@
         <v>896.32000000000016</v>
       </c>
       <c r="B233">
-        <f t="shared" si="2"/>
-        <v>765.59999999999991</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C233">
-        <f>IF(ISEVEN(A583), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -3656,11 +3656,11 @@
         <v>962.68000000000018</v>
       </c>
       <c r="B234">
-        <f t="shared" si="2"/>
-        <v>765.59999999999991</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C234">
-        <f>IF(ISEVEN(A584), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
     </row>
@@ -3670,11 +3670,11 @@
         <v>962.68000000000018</v>
       </c>
       <c r="B235">
-        <f t="shared" si="2"/>
-        <v>765.59999999999991</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C235">
-        <f>IF(ISEVEN(A585), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -3684,11 +3684,11 @@
         <v>1029.0400000000002</v>
       </c>
       <c r="B236">
-        <f t="shared" si="2"/>
-        <v>765.59999999999991</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C236">
-        <f>IF(ISEVEN(A586), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
     </row>
@@ -3698,11 +3698,11 @@
         <v>1029.0400000000002</v>
       </c>
       <c r="B237">
-        <f t="shared" si="2"/>
-        <v>765.59999999999991</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C237">
-        <f>IF(ISEVEN(A587), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -3712,11 +3712,11 @@
         <v>1095.4000000000001</v>
       </c>
       <c r="B238">
-        <f t="shared" si="2"/>
-        <v>765.59999999999991</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C238">
-        <f>IF(ISEVEN(A588), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
     </row>
@@ -3726,11 +3726,11 @@
         <v>1095.4000000000001</v>
       </c>
       <c r="B239">
-        <f t="shared" si="2"/>
-        <v>765.59999999999991</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C239">
-        <f>IF(ISEVEN(A589), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -3740,11 +3740,11 @@
         <v>1161.76</v>
       </c>
       <c r="B240">
-        <f t="shared" si="2"/>
-        <v>765.59999999999991</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C240">
-        <f>IF(ISEVEN(A590), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
     </row>
@@ -3754,11 +3754,11 @@
         <v>1161.76</v>
       </c>
       <c r="B241">
-        <f t="shared" si="2"/>
-        <v>765.59999999999991</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C241">
-        <f>IF(ISEVEN(A591), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -3768,11 +3768,11 @@
         <v>1228.1199999999999</v>
       </c>
       <c r="B242">
-        <f t="shared" si="2"/>
-        <v>765.59999999999991</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C242">
-        <f>IF(ISEVEN(A592), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
     </row>
@@ -3782,11 +3782,11 @@
         <v>1228.1199999999999</v>
       </c>
       <c r="B243">
-        <f t="shared" si="2"/>
-        <v>765.59999999999991</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C243">
-        <f>IF(ISEVEN(A593), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -3796,11 +3796,11 @@
         <v>1294.4799999999998</v>
       </c>
       <c r="B244">
-        <f t="shared" ref="B244:B301" si="3">B224+H$2</f>
-        <v>765.59999999999991</v>
+        <f t="shared" si="5"/>
+        <v>313.92</v>
       </c>
       <c r="C244">
-        <f>IF(ISEVEN(A594), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
     </row>
@@ -3810,11 +3810,11 @@
         <v>1294.4799999999998</v>
       </c>
       <c r="B245">
-        <f t="shared" si="3"/>
-        <v>765.59999999999991</v>
+        <f t="shared" ref="B245:B301" si="7">B195+H$2</f>
+        <v>313.92</v>
       </c>
       <c r="C245">
-        <f>IF(ISEVEN(A595), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -3824,11 +3824,11 @@
         <v>1360.8399999999997</v>
       </c>
       <c r="B246">
-        <f t="shared" si="3"/>
-        <v>765.59999999999991</v>
+        <f t="shared" si="7"/>
+        <v>313.92</v>
       </c>
       <c r="C246">
-        <f>IF(ISEVEN(A596), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
     </row>
@@ -3838,11 +3838,11 @@
         <v>1360.8399999999997</v>
       </c>
       <c r="B247">
-        <f t="shared" si="3"/>
-        <v>765.59999999999991</v>
+        <f t="shared" si="7"/>
+        <v>313.92</v>
       </c>
       <c r="C247">
-        <f>IF(ISEVEN(A597), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -3852,11 +3852,11 @@
         <v>1427.1999999999996</v>
       </c>
       <c r="B248">
-        <f t="shared" si="3"/>
-        <v>765.59999999999991</v>
+        <f t="shared" si="7"/>
+        <v>313.92</v>
       </c>
       <c r="C248">
-        <f>IF(ISEVEN(A598), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
     </row>
@@ -3866,11 +3866,11 @@
         <v>1427.1999999999996</v>
       </c>
       <c r="B249">
-        <f t="shared" si="3"/>
-        <v>765.59999999999991</v>
+        <f t="shared" si="7"/>
+        <v>313.92</v>
       </c>
       <c r="C249">
-        <f>IF(ISEVEN(A599), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -3880,11 +3880,11 @@
         <v>1493.5599999999995</v>
       </c>
       <c r="B250">
-        <f t="shared" si="3"/>
-        <v>765.59999999999991</v>
+        <f t="shared" si="7"/>
+        <v>313.92</v>
       </c>
       <c r="C250">
-        <f>IF(ISEVEN(A600), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
     </row>
@@ -3894,11 +3894,11 @@
         <v>1493.5599999999995</v>
       </c>
       <c r="B251">
-        <f t="shared" si="3"/>
-        <v>765.59999999999991</v>
+        <f t="shared" si="7"/>
+        <v>313.92</v>
       </c>
       <c r="C251">
-        <f>IF(ISEVEN(A601), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -3908,11 +3908,11 @@
         <v>100</v>
       </c>
       <c r="B252">
-        <f>B232+H$2</f>
-        <v>840.87999999999988</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C252">
-        <f>IF(ISEVEN(A602), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
     </row>
@@ -3922,11 +3922,11 @@
         <v>100</v>
       </c>
       <c r="B253">
-        <f>B233+H$2</f>
-        <v>840.87999999999988</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C253">
-        <f>IF(ISEVEN(A603), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -3936,11 +3936,11 @@
         <v>166.36</v>
       </c>
       <c r="B254">
-        <f>B234+H$2</f>
-        <v>840.87999999999988</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C254">
-        <f>IF(ISEVEN(A604), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
     </row>
@@ -3950,11 +3950,11 @@
         <v>166.36</v>
       </c>
       <c r="B255">
-        <f>B235+H$2</f>
-        <v>840.87999999999988</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C255">
-        <f>IF(ISEVEN(A605), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -3964,11 +3964,11 @@
         <v>232.72000000000003</v>
       </c>
       <c r="B256">
-        <f>B236+H$2</f>
-        <v>840.87999999999988</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C256">
-        <f>IF(ISEVEN(A606), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
     </row>
@@ -3978,11 +3978,11 @@
         <v>232.72000000000003</v>
       </c>
       <c r="B257">
-        <f>B237+H$2</f>
-        <v>840.87999999999988</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C257">
-        <f>IF(ISEVEN(A607), -2,2)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -3992,11 +3992,11 @@
         <v>299.08000000000004</v>
       </c>
       <c r="B258">
-        <f>B238+H$2</f>
-        <v>840.87999999999988</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C258">
-        <f>IF(ISEVEN(A608), -2,2)</f>
+        <f t="shared" ref="C258:C321" si="8">IF(ISEVEN(A608), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
@@ -4006,11 +4006,11 @@
         <v>299.08000000000004</v>
       </c>
       <c r="B259">
-        <f>B239+H$2</f>
-        <v>840.87999999999988</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C259">
-        <f>IF(ISEVEN(A609), -2,2)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -4020,11 +4020,11 @@
         <v>365.44000000000005</v>
       </c>
       <c r="B260">
-        <f>B240+H$2</f>
-        <v>840.87999999999988</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C260">
-        <f>IF(ISEVEN(A610), -2,2)</f>
+        <f t="shared" si="8"/>
         <v>-2</v>
       </c>
     </row>
@@ -4034,11 +4034,11 @@
         <v>365.44000000000005</v>
       </c>
       <c r="B261">
-        <f>B241+H$2</f>
-        <v>840.87999999999988</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C261">
-        <f>IF(ISEVEN(A611), -2,2)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -4048,11 +4048,11 @@
         <v>431.80000000000007</v>
       </c>
       <c r="B262">
-        <f>B242+H$2</f>
-        <v>840.87999999999988</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C262">
-        <f>IF(ISEVEN(A612), -2,2)</f>
+        <f t="shared" si="8"/>
         <v>-2</v>
       </c>
     </row>
@@ -4062,11 +4062,11 @@
         <v>431.80000000000007</v>
       </c>
       <c r="B263">
-        <f>B243+H$2</f>
-        <v>840.87999999999988</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C263">
-        <f>IF(ISEVEN(A613), -2,2)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -4076,11 +4076,11 @@
         <v>498.16000000000008</v>
       </c>
       <c r="B264">
-        <f>B244+H$2</f>
-        <v>840.87999999999988</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C264">
-        <f>IF(ISEVEN(A614), -2,2)</f>
+        <f t="shared" si="8"/>
         <v>-2</v>
       </c>
     </row>
@@ -4090,11 +4090,11 @@
         <v>498.16000000000008</v>
       </c>
       <c r="B265">
-        <f>B245+H$2</f>
-        <v>840.87999999999988</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C265">
-        <f>IF(ISEVEN(A615), -2,2)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -4104,11 +4104,11 @@
         <v>564.5200000000001</v>
       </c>
       <c r="B266">
-        <f>B246+H$2</f>
-        <v>840.87999999999988</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C266">
-        <f>IF(ISEVEN(A616), -2,2)</f>
+        <f t="shared" si="8"/>
         <v>-2</v>
       </c>
     </row>
@@ -4118,11 +4118,11 @@
         <v>564.5200000000001</v>
       </c>
       <c r="B267">
-        <f>B247+H$2</f>
-        <v>840.87999999999988</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C267">
-        <f>IF(ISEVEN(A617), -2,2)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -4132,11 +4132,11 @@
         <v>630.88000000000011</v>
       </c>
       <c r="B268">
-        <f>B248+H$2</f>
-        <v>840.87999999999988</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C268">
-        <f>IF(ISEVEN(A618), -2,2)</f>
+        <f t="shared" si="8"/>
         <v>-2</v>
       </c>
     </row>
@@ -4146,11 +4146,11 @@
         <v>630.88000000000011</v>
       </c>
       <c r="B269">
-        <f>B249+H$2</f>
-        <v>840.87999999999988</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C269">
-        <f>IF(ISEVEN(A619), -2,2)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -4160,11 +4160,11 @@
         <v>697.24000000000012</v>
       </c>
       <c r="B270">
-        <f>B250+H$2</f>
-        <v>840.87999999999988</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C270">
-        <f>IF(ISEVEN(A620), -2,2)</f>
+        <f t="shared" si="8"/>
         <v>-2</v>
       </c>
     </row>
@@ -4174,11 +4174,11 @@
         <v>630.88000000000011</v>
       </c>
       <c r="B271">
-        <f>B251+H$2</f>
-        <v>840.87999999999988</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C271">
-        <f>IF(ISEVEN(A621), -2,2)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -4188,11 +4188,11 @@
         <v>697.24000000000012</v>
       </c>
       <c r="B272">
-        <f t="shared" si="3"/>
-        <v>916.15999999999985</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C272">
-        <f>IF(ISEVEN(A622), -2,2)</f>
+        <f t="shared" si="8"/>
         <v>-2</v>
       </c>
     </row>
@@ -4202,11 +4202,11 @@
         <v>697.24000000000012</v>
       </c>
       <c r="B273">
-        <f t="shared" si="3"/>
-        <v>916.15999999999985</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C273">
-        <f>IF(ISEVEN(A623), -2,2)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -4216,11 +4216,11 @@
         <v>763.60000000000014</v>
       </c>
       <c r="B274">
-        <f t="shared" si="3"/>
-        <v>916.15999999999985</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C274">
-        <f>IF(ISEVEN(A624), -2,2)</f>
+        <f t="shared" si="8"/>
         <v>-2</v>
       </c>
     </row>
@@ -4230,11 +4230,11 @@
         <v>763.60000000000014</v>
       </c>
       <c r="B275">
-        <f t="shared" si="3"/>
-        <v>916.15999999999985</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C275">
-        <f>IF(ISEVEN(A625), -2,2)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -4244,11 +4244,11 @@
         <v>829.96000000000015</v>
       </c>
       <c r="B276">
-        <f t="shared" si="3"/>
-        <v>916.15999999999985</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C276">
-        <f>IF(ISEVEN(A626), -2,2)</f>
+        <f t="shared" si="8"/>
         <v>-2</v>
       </c>
     </row>
@@ -4258,11 +4258,11 @@
         <v>763.60000000000014</v>
       </c>
       <c r="B277">
-        <f t="shared" si="3"/>
-        <v>916.15999999999985</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C277">
-        <f>IF(ISEVEN(A627), -2,2)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -4272,11 +4272,11 @@
         <v>829.96000000000015</v>
       </c>
       <c r="B278">
-        <f t="shared" si="3"/>
-        <v>916.15999999999985</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C278">
-        <f>IF(ISEVEN(A628), -2,2)</f>
+        <f t="shared" si="8"/>
         <v>-2</v>
       </c>
     </row>
@@ -4286,11 +4286,11 @@
         <v>829.96000000000015</v>
       </c>
       <c r="B279">
-        <f t="shared" si="3"/>
-        <v>916.15999999999985</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C279">
-        <f>IF(ISEVEN(A629), -2,2)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -4300,11 +4300,11 @@
         <v>896.32000000000016</v>
       </c>
       <c r="B280">
-        <f t="shared" si="3"/>
-        <v>916.15999999999985</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C280">
-        <f>IF(ISEVEN(A630), -2,2)</f>
+        <f t="shared" si="8"/>
         <v>-2</v>
       </c>
     </row>
@@ -4314,11 +4314,11 @@
         <v>896.32000000000016</v>
       </c>
       <c r="B281">
-        <f t="shared" si="3"/>
-        <v>916.15999999999985</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C281">
-        <f>IF(ISEVEN(A631), -2,2)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -4328,11 +4328,11 @@
         <v>962.68000000000018</v>
       </c>
       <c r="B282">
-        <f t="shared" si="3"/>
-        <v>916.15999999999985</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C282">
-        <f>IF(ISEVEN(A632), -2,2)</f>
+        <f t="shared" si="8"/>
         <v>-2</v>
       </c>
     </row>
@@ -4342,11 +4342,11 @@
         <v>896.32000000000016</v>
       </c>
       <c r="B283">
-        <f t="shared" si="3"/>
-        <v>916.15999999999985</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C283">
-        <f>IF(ISEVEN(A633), -2,2)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -4356,11 +4356,11 @@
         <v>962.68000000000018</v>
       </c>
       <c r="B284">
-        <f t="shared" si="3"/>
-        <v>916.15999999999985</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C284">
-        <f>IF(ISEVEN(A634), -2,2)</f>
+        <f t="shared" si="8"/>
         <v>-2</v>
       </c>
     </row>
@@ -4370,11 +4370,11 @@
         <v>962.68000000000018</v>
       </c>
       <c r="B285">
-        <f t="shared" si="3"/>
-        <v>916.15999999999985</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C285">
-        <f>IF(ISEVEN(A635), -2,2)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -4384,11 +4384,11 @@
         <v>1029.0400000000002</v>
       </c>
       <c r="B286">
-        <f t="shared" si="3"/>
-        <v>916.15999999999985</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C286">
-        <f>IF(ISEVEN(A636), -2,2)</f>
+        <f t="shared" si="8"/>
         <v>-2</v>
       </c>
     </row>
@@ -4398,11 +4398,11 @@
         <v>1029.0400000000002</v>
       </c>
       <c r="B287">
-        <f t="shared" si="3"/>
-        <v>916.15999999999985</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C287">
-        <f>IF(ISEVEN(A637), -2,2)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -4412,11 +4412,11 @@
         <v>1095.4000000000001</v>
       </c>
       <c r="B288">
-        <f t="shared" si="3"/>
-        <v>916.15999999999985</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C288">
-        <f>IF(ISEVEN(A638), -2,2)</f>
+        <f t="shared" si="8"/>
         <v>-2</v>
       </c>
     </row>
@@ -4426,11 +4426,11 @@
         <v>1095.4000000000001</v>
       </c>
       <c r="B289">
-        <f t="shared" si="3"/>
-        <v>916.15999999999985</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C289">
-        <f>IF(ISEVEN(A639), -2,2)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -4440,11 +4440,11 @@
         <v>1161.76</v>
       </c>
       <c r="B290">
-        <f t="shared" si="3"/>
-        <v>916.15999999999985</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C290">
-        <f>IF(ISEVEN(A640), -2,2)</f>
+        <f t="shared" si="8"/>
         <v>-2</v>
       </c>
     </row>
@@ -4454,11 +4454,11 @@
         <v>1161.76</v>
       </c>
       <c r="B291">
-        <f t="shared" si="3"/>
-        <v>916.15999999999985</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C291">
-        <f>IF(ISEVEN(A641), -2,2)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -4468,11 +4468,11 @@
         <v>1228.1199999999999</v>
       </c>
       <c r="B292">
-        <f t="shared" si="3"/>
-        <v>991.43999999999983</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C292">
-        <f>IF(ISEVEN(A642), -2,2)</f>
+        <f t="shared" si="8"/>
         <v>-2</v>
       </c>
     </row>
@@ -4482,11 +4482,11 @@
         <v>1228.1199999999999</v>
       </c>
       <c r="B293">
-        <f t="shared" si="3"/>
-        <v>991.43999999999983</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C293">
-        <f>IF(ISEVEN(A643), -2,2)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -4496,11 +4496,11 @@
         <v>1294.4799999999998</v>
       </c>
       <c r="B294">
-        <f t="shared" si="3"/>
-        <v>991.43999999999983</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C294">
-        <f>IF(ISEVEN(A644), -2,2)</f>
+        <f t="shared" si="8"/>
         <v>-2</v>
       </c>
     </row>
@@ -4510,11 +4510,11 @@
         <v>1294.4799999999998</v>
       </c>
       <c r="B295">
-        <f t="shared" si="3"/>
-        <v>991.43999999999983</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C295">
-        <f>IF(ISEVEN(A645), -2,2)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -4524,11 +4524,11 @@
         <v>1360.8399999999997</v>
       </c>
       <c r="B296">
-        <f t="shared" si="3"/>
-        <v>991.43999999999983</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C296">
-        <f>IF(ISEVEN(A646), -2,2)</f>
+        <f t="shared" si="8"/>
         <v>-2</v>
       </c>
     </row>
@@ -4538,67 +4538,67 @@
         <v>1360.8399999999997</v>
       </c>
       <c r="B297">
-        <f t="shared" si="3"/>
-        <v>991.43999999999983</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C297">
-        <f>IF(ISEVEN(A647), -2,2)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A298">
-        <f t="shared" ref="A298:A304" si="4">IF(ISEVEN(A648)=TRUE, A297+G$2, A297)</f>
+        <f t="shared" ref="A298:A301" si="9">IF(ISEVEN(A648)=TRUE, A297+G$2, A297)</f>
         <v>1427.1999999999996</v>
       </c>
       <c r="B298">
-        <f t="shared" si="3"/>
-        <v>991.43999999999983</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C298">
-        <f t="shared" ref="C298:C301" si="5">IF(ISEVEN(A648), -2,2)</f>
+        <f t="shared" ref="C298:C301" si="10">IF(ISEVEN(A648), -2,2)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A299">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1427.1999999999996</v>
       </c>
       <c r="B299">
-        <f t="shared" si="3"/>
-        <v>991.43999999999983</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C299">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A300">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1493.5599999999995</v>
       </c>
       <c r="B300">
-        <f t="shared" si="3"/>
-        <v>991.43999999999983</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C300">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-2</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A301">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1493.5599999999995</v>
       </c>
       <c r="B301">
-        <f t="shared" si="3"/>
-        <v>991.43999999999983</v>
+        <f t="shared" si="7"/>
+        <v>389.20000000000005</v>
       </c>
       <c r="C301">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
@@ -4609,2167 +4609,2167 @@
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A352">
-        <f>ROW(A2)</f>
+        <f t="shared" ref="A352:A383" si="11">ROW(A2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A353">
-        <f>ROW(A3)</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A354">
-        <f>ROW(A4)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A355">
-        <f>ROW(A5)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A356">
-        <f>ROW(A6)</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A357">
-        <f>ROW(A7)</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A358">
-        <f>ROW(A8)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A359">
-        <f>ROW(A9)</f>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A360">
-        <f>ROW(A10)</f>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A361">
-        <f>ROW(A11)</f>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A362">
-        <f>ROW(A12)</f>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A363">
-        <f>ROW(A13)</f>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A364">
-        <f>ROW(A14)</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A365">
-        <f>ROW(A15)</f>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A366">
-        <f>ROW(A16)</f>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A367">
-        <f>ROW(A17)</f>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A368">
-        <f>ROW(A18)</f>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A369">
-        <f>ROW(A19)</f>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A370">
-        <f>ROW(A20)</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A371">
-        <f>ROW(A21)</f>
+        <f t="shared" si="11"/>
         <v>21</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A372">
-        <f>ROW(A22)</f>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A373">
-        <f>ROW(A23)</f>
+        <f t="shared" si="11"/>
         <v>23</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A374">
-        <f>ROW(A24)</f>
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A375">
-        <f>ROW(A25)</f>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A376">
-        <f>ROW(A26)</f>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A377">
-        <f>ROW(A27)</f>
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A378">
-        <f>ROW(A28)</f>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A379">
-        <f>ROW(A29)</f>
+        <f t="shared" si="11"/>
         <v>29</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A380">
-        <f>ROW(A30)</f>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A381">
-        <f>ROW(A31)</f>
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A382">
-        <f>ROW(A32)</f>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A383">
-        <f>ROW(A33)</f>
+        <f t="shared" si="11"/>
         <v>33</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A384">
-        <f>ROW(A34)</f>
+        <f t="shared" ref="A384:A415" si="12">ROW(A34)</f>
         <v>34</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A385">
-        <f>ROW(A35)</f>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A386">
-        <f>ROW(A36)</f>
+        <f t="shared" si="12"/>
         <v>36</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A387">
-        <f>ROW(A37)</f>
+        <f t="shared" si="12"/>
         <v>37</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A388">
-        <f>ROW(A38)</f>
+        <f t="shared" si="12"/>
         <v>38</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A389">
-        <f>ROW(A39)</f>
+        <f t="shared" si="12"/>
         <v>39</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A390">
-        <f>ROW(A40)</f>
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A391">
-        <f>ROW(A41)</f>
+        <f t="shared" si="12"/>
         <v>41</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A392">
-        <f>ROW(A42)</f>
+        <f t="shared" si="12"/>
         <v>42</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A393">
-        <f>ROW(A43)</f>
+        <f t="shared" si="12"/>
         <v>43</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A394">
-        <f>ROW(A44)</f>
+        <f t="shared" si="12"/>
         <v>44</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A395">
-        <f>ROW(A45)</f>
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A396">
-        <f>ROW(A46)</f>
+        <f t="shared" si="12"/>
         <v>46</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A397">
-        <f>ROW(A47)</f>
+        <f t="shared" si="12"/>
         <v>47</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A398">
-        <f>ROW(A48)</f>
+        <f t="shared" si="12"/>
         <v>48</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A399">
-        <f>ROW(A49)</f>
+        <f t="shared" si="12"/>
         <v>49</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A400">
-        <f>ROW(A50)</f>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A401">
-        <f>ROW(A51)</f>
+        <f t="shared" si="12"/>
         <v>51</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A402">
-        <f>ROW(A52)</f>
+        <f t="shared" si="12"/>
         <v>52</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A403">
-        <f>ROW(A53)</f>
+        <f t="shared" si="12"/>
         <v>53</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A404">
-        <f>ROW(A54)</f>
+        <f t="shared" si="12"/>
         <v>54</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A405">
-        <f>ROW(A55)</f>
+        <f t="shared" si="12"/>
         <v>55</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A406">
-        <f>ROW(A56)</f>
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A407">
-        <f>ROW(A57)</f>
+        <f t="shared" si="12"/>
         <v>57</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A408">
-        <f>ROW(A58)</f>
+        <f t="shared" si="12"/>
         <v>58</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A409">
-        <f>ROW(A59)</f>
+        <f t="shared" si="12"/>
         <v>59</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A410">
-        <f>ROW(A60)</f>
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A411">
-        <f>ROW(A61)</f>
+        <f t="shared" si="12"/>
         <v>61</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A412">
-        <f>ROW(A62)</f>
+        <f t="shared" si="12"/>
         <v>62</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A413">
-        <f>ROW(A63)</f>
+        <f t="shared" si="12"/>
         <v>63</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A414">
-        <f>ROW(A64)</f>
+        <f t="shared" si="12"/>
         <v>64</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A415">
-        <f>ROW(A65)</f>
+        <f t="shared" si="12"/>
         <v>65</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A416">
-        <f>ROW(A66)</f>
+        <f t="shared" ref="A416:A447" si="13">ROW(A66)</f>
         <v>66</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A417">
-        <f>ROW(A67)</f>
+        <f t="shared" si="13"/>
         <v>67</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A418">
-        <f>ROW(A68)</f>
+        <f t="shared" si="13"/>
         <v>68</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A419">
-        <f>ROW(A69)</f>
+        <f t="shared" si="13"/>
         <v>69</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A420">
-        <f>ROW(A70)</f>
+        <f t="shared" si="13"/>
         <v>70</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A421">
-        <f>ROW(A71)</f>
+        <f t="shared" si="13"/>
         <v>71</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A422">
-        <f>ROW(A72)</f>
+        <f t="shared" si="13"/>
         <v>72</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A423">
-        <f>ROW(A73)</f>
+        <f t="shared" si="13"/>
         <v>73</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A424">
-        <f>ROW(A74)</f>
+        <f t="shared" si="13"/>
         <v>74</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A425">
-        <f>ROW(A75)</f>
+        <f t="shared" si="13"/>
         <v>75</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A426">
-        <f>ROW(A76)</f>
+        <f t="shared" si="13"/>
         <v>76</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A427">
-        <f>ROW(A77)</f>
+        <f t="shared" si="13"/>
         <v>77</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A428">
-        <f>ROW(A78)</f>
+        <f t="shared" si="13"/>
         <v>78</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A429">
-        <f>ROW(A79)</f>
+        <f t="shared" si="13"/>
         <v>79</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A430">
-        <f>ROW(A80)</f>
+        <f t="shared" si="13"/>
         <v>80</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A431">
-        <f>ROW(A81)</f>
+        <f t="shared" si="13"/>
         <v>81</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A432">
-        <f>ROW(A82)</f>
+        <f t="shared" si="13"/>
         <v>82</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A433">
-        <f>ROW(A83)</f>
+        <f t="shared" si="13"/>
         <v>83</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A434">
-        <f>ROW(A84)</f>
+        <f t="shared" si="13"/>
         <v>84</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A435">
-        <f>ROW(A85)</f>
+        <f t="shared" si="13"/>
         <v>85</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A436">
-        <f>ROW(A86)</f>
+        <f t="shared" si="13"/>
         <v>86</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A437">
-        <f>ROW(A87)</f>
+        <f t="shared" si="13"/>
         <v>87</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A438">
-        <f>ROW(A88)</f>
+        <f t="shared" si="13"/>
         <v>88</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A439">
-        <f>ROW(A89)</f>
+        <f t="shared" si="13"/>
         <v>89</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A440">
-        <f>ROW(A90)</f>
+        <f t="shared" si="13"/>
         <v>90</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A441">
-        <f>ROW(A91)</f>
+        <f t="shared" si="13"/>
         <v>91</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A442">
-        <f>ROW(A92)</f>
+        <f t="shared" si="13"/>
         <v>92</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A443">
-        <f>ROW(A93)</f>
+        <f t="shared" si="13"/>
         <v>93</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A444">
-        <f>ROW(A94)</f>
+        <f t="shared" si="13"/>
         <v>94</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A445">
-        <f>ROW(A95)</f>
+        <f t="shared" si="13"/>
         <v>95</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A446">
-        <f>ROW(A96)</f>
+        <f t="shared" si="13"/>
         <v>96</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A447">
-        <f>ROW(A97)</f>
+        <f t="shared" si="13"/>
         <v>97</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A448">
-        <f>ROW(A98)</f>
+        <f t="shared" ref="A448:A479" si="14">ROW(A98)</f>
         <v>98</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A449">
-        <f>ROW(A99)</f>
+        <f t="shared" si="14"/>
         <v>99</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A450">
-        <f>ROW(A100)</f>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A451">
-        <f>ROW(A101)</f>
+        <f t="shared" si="14"/>
         <v>101</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A452">
-        <f>ROW(A102)</f>
+        <f t="shared" si="14"/>
         <v>102</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A453">
-        <f>ROW(A103)</f>
+        <f t="shared" si="14"/>
         <v>103</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A454">
-        <f>ROW(A104)</f>
+        <f t="shared" si="14"/>
         <v>104</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A455">
-        <f>ROW(A105)</f>
+        <f t="shared" si="14"/>
         <v>105</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A456">
-        <f>ROW(A106)</f>
+        <f t="shared" si="14"/>
         <v>106</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A457">
-        <f>ROW(A107)</f>
+        <f t="shared" si="14"/>
         <v>107</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A458">
-        <f>ROW(A108)</f>
+        <f t="shared" si="14"/>
         <v>108</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A459">
-        <f>ROW(A109)</f>
+        <f t="shared" si="14"/>
         <v>109</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A460">
-        <f>ROW(A110)</f>
+        <f t="shared" si="14"/>
         <v>110</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A461">
-        <f>ROW(A111)</f>
+        <f t="shared" si="14"/>
         <v>111</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A462">
-        <f>ROW(A112)</f>
+        <f t="shared" si="14"/>
         <v>112</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A463">
-        <f>ROW(A113)</f>
+        <f t="shared" si="14"/>
         <v>113</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A464">
-        <f>ROW(A114)</f>
+        <f t="shared" si="14"/>
         <v>114</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A465">
-        <f>ROW(A115)</f>
+        <f t="shared" si="14"/>
         <v>115</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A466">
-        <f>ROW(A116)</f>
+        <f t="shared" si="14"/>
         <v>116</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A467">
-        <f>ROW(A117)</f>
+        <f t="shared" si="14"/>
         <v>117</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A468">
-        <f>ROW(A118)</f>
+        <f t="shared" si="14"/>
         <v>118</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A469">
-        <f>ROW(A119)</f>
+        <f t="shared" si="14"/>
         <v>119</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A470">
-        <f>ROW(A120)</f>
+        <f t="shared" si="14"/>
         <v>120</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A471">
-        <f>ROW(A121)</f>
+        <f t="shared" si="14"/>
         <v>121</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A472">
-        <f>ROW(A122)</f>
+        <f t="shared" si="14"/>
         <v>122</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A473">
-        <f>ROW(A275)</f>
+        <f t="shared" ref="A473:A499" si="15">ROW(A275)</f>
         <v>275</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A474">
-        <f>ROW(A276)</f>
+        <f t="shared" si="15"/>
         <v>276</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A475">
-        <f>ROW(A277)</f>
+        <f t="shared" si="15"/>
         <v>277</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A476">
-        <f>ROW(A278)</f>
+        <f t="shared" si="15"/>
         <v>278</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A477">
-        <f>ROW(A279)</f>
+        <f t="shared" si="15"/>
         <v>279</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A478">
-        <f>ROW(A280)</f>
+        <f t="shared" si="15"/>
         <v>280</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A479">
-        <f>ROW(A281)</f>
+        <f t="shared" si="15"/>
         <v>281</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A480">
-        <f>ROW(A282)</f>
+        <f t="shared" si="15"/>
         <v>282</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A481">
-        <f>ROW(A283)</f>
+        <f t="shared" si="15"/>
         <v>283</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A482">
-        <f>ROW(A284)</f>
+        <f t="shared" si="15"/>
         <v>284</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A483">
-        <f>ROW(A285)</f>
+        <f t="shared" si="15"/>
         <v>285</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A484">
-        <f>ROW(A286)</f>
+        <f t="shared" si="15"/>
         <v>286</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A485">
-        <f>ROW(A287)</f>
+        <f t="shared" si="15"/>
         <v>287</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A486">
-        <f>ROW(A288)</f>
+        <f t="shared" si="15"/>
         <v>288</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A487">
-        <f>ROW(A289)</f>
+        <f t="shared" si="15"/>
         <v>289</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A488">
-        <f>ROW(A290)</f>
+        <f t="shared" si="15"/>
         <v>290</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A489">
-        <f>ROW(A291)</f>
+        <f t="shared" si="15"/>
         <v>291</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A490">
-        <f>ROW(A292)</f>
+        <f t="shared" si="15"/>
         <v>292</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A491">
-        <f>ROW(A293)</f>
+        <f t="shared" si="15"/>
         <v>293</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A492">
-        <f>ROW(A294)</f>
+        <f t="shared" si="15"/>
         <v>294</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A493">
-        <f>ROW(A295)</f>
+        <f t="shared" si="15"/>
         <v>295</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A494">
-        <f>ROW(A296)</f>
+        <f t="shared" si="15"/>
         <v>296</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A495">
-        <f>ROW(A297)</f>
+        <f t="shared" si="15"/>
         <v>297</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A496">
-        <f>ROW(A298)</f>
+        <f t="shared" si="15"/>
         <v>298</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A497">
-        <f>ROW(A299)</f>
+        <f t="shared" si="15"/>
         <v>299</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A498">
-        <f>ROW(A300)</f>
+        <f t="shared" si="15"/>
         <v>300</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A499">
-        <f>ROW(A301)</f>
+        <f t="shared" si="15"/>
         <v>301</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A500">
-        <f t="shared" ref="A500:A544" si="6">ROW(A302)</f>
+        <f t="shared" ref="A500:A544" si="16">ROW(A302)</f>
         <v>302</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A501">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>303</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A502">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>304</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A503">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>305</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A504">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>306</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A505">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>307</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A506">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>308</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A507">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>309</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A508">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>310</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A509">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>311</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A510">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>312</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A511">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>313</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A512">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>314</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A513">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>315</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A514">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>316</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A515">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>317</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A516">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>318</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A517">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>319</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A518">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>320</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A519">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>321</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A520">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>322</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A521">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>323</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A522">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>324</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A523">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>325</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A524">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>326</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A525">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>327</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A526">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>328</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A527">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>329</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A528">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>330</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A529">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>331</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A530">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>332</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A531">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>333</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A532">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>334</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A533">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>335</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A534">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>336</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A535">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>337</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A536">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>338</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A537">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>339</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A538">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>340</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A539">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>341</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A540">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>342</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A541">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>343</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A542">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>344</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A543">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>345</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A544">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>346</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A545">
-        <f t="shared" ref="A545:A608" si="7">ROW(A347)</f>
+        <f t="shared" ref="A545:A608" si="17">ROW(A347)</f>
         <v>347</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A546">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>348</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A547">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>349</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A548">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>350</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A549">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>351</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A550">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>352</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A551">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>353</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A552">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>354</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A553">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>355</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A554">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>356</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A555">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>357</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A556">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>358</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A557">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>359</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A558">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>360</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A559">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>361</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A560">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>362</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A561">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>363</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A562">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>364</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A563">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>365</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A564">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>366</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A565">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>367</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A566">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>368</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A567">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>369</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A568">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>370</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A569">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>371</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A570">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>372</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A571">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>373</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A572">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>374</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A573">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>375</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A574">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>376</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A575">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>377</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A576">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>378</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A577">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>379</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A578">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>380</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A579">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>381</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A580">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>382</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A581">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>383</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A582">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>384</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A583">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>385</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A584">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>386</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A585">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>387</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A586">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>388</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A587">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>389</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A588">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>390</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A589">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>391</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A590">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>392</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A591">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>393</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A592">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>394</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A593">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>395</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A594">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>396</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A595">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>397</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A596">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>398</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A597">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>399</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A598">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>400</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A599">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>401</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A600">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>402</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A601">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>403</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A602">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>404</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A603">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>405</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A604">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>406</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A605">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>407</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A606">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>408</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A607">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>409</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A608">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>410</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A609">
-        <f t="shared" ref="A609:A672" si="8">ROW(A411)</f>
+        <f t="shared" ref="A609:A672" si="18">ROW(A411)</f>
         <v>411</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A610">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>412</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A611">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>413</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A612">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>414</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A613">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>415</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A614">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>416</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A615">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>417</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A616">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>418</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A617">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>419</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A618">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>420</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A619">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>421</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A620">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>422</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A621">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>423</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A622">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>424</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A623">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>425</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A624">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>426</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A625">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>427</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A626">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>428</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A627">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>429</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A628">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>430</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A629">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>431</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A630">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>432</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A631">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>433</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A632">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>434</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A633">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>435</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A634">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>436</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A635">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>437</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A636">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>438</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A637">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>439</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A638">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>440</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A639">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>441</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A640">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>442</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A641">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>443</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A642">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>444</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A643">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>445</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A644">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>446</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A645">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>447</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A646">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>448</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A647">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>449</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A648">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>450</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A649">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>451</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A650">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>452</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A651">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>453</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A652">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>454</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A653">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>455</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A654">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>456</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A655">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>457</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A656">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>458</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A657">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>459</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A658">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>460</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A659">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>461</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A660">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>462</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A661">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>463</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A662">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>464</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A663">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>465</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A664">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>466</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A665">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>467</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A666">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>468</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A667">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>469</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A668">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>470</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A669">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>471</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A670">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>472</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A671">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>473</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A672">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>474</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A673">
-        <f t="shared" ref="A673:A712" si="9">ROW(A475)</f>
+        <f t="shared" ref="A673:A712" si="19">ROW(A475)</f>
         <v>475</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A674">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>476</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A675">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>477</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A676">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>478</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A677">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>479</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A678">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>480</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A679">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>481</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A680">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>482</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A681">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>483</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A682">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>484</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A683">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>485</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A684">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>486</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A685">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>487</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A686">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>488</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A687">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>489</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A688">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>490</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A689">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>491</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A690">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>492</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A691">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>493</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A692">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>494</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A693">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>495</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A694">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>496</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A695">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>497</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A696">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>498</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A697">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>499</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A698">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>500</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A699">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>501</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A700">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>502</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A701">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>503</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A702">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>504</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A703">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>505</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A704">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>506</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A705">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>507</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A706">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>508</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A707">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>509</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A708">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>510</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A709">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>511</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A710">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>512</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A711">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>513</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A712">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>514</v>
       </c>
     </row>

--- a/RoboDK/coordinates/wingbox_robodk_coordinates generator excel.xlsx
+++ b/RoboDK/coordinates/wingbox_robodk_coordinates generator excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis\Documents\GitHub\E09H-Wingbox\RoboDK\coordinates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B4BA6E-0F8D-458C-9CCA-3264603156B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9334FEB8-10C2-41E6-949B-9682152F10FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{25CCA861-8539-4B0A-8CCD-DD87EEE5A520}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{25CCA861-8539-4B0A-8CCD-DD87EEE5A520}"/>
   </bookViews>
   <sheets>
     <sheet name="side_panel_root_long_edge" sheetId="16" r:id="rId1"/>
@@ -24286,8 +24286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431C56D6-6D3B-4296-94DA-0D5312A0AE15}">
   <dimension ref="A1:K2073"/>
   <sheetViews>
-    <sheetView topLeftCell="A185" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C212"/>
+    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31790,7 +31790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18FB34B-C098-42A9-B2F7-70BC7CE67493}">
   <dimension ref="A1:K2091"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A1369" sqref="A1369:A2091"/>
     </sheetView>
   </sheetViews>
@@ -32303,7 +32303,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
-        <f t="shared" ref="A36:A67" si="3">IF(MOD(A1346,3)=0, A35+G$2, A35)</f>
+        <f t="shared" ref="A36:A59" si="3">IF(MOD(A1346,3)=0, A35+G$2, A35)</f>
         <v>829.96000000000015</v>
       </c>
       <c r="B36">
@@ -33091,7 +33091,7 @@
         <v>630.88000000000011</v>
       </c>
       <c r="B92">
-        <f t="shared" ref="B92:B123" si="7">B35+$H$2</f>
+        <f t="shared" ref="B92:B116" si="7">B35+$H$2</f>
         <v>138.4</v>
       </c>
       <c r="C92">
@@ -33101,7 +33101,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
-        <f t="shared" ref="A93:A124" si="8">IF(MOD(A1409,3)=0, A92-G$2, A92)</f>
+        <f t="shared" ref="A93:A116" si="8">IF(MOD(A1409,3)=0, A92-G$2, A92)</f>
         <v>564.5200000000001</v>
       </c>
       <c r="B93">
@@ -57648,8 +57648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B20CD8-2ABA-4227-9063-870B9670ABC2}">
   <dimension ref="A1:J2070"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C179"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1444" sqref="A1444:A2070"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -59422,9 +59422,9 @@
         <f t="shared" ref="B126:B157" si="8">B66+$H$2</f>
         <v>389.2</v>
       </c>
-      <c r="C126" t="e">
+      <c r="C126">
         <f t="shared" si="6"/>
-        <v>#REF!</v>
+        <v>25</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -59436,9 +59436,9 @@
         <f t="shared" si="8"/>
         <v>389.2</v>
       </c>
-      <c r="C127" t="e">
+      <c r="C127">
         <f t="shared" si="6"/>
-        <v>#REF!</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -59450,9 +59450,9 @@
         <f t="shared" si="8"/>
         <v>389.2</v>
       </c>
-      <c r="C128" t="e">
+      <c r="C128">
         <f t="shared" si="6"/>
-        <v>#REF!</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -60747,7 +60747,7 @@
     </row>
     <row r="1416" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1416">
-        <f t="shared" ref="A1416:A1444" si="15">ROW(A97)</f>
+        <f t="shared" ref="A1416:A1479" si="15">ROW(A97)</f>
         <v>97</v>
       </c>
     </row>
@@ -60920,3759 +60920,3759 @@
       </c>
     </row>
     <row r="1445" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1445" t="e">
-        <f>ROW(#REF!)</f>
-        <v>#REF!</v>
+      <c r="A1445">
+        <f t="shared" si="15"/>
+        <v>126</v>
       </c>
     </row>
     <row r="1446" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1446" t="e">
-        <f>ROW(#REF!)</f>
-        <v>#REF!</v>
+      <c r="A1446">
+        <f t="shared" si="15"/>
+        <v>127</v>
       </c>
     </row>
     <row r="1447" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1447" t="e">
-        <f>ROW(#REF!)</f>
-        <v>#REF!</v>
+      <c r="A1447">
+        <f t="shared" si="15"/>
+        <v>128</v>
       </c>
     </row>
     <row r="1448" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1448">
-        <f t="shared" ref="A1448:A1453" si="16">ROW(A126)</f>
-        <v>126</v>
+        <f t="shared" si="15"/>
+        <v>129</v>
       </c>
     </row>
     <row r="1449" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1449">
-        <f t="shared" si="16"/>
-        <v>127</v>
+        <f t="shared" si="15"/>
+        <v>130</v>
       </c>
     </row>
     <row r="1450" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1450">
-        <f t="shared" si="16"/>
-        <v>128</v>
+        <f t="shared" si="15"/>
+        <v>131</v>
       </c>
     </row>
     <row r="1451" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1451">
-        <f t="shared" si="16"/>
-        <v>129</v>
+        <f t="shared" si="15"/>
+        <v>132</v>
       </c>
     </row>
     <row r="1452" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1452">
-        <f t="shared" si="16"/>
-        <v>130</v>
+        <f t="shared" si="15"/>
+        <v>133</v>
       </c>
     </row>
     <row r="1453" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1453">
-        <f t="shared" si="16"/>
-        <v>131</v>
+        <f t="shared" si="15"/>
+        <v>134</v>
       </c>
     </row>
     <row r="1454" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1454">
-        <f t="shared" ref="A1454:A1517" si="17">ROW(A1020)</f>
-        <v>1020</v>
+        <f t="shared" si="15"/>
+        <v>135</v>
       </c>
     </row>
     <row r="1455" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1455">
-        <f t="shared" si="17"/>
-        <v>1021</v>
+        <f t="shared" si="15"/>
+        <v>136</v>
       </c>
     </row>
     <row r="1456" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1456">
-        <f t="shared" si="17"/>
-        <v>1022</v>
+        <f t="shared" si="15"/>
+        <v>137</v>
       </c>
     </row>
     <row r="1457" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1457">
-        <f t="shared" si="17"/>
-        <v>1023</v>
+        <f t="shared" si="15"/>
+        <v>138</v>
       </c>
     </row>
     <row r="1458" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1458">
-        <f t="shared" si="17"/>
-        <v>1024</v>
+        <f t="shared" si="15"/>
+        <v>139</v>
       </c>
     </row>
     <row r="1459" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1459">
-        <f t="shared" si="17"/>
-        <v>1025</v>
+        <f t="shared" si="15"/>
+        <v>140</v>
       </c>
     </row>
     <row r="1460" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1460">
-        <f t="shared" si="17"/>
-        <v>1026</v>
+        <f t="shared" si="15"/>
+        <v>141</v>
       </c>
     </row>
     <row r="1461" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1461">
-        <f t="shared" si="17"/>
-        <v>1027</v>
+        <f t="shared" si="15"/>
+        <v>142</v>
       </c>
     </row>
     <row r="1462" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1462">
-        <f t="shared" si="17"/>
-        <v>1028</v>
+        <f t="shared" si="15"/>
+        <v>143</v>
       </c>
     </row>
     <row r="1463" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1463">
-        <f t="shared" si="17"/>
-        <v>1029</v>
+        <f t="shared" si="15"/>
+        <v>144</v>
       </c>
     </row>
     <row r="1464" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1464">
-        <f t="shared" si="17"/>
-        <v>1030</v>
+        <f t="shared" si="15"/>
+        <v>145</v>
       </c>
     </row>
     <row r="1465" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1465">
-        <f t="shared" si="17"/>
-        <v>1031</v>
+        <f t="shared" si="15"/>
+        <v>146</v>
       </c>
     </row>
     <row r="1466" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1466">
-        <f t="shared" si="17"/>
-        <v>1032</v>
+        <f t="shared" si="15"/>
+        <v>147</v>
       </c>
     </row>
     <row r="1467" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1467">
-        <f t="shared" si="17"/>
-        <v>1033</v>
+        <f t="shared" si="15"/>
+        <v>148</v>
       </c>
     </row>
     <row r="1468" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1468">
-        <f t="shared" si="17"/>
-        <v>1034</v>
+        <f t="shared" si="15"/>
+        <v>149</v>
       </c>
     </row>
     <row r="1469" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1469">
-        <f t="shared" si="17"/>
-        <v>1035</v>
+        <f t="shared" si="15"/>
+        <v>150</v>
       </c>
     </row>
     <row r="1470" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1470">
-        <f t="shared" si="17"/>
-        <v>1036</v>
+        <f t="shared" si="15"/>
+        <v>151</v>
       </c>
     </row>
     <row r="1471" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1471">
-        <f t="shared" si="17"/>
-        <v>1037</v>
+        <f t="shared" si="15"/>
+        <v>152</v>
       </c>
     </row>
     <row r="1472" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1472">
-        <f t="shared" si="17"/>
-        <v>1038</v>
+        <f t="shared" si="15"/>
+        <v>153</v>
       </c>
     </row>
     <row r="1473" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1473">
-        <f t="shared" si="17"/>
-        <v>1039</v>
+        <f t="shared" si="15"/>
+        <v>154</v>
       </c>
     </row>
     <row r="1474" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1474">
-        <f t="shared" si="17"/>
-        <v>1040</v>
+        <f t="shared" si="15"/>
+        <v>155</v>
       </c>
     </row>
     <row r="1475" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1475">
-        <f t="shared" si="17"/>
-        <v>1041</v>
+        <f t="shared" si="15"/>
+        <v>156</v>
       </c>
     </row>
     <row r="1476" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1476">
-        <f t="shared" si="17"/>
-        <v>1042</v>
+        <f t="shared" si="15"/>
+        <v>157</v>
       </c>
     </row>
     <row r="1477" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1477">
-        <f t="shared" si="17"/>
-        <v>1043</v>
+        <f t="shared" si="15"/>
+        <v>158</v>
       </c>
     </row>
     <row r="1478" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1478">
-        <f t="shared" si="17"/>
-        <v>1044</v>
+        <f t="shared" si="15"/>
+        <v>159</v>
       </c>
     </row>
     <row r="1479" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1479">
-        <f t="shared" si="17"/>
-        <v>1045</v>
+        <f t="shared" si="15"/>
+        <v>160</v>
       </c>
     </row>
     <row r="1480" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1480">
-        <f t="shared" si="17"/>
-        <v>1046</v>
+        <f t="shared" ref="A1480:A1543" si="16">ROW(A161)</f>
+        <v>161</v>
       </c>
     </row>
     <row r="1481" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1481">
-        <f t="shared" si="17"/>
-        <v>1047</v>
+        <f t="shared" si="16"/>
+        <v>162</v>
       </c>
     </row>
     <row r="1482" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1482">
-        <f t="shared" si="17"/>
-        <v>1048</v>
+        <f t="shared" si="16"/>
+        <v>163</v>
       </c>
     </row>
     <row r="1483" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1483">
-        <f t="shared" si="17"/>
-        <v>1049</v>
+        <f t="shared" si="16"/>
+        <v>164</v>
       </c>
     </row>
     <row r="1484" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1484">
-        <f t="shared" si="17"/>
-        <v>1050</v>
+        <f t="shared" si="16"/>
+        <v>165</v>
       </c>
     </row>
     <row r="1485" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1485">
-        <f t="shared" si="17"/>
-        <v>1051</v>
+        <f t="shared" si="16"/>
+        <v>166</v>
       </c>
     </row>
     <row r="1486" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1486">
-        <f t="shared" si="17"/>
-        <v>1052</v>
+        <f t="shared" si="16"/>
+        <v>167</v>
       </c>
     </row>
     <row r="1487" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1487">
-        <f t="shared" si="17"/>
-        <v>1053</v>
+        <f t="shared" si="16"/>
+        <v>168</v>
       </c>
     </row>
     <row r="1488" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1488">
-        <f t="shared" si="17"/>
-        <v>1054</v>
+        <f t="shared" si="16"/>
+        <v>169</v>
       </c>
     </row>
     <row r="1489" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1489">
-        <f t="shared" si="17"/>
-        <v>1055</v>
+        <f t="shared" si="16"/>
+        <v>170</v>
       </c>
     </row>
     <row r="1490" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1490">
-        <f t="shared" si="17"/>
-        <v>1056</v>
+        <f t="shared" si="16"/>
+        <v>171</v>
       </c>
     </row>
     <row r="1491" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1491">
-        <f t="shared" si="17"/>
-        <v>1057</v>
+        <f t="shared" si="16"/>
+        <v>172</v>
       </c>
     </row>
     <row r="1492" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1492">
-        <f t="shared" si="17"/>
-        <v>1058</v>
+        <f t="shared" si="16"/>
+        <v>173</v>
       </c>
     </row>
     <row r="1493" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1493">
-        <f t="shared" si="17"/>
-        <v>1059</v>
+        <f t="shared" si="16"/>
+        <v>174</v>
       </c>
     </row>
     <row r="1494" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1494">
-        <f t="shared" si="17"/>
-        <v>1060</v>
+        <f t="shared" si="16"/>
+        <v>175</v>
       </c>
     </row>
     <row r="1495" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1495">
-        <f t="shared" si="17"/>
-        <v>1061</v>
+        <f t="shared" si="16"/>
+        <v>176</v>
       </c>
     </row>
     <row r="1496" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1496">
-        <f t="shared" si="17"/>
-        <v>1062</v>
+        <f t="shared" si="16"/>
+        <v>177</v>
       </c>
     </row>
     <row r="1497" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1497">
-        <f t="shared" si="17"/>
-        <v>1063</v>
+        <f t="shared" si="16"/>
+        <v>178</v>
       </c>
     </row>
     <row r="1498" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1498">
-        <f t="shared" si="17"/>
-        <v>1064</v>
+        <f t="shared" si="16"/>
+        <v>179</v>
       </c>
     </row>
     <row r="1499" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1499">
-        <f t="shared" si="17"/>
-        <v>1065</v>
+        <f t="shared" si="16"/>
+        <v>180</v>
       </c>
     </row>
     <row r="1500" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1500">
-        <f t="shared" si="17"/>
-        <v>1066</v>
+        <f t="shared" si="16"/>
+        <v>181</v>
       </c>
     </row>
     <row r="1501" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1501">
-        <f t="shared" si="17"/>
-        <v>1067</v>
+        <f t="shared" si="16"/>
+        <v>182</v>
       </c>
     </row>
     <row r="1502" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1502">
-        <f t="shared" si="17"/>
-        <v>1068</v>
+        <f t="shared" si="16"/>
+        <v>183</v>
       </c>
     </row>
     <row r="1503" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1503">
-        <f t="shared" si="17"/>
-        <v>1069</v>
+        <f t="shared" si="16"/>
+        <v>184</v>
       </c>
     </row>
     <row r="1504" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1504">
-        <f t="shared" si="17"/>
-        <v>1070</v>
+        <f t="shared" si="16"/>
+        <v>185</v>
       </c>
     </row>
     <row r="1505" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1505">
-        <f t="shared" si="17"/>
-        <v>1071</v>
+        <f t="shared" si="16"/>
+        <v>186</v>
       </c>
     </row>
     <row r="1506" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1506">
-        <f t="shared" si="17"/>
-        <v>1072</v>
+        <f t="shared" si="16"/>
+        <v>187</v>
       </c>
     </row>
     <row r="1507" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1507">
-        <f t="shared" si="17"/>
-        <v>1073</v>
+        <f t="shared" si="16"/>
+        <v>188</v>
       </c>
     </row>
     <row r="1508" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1508">
-        <f t="shared" si="17"/>
-        <v>1074</v>
+        <f t="shared" si="16"/>
+        <v>189</v>
       </c>
     </row>
     <row r="1509" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1509">
-        <f t="shared" si="17"/>
-        <v>1075</v>
+        <f t="shared" si="16"/>
+        <v>190</v>
       </c>
     </row>
     <row r="1510" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1510">
-        <f t="shared" si="17"/>
-        <v>1076</v>
+        <f t="shared" si="16"/>
+        <v>191</v>
       </c>
     </row>
     <row r="1511" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1511">
-        <f t="shared" si="17"/>
-        <v>1077</v>
+        <f t="shared" si="16"/>
+        <v>192</v>
       </c>
     </row>
     <row r="1512" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1512">
-        <f t="shared" si="17"/>
-        <v>1078</v>
+        <f t="shared" si="16"/>
+        <v>193</v>
       </c>
     </row>
     <row r="1513" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1513">
-        <f t="shared" si="17"/>
-        <v>1079</v>
+        <f t="shared" si="16"/>
+        <v>194</v>
       </c>
     </row>
     <row r="1514" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1514">
-        <f t="shared" si="17"/>
-        <v>1080</v>
+        <f t="shared" si="16"/>
+        <v>195</v>
       </c>
     </row>
     <row r="1515" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1515">
-        <f t="shared" si="17"/>
-        <v>1081</v>
+        <f t="shared" si="16"/>
+        <v>196</v>
       </c>
     </row>
     <row r="1516" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1516">
-        <f t="shared" si="17"/>
-        <v>1082</v>
+        <f t="shared" si="16"/>
+        <v>197</v>
       </c>
     </row>
     <row r="1517" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1517">
-        <f t="shared" si="17"/>
-        <v>1083</v>
+        <f t="shared" si="16"/>
+        <v>198</v>
       </c>
     </row>
     <row r="1518" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1518">
-        <f t="shared" ref="A1518:A1581" si="18">ROW(A1084)</f>
-        <v>1084</v>
+        <f t="shared" si="16"/>
+        <v>199</v>
       </c>
     </row>
     <row r="1519" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1519">
-        <f t="shared" si="18"/>
-        <v>1085</v>
+        <f t="shared" si="16"/>
+        <v>200</v>
       </c>
     </row>
     <row r="1520" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1520">
-        <f t="shared" si="18"/>
-        <v>1086</v>
+        <f t="shared" si="16"/>
+        <v>201</v>
       </c>
     </row>
     <row r="1521" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1521">
-        <f t="shared" si="18"/>
-        <v>1087</v>
+        <f t="shared" si="16"/>
+        <v>202</v>
       </c>
     </row>
     <row r="1522" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1522">
-        <f t="shared" si="18"/>
-        <v>1088</v>
+        <f t="shared" si="16"/>
+        <v>203</v>
       </c>
     </row>
     <row r="1523" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1523">
-        <f t="shared" si="18"/>
-        <v>1089</v>
+        <f t="shared" si="16"/>
+        <v>204</v>
       </c>
     </row>
     <row r="1524" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1524">
-        <f t="shared" si="18"/>
-        <v>1090</v>
+        <f t="shared" si="16"/>
+        <v>205</v>
       </c>
     </row>
     <row r="1525" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1525">
-        <f t="shared" si="18"/>
-        <v>1091</v>
+        <f t="shared" si="16"/>
+        <v>206</v>
       </c>
     </row>
     <row r="1526" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1526">
-        <f t="shared" si="18"/>
-        <v>1092</v>
+        <f t="shared" si="16"/>
+        <v>207</v>
       </c>
     </row>
     <row r="1527" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1527">
-        <f t="shared" si="18"/>
-        <v>1093</v>
+        <f t="shared" si="16"/>
+        <v>208</v>
       </c>
     </row>
     <row r="1528" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1528">
-        <f t="shared" si="18"/>
-        <v>1094</v>
+        <f t="shared" si="16"/>
+        <v>209</v>
       </c>
     </row>
     <row r="1529" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1529">
-        <f t="shared" si="18"/>
-        <v>1095</v>
+        <f t="shared" si="16"/>
+        <v>210</v>
       </c>
     </row>
     <row r="1530" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1530">
-        <f t="shared" si="18"/>
-        <v>1096</v>
+        <f t="shared" si="16"/>
+        <v>211</v>
       </c>
     </row>
     <row r="1531" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1531">
-        <f t="shared" si="18"/>
-        <v>1097</v>
+        <f t="shared" si="16"/>
+        <v>212</v>
       </c>
     </row>
     <row r="1532" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1532">
-        <f t="shared" si="18"/>
-        <v>1098</v>
+        <f t="shared" si="16"/>
+        <v>213</v>
       </c>
     </row>
     <row r="1533" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1533">
-        <f t="shared" si="18"/>
-        <v>1099</v>
+        <f t="shared" si="16"/>
+        <v>214</v>
       </c>
     </row>
     <row r="1534" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1534">
-        <f t="shared" si="18"/>
-        <v>1100</v>
+        <f t="shared" si="16"/>
+        <v>215</v>
       </c>
     </row>
     <row r="1535" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1535">
-        <f t="shared" si="18"/>
-        <v>1101</v>
+        <f t="shared" si="16"/>
+        <v>216</v>
       </c>
     </row>
     <row r="1536" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1536">
-        <f t="shared" si="18"/>
-        <v>1102</v>
+        <f t="shared" si="16"/>
+        <v>217</v>
       </c>
     </row>
     <row r="1537" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1537">
-        <f t="shared" si="18"/>
-        <v>1103</v>
+        <f t="shared" si="16"/>
+        <v>218</v>
       </c>
     </row>
     <row r="1538" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1538">
-        <f t="shared" si="18"/>
-        <v>1104</v>
+        <f t="shared" si="16"/>
+        <v>219</v>
       </c>
     </row>
     <row r="1539" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1539">
-        <f t="shared" si="18"/>
-        <v>1105</v>
+        <f t="shared" si="16"/>
+        <v>220</v>
       </c>
     </row>
     <row r="1540" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1540">
-        <f t="shared" si="18"/>
-        <v>1106</v>
+        <f t="shared" si="16"/>
+        <v>221</v>
       </c>
     </row>
     <row r="1541" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1541">
-        <f t="shared" si="18"/>
-        <v>1107</v>
+        <f t="shared" si="16"/>
+        <v>222</v>
       </c>
     </row>
     <row r="1542" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1542">
-        <f t="shared" si="18"/>
-        <v>1108</v>
+        <f t="shared" si="16"/>
+        <v>223</v>
       </c>
     </row>
     <row r="1543" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1543">
-        <f t="shared" si="18"/>
-        <v>1109</v>
+        <f t="shared" si="16"/>
+        <v>224</v>
       </c>
     </row>
     <row r="1544" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1544">
-        <f t="shared" si="18"/>
-        <v>1110</v>
+        <f t="shared" ref="A1544:A1607" si="17">ROW(A225)</f>
+        <v>225</v>
       </c>
     </row>
     <row r="1545" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1545">
-        <f t="shared" si="18"/>
-        <v>1111</v>
+        <f t="shared" si="17"/>
+        <v>226</v>
       </c>
     </row>
     <row r="1546" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1546">
-        <f t="shared" si="18"/>
-        <v>1112</v>
+        <f t="shared" si="17"/>
+        <v>227</v>
       </c>
     </row>
     <row r="1547" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1547">
-        <f t="shared" si="18"/>
-        <v>1113</v>
+        <f t="shared" si="17"/>
+        <v>228</v>
       </c>
     </row>
     <row r="1548" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1548">
-        <f t="shared" si="18"/>
-        <v>1114</v>
+        <f t="shared" si="17"/>
+        <v>229</v>
       </c>
     </row>
     <row r="1549" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1549">
-        <f t="shared" si="18"/>
-        <v>1115</v>
+        <f t="shared" si="17"/>
+        <v>230</v>
       </c>
     </row>
     <row r="1550" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1550">
-        <f t="shared" si="18"/>
-        <v>1116</v>
+        <f t="shared" si="17"/>
+        <v>231</v>
       </c>
     </row>
     <row r="1551" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1551">
-        <f t="shared" si="18"/>
-        <v>1117</v>
+        <f t="shared" si="17"/>
+        <v>232</v>
       </c>
     </row>
     <row r="1552" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1552">
-        <f t="shared" si="18"/>
-        <v>1118</v>
+        <f t="shared" si="17"/>
+        <v>233</v>
       </c>
     </row>
     <row r="1553" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1553">
-        <f t="shared" si="18"/>
-        <v>1119</v>
+        <f t="shared" si="17"/>
+        <v>234</v>
       </c>
     </row>
     <row r="1554" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1554">
-        <f t="shared" si="18"/>
-        <v>1120</v>
+        <f t="shared" si="17"/>
+        <v>235</v>
       </c>
     </row>
     <row r="1555" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1555">
-        <f t="shared" si="18"/>
-        <v>1121</v>
+        <f t="shared" si="17"/>
+        <v>236</v>
       </c>
     </row>
     <row r="1556" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1556">
-        <f t="shared" si="18"/>
-        <v>1122</v>
+        <f t="shared" si="17"/>
+        <v>237</v>
       </c>
     </row>
     <row r="1557" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1557">
-        <f t="shared" si="18"/>
-        <v>1123</v>
+        <f t="shared" si="17"/>
+        <v>238</v>
       </c>
     </row>
     <row r="1558" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1558">
-        <f t="shared" si="18"/>
-        <v>1124</v>
+        <f t="shared" si="17"/>
+        <v>239</v>
       </c>
     </row>
     <row r="1559" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1559">
-        <f t="shared" si="18"/>
-        <v>1125</v>
+        <f t="shared" si="17"/>
+        <v>240</v>
       </c>
     </row>
     <row r="1560" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1560">
-        <f t="shared" si="18"/>
-        <v>1126</v>
+        <f t="shared" si="17"/>
+        <v>241</v>
       </c>
     </row>
     <row r="1561" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1561">
-        <f t="shared" si="18"/>
-        <v>1127</v>
+        <f t="shared" si="17"/>
+        <v>242</v>
       </c>
     </row>
     <row r="1562" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1562">
-        <f t="shared" si="18"/>
-        <v>1128</v>
+        <f t="shared" si="17"/>
+        <v>243</v>
       </c>
     </row>
     <row r="1563" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1563">
-        <f t="shared" si="18"/>
-        <v>1129</v>
+        <f t="shared" si="17"/>
+        <v>244</v>
       </c>
     </row>
     <row r="1564" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1564">
-        <f t="shared" si="18"/>
-        <v>1130</v>
+        <f t="shared" si="17"/>
+        <v>245</v>
       </c>
     </row>
     <row r="1565" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1565">
-        <f t="shared" si="18"/>
-        <v>1131</v>
+        <f t="shared" si="17"/>
+        <v>246</v>
       </c>
     </row>
     <row r="1566" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1566">
-        <f t="shared" si="18"/>
-        <v>1132</v>
+        <f t="shared" si="17"/>
+        <v>247</v>
       </c>
     </row>
     <row r="1567" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1567">
-        <f t="shared" si="18"/>
-        <v>1133</v>
+        <f t="shared" si="17"/>
+        <v>248</v>
       </c>
     </row>
     <row r="1568" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1568">
-        <f t="shared" si="18"/>
-        <v>1134</v>
+        <f t="shared" si="17"/>
+        <v>249</v>
       </c>
     </row>
     <row r="1569" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1569">
-        <f t="shared" si="18"/>
-        <v>1135</v>
+        <f t="shared" si="17"/>
+        <v>250</v>
       </c>
     </row>
     <row r="1570" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1570">
-        <f t="shared" si="18"/>
-        <v>1136</v>
+        <f t="shared" si="17"/>
+        <v>251</v>
       </c>
     </row>
     <row r="1571" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1571">
-        <f t="shared" si="18"/>
-        <v>1137</v>
+        <f t="shared" si="17"/>
+        <v>252</v>
       </c>
     </row>
     <row r="1572" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1572">
-        <f t="shared" si="18"/>
-        <v>1138</v>
+        <f t="shared" si="17"/>
+        <v>253</v>
       </c>
     </row>
     <row r="1573" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1573">
-        <f t="shared" si="18"/>
-        <v>1139</v>
+        <f t="shared" si="17"/>
+        <v>254</v>
       </c>
     </row>
     <row r="1574" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1574">
-        <f t="shared" si="18"/>
-        <v>1140</v>
+        <f t="shared" si="17"/>
+        <v>255</v>
       </c>
     </row>
     <row r="1575" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1575">
-        <f t="shared" si="18"/>
-        <v>1141</v>
+        <f t="shared" si="17"/>
+        <v>256</v>
       </c>
     </row>
     <row r="1576" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1576">
-        <f t="shared" si="18"/>
-        <v>1142</v>
+        <f t="shared" si="17"/>
+        <v>257</v>
       </c>
     </row>
     <row r="1577" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1577">
-        <f t="shared" si="18"/>
-        <v>1143</v>
+        <f t="shared" si="17"/>
+        <v>258</v>
       </c>
     </row>
     <row r="1578" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1578">
-        <f t="shared" si="18"/>
-        <v>1144</v>
+        <f t="shared" si="17"/>
+        <v>259</v>
       </c>
     </row>
     <row r="1579" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1579">
-        <f t="shared" si="18"/>
-        <v>1145</v>
+        <f t="shared" si="17"/>
+        <v>260</v>
       </c>
     </row>
     <row r="1580" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1580">
-        <f t="shared" si="18"/>
-        <v>1146</v>
+        <f t="shared" si="17"/>
+        <v>261</v>
       </c>
     </row>
     <row r="1581" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1581">
-        <f t="shared" si="18"/>
-        <v>1147</v>
+        <f t="shared" si="17"/>
+        <v>262</v>
       </c>
     </row>
     <row r="1582" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1582">
-        <f t="shared" ref="A1582:A1645" si="19">ROW(A1148)</f>
-        <v>1148</v>
+        <f t="shared" si="17"/>
+        <v>263</v>
       </c>
     </row>
     <row r="1583" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1583">
-        <f t="shared" si="19"/>
-        <v>1149</v>
+        <f t="shared" si="17"/>
+        <v>264</v>
       </c>
     </row>
     <row r="1584" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1584">
-        <f t="shared" si="19"/>
-        <v>1150</v>
+        <f t="shared" si="17"/>
+        <v>265</v>
       </c>
     </row>
     <row r="1585" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1585">
-        <f t="shared" si="19"/>
-        <v>1151</v>
+        <f t="shared" si="17"/>
+        <v>266</v>
       </c>
     </row>
     <row r="1586" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1586">
-        <f t="shared" si="19"/>
-        <v>1152</v>
+        <f t="shared" si="17"/>
+        <v>267</v>
       </c>
     </row>
     <row r="1587" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1587">
-        <f t="shared" si="19"/>
-        <v>1153</v>
+        <f t="shared" si="17"/>
+        <v>268</v>
       </c>
     </row>
     <row r="1588" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1588">
-        <f t="shared" si="19"/>
-        <v>1154</v>
+        <f t="shared" si="17"/>
+        <v>269</v>
       </c>
     </row>
     <row r="1589" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1589">
-        <f t="shared" si="19"/>
-        <v>1155</v>
+        <f t="shared" si="17"/>
+        <v>270</v>
       </c>
     </row>
     <row r="1590" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1590">
-        <f t="shared" si="19"/>
-        <v>1156</v>
+        <f t="shared" si="17"/>
+        <v>271</v>
       </c>
     </row>
     <row r="1591" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1591">
-        <f t="shared" si="19"/>
-        <v>1157</v>
+        <f t="shared" si="17"/>
+        <v>272</v>
       </c>
     </row>
     <row r="1592" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1592">
-        <f t="shared" si="19"/>
-        <v>1158</v>
+        <f t="shared" si="17"/>
+        <v>273</v>
       </c>
     </row>
     <row r="1593" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1593">
-        <f t="shared" si="19"/>
-        <v>1159</v>
+        <f t="shared" si="17"/>
+        <v>274</v>
       </c>
     </row>
     <row r="1594" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1594">
-        <f t="shared" si="19"/>
-        <v>1160</v>
+        <f t="shared" si="17"/>
+        <v>275</v>
       </c>
     </row>
     <row r="1595" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1595">
-        <f t="shared" si="19"/>
-        <v>1161</v>
+        <f t="shared" si="17"/>
+        <v>276</v>
       </c>
     </row>
     <row r="1596" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1596">
-        <f t="shared" si="19"/>
-        <v>1162</v>
+        <f t="shared" si="17"/>
+        <v>277</v>
       </c>
     </row>
     <row r="1597" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1597">
-        <f t="shared" si="19"/>
-        <v>1163</v>
+        <f t="shared" si="17"/>
+        <v>278</v>
       </c>
     </row>
     <row r="1598" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1598">
-        <f t="shared" si="19"/>
-        <v>1164</v>
+        <f t="shared" si="17"/>
+        <v>279</v>
       </c>
     </row>
     <row r="1599" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1599">
-        <f t="shared" si="19"/>
-        <v>1165</v>
+        <f t="shared" si="17"/>
+        <v>280</v>
       </c>
     </row>
     <row r="1600" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1600">
-        <f t="shared" si="19"/>
-        <v>1166</v>
+        <f t="shared" si="17"/>
+        <v>281</v>
       </c>
     </row>
     <row r="1601" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1601">
-        <f t="shared" si="19"/>
-        <v>1167</v>
+        <f t="shared" si="17"/>
+        <v>282</v>
       </c>
     </row>
     <row r="1602" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1602">
-        <f t="shared" si="19"/>
-        <v>1168</v>
+        <f t="shared" si="17"/>
+        <v>283</v>
       </c>
     </row>
     <row r="1603" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1603">
-        <f t="shared" si="19"/>
-        <v>1169</v>
+        <f t="shared" si="17"/>
+        <v>284</v>
       </c>
     </row>
     <row r="1604" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1604">
-        <f t="shared" si="19"/>
-        <v>1170</v>
+        <f t="shared" si="17"/>
+        <v>285</v>
       </c>
     </row>
     <row r="1605" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1605">
-        <f t="shared" si="19"/>
-        <v>1171</v>
+        <f t="shared" si="17"/>
+        <v>286</v>
       </c>
     </row>
     <row r="1606" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1606">
-        <f t="shared" si="19"/>
-        <v>1172</v>
+        <f t="shared" si="17"/>
+        <v>287</v>
       </c>
     </row>
     <row r="1607" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1607">
-        <f t="shared" si="19"/>
-        <v>1173</v>
+        <f t="shared" si="17"/>
+        <v>288</v>
       </c>
     </row>
     <row r="1608" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1608">
-        <f t="shared" si="19"/>
-        <v>1174</v>
+        <f t="shared" ref="A1608:A1671" si="18">ROW(A289)</f>
+        <v>289</v>
       </c>
     </row>
     <row r="1609" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1609">
-        <f t="shared" si="19"/>
-        <v>1175</v>
+        <f t="shared" si="18"/>
+        <v>290</v>
       </c>
     </row>
     <row r="1610" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1610">
-        <f t="shared" si="19"/>
-        <v>1176</v>
+        <f t="shared" si="18"/>
+        <v>291</v>
       </c>
     </row>
     <row r="1611" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1611">
-        <f t="shared" si="19"/>
-        <v>1177</v>
+        <f t="shared" si="18"/>
+        <v>292</v>
       </c>
     </row>
     <row r="1612" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1612">
-        <f t="shared" si="19"/>
-        <v>1178</v>
+        <f t="shared" si="18"/>
+        <v>293</v>
       </c>
     </row>
     <row r="1613" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1613">
-        <f t="shared" si="19"/>
-        <v>1179</v>
+        <f t="shared" si="18"/>
+        <v>294</v>
       </c>
     </row>
     <row r="1614" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1614">
-        <f t="shared" si="19"/>
-        <v>1180</v>
+        <f t="shared" si="18"/>
+        <v>295</v>
       </c>
     </row>
     <row r="1615" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1615">
-        <f t="shared" si="19"/>
-        <v>1181</v>
+        <f t="shared" si="18"/>
+        <v>296</v>
       </c>
     </row>
     <row r="1616" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1616">
-        <f t="shared" si="19"/>
-        <v>1182</v>
+        <f t="shared" si="18"/>
+        <v>297</v>
       </c>
     </row>
     <row r="1617" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1617">
-        <f t="shared" si="19"/>
-        <v>1183</v>
+        <f t="shared" si="18"/>
+        <v>298</v>
       </c>
     </row>
     <row r="1618" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1618">
-        <f t="shared" si="19"/>
-        <v>1184</v>
+        <f t="shared" si="18"/>
+        <v>299</v>
       </c>
     </row>
     <row r="1619" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1619">
-        <f t="shared" si="19"/>
-        <v>1185</v>
+        <f t="shared" si="18"/>
+        <v>300</v>
       </c>
     </row>
     <row r="1620" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1620">
-        <f t="shared" si="19"/>
-        <v>1186</v>
+        <f t="shared" si="18"/>
+        <v>301</v>
       </c>
     </row>
     <row r="1621" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1621">
-        <f t="shared" si="19"/>
-        <v>1187</v>
+        <f t="shared" si="18"/>
+        <v>302</v>
       </c>
     </row>
     <row r="1622" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1622">
-        <f t="shared" si="19"/>
-        <v>1188</v>
+        <f t="shared" si="18"/>
+        <v>303</v>
       </c>
     </row>
     <row r="1623" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1623">
-        <f t="shared" si="19"/>
-        <v>1189</v>
+        <f t="shared" si="18"/>
+        <v>304</v>
       </c>
     </row>
     <row r="1624" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1624">
-        <f t="shared" si="19"/>
-        <v>1190</v>
+        <f t="shared" si="18"/>
+        <v>305</v>
       </c>
     </row>
     <row r="1625" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1625">
-        <f t="shared" si="19"/>
-        <v>1191</v>
+        <f t="shared" si="18"/>
+        <v>306</v>
       </c>
     </row>
     <row r="1626" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1626">
-        <f t="shared" si="19"/>
-        <v>1192</v>
+        <f t="shared" si="18"/>
+        <v>307</v>
       </c>
     </row>
     <row r="1627" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1627">
-        <f t="shared" si="19"/>
-        <v>1193</v>
+        <f t="shared" si="18"/>
+        <v>308</v>
       </c>
     </row>
     <row r="1628" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1628">
-        <f t="shared" si="19"/>
-        <v>1194</v>
+        <f t="shared" si="18"/>
+        <v>309</v>
       </c>
     </row>
     <row r="1629" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1629">
-        <f t="shared" si="19"/>
-        <v>1195</v>
+        <f t="shared" si="18"/>
+        <v>310</v>
       </c>
     </row>
     <row r="1630" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1630">
-        <f t="shared" si="19"/>
-        <v>1196</v>
+        <f t="shared" si="18"/>
+        <v>311</v>
       </c>
     </row>
     <row r="1631" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1631">
-        <f t="shared" si="19"/>
-        <v>1197</v>
+        <f t="shared" si="18"/>
+        <v>312</v>
       </c>
     </row>
     <row r="1632" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1632">
-        <f t="shared" si="19"/>
-        <v>1198</v>
+        <f t="shared" si="18"/>
+        <v>313</v>
       </c>
     </row>
     <row r="1633" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1633">
-        <f t="shared" si="19"/>
-        <v>1199</v>
+        <f t="shared" si="18"/>
+        <v>314</v>
       </c>
     </row>
     <row r="1634" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1634">
-        <f t="shared" si="19"/>
-        <v>1200</v>
+        <f t="shared" si="18"/>
+        <v>315</v>
       </c>
     </row>
     <row r="1635" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1635">
-        <f t="shared" si="19"/>
-        <v>1201</v>
+        <f t="shared" si="18"/>
+        <v>316</v>
       </c>
     </row>
     <row r="1636" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1636">
-        <f t="shared" si="19"/>
-        <v>1202</v>
+        <f t="shared" si="18"/>
+        <v>317</v>
       </c>
     </row>
     <row r="1637" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1637">
-        <f t="shared" si="19"/>
-        <v>1203</v>
+        <f t="shared" si="18"/>
+        <v>318</v>
       </c>
     </row>
     <row r="1638" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1638">
-        <f t="shared" si="19"/>
-        <v>1204</v>
+        <f t="shared" si="18"/>
+        <v>319</v>
       </c>
     </row>
     <row r="1639" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1639">
-        <f t="shared" si="19"/>
-        <v>1205</v>
+        <f t="shared" si="18"/>
+        <v>320</v>
       </c>
     </row>
     <row r="1640" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1640">
-        <f t="shared" si="19"/>
-        <v>1206</v>
+        <f t="shared" si="18"/>
+        <v>321</v>
       </c>
     </row>
     <row r="1641" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1641">
-        <f t="shared" si="19"/>
-        <v>1207</v>
+        <f t="shared" si="18"/>
+        <v>322</v>
       </c>
     </row>
     <row r="1642" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1642">
-        <f t="shared" si="19"/>
-        <v>1208</v>
+        <f t="shared" si="18"/>
+        <v>323</v>
       </c>
     </row>
     <row r="1643" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1643">
-        <f t="shared" si="19"/>
-        <v>1209</v>
+        <f t="shared" si="18"/>
+        <v>324</v>
       </c>
     </row>
     <row r="1644" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1644">
-        <f t="shared" si="19"/>
-        <v>1210</v>
+        <f t="shared" si="18"/>
+        <v>325</v>
       </c>
     </row>
     <row r="1645" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1645">
-        <f t="shared" si="19"/>
-        <v>1211</v>
+        <f t="shared" si="18"/>
+        <v>326</v>
       </c>
     </row>
     <row r="1646" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1646">
-        <f t="shared" ref="A1646:A1709" si="20">ROW(A1212)</f>
-        <v>1212</v>
+        <f t="shared" si="18"/>
+        <v>327</v>
       </c>
     </row>
     <row r="1647" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1647">
-        <f t="shared" si="20"/>
-        <v>1213</v>
+        <f t="shared" si="18"/>
+        <v>328</v>
       </c>
     </row>
     <row r="1648" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1648">
-        <f t="shared" si="20"/>
-        <v>1214</v>
+        <f t="shared" si="18"/>
+        <v>329</v>
       </c>
     </row>
     <row r="1649" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1649">
-        <f t="shared" si="20"/>
-        <v>1215</v>
+        <f t="shared" si="18"/>
+        <v>330</v>
       </c>
     </row>
     <row r="1650" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1650">
-        <f t="shared" si="20"/>
-        <v>1216</v>
+        <f t="shared" si="18"/>
+        <v>331</v>
       </c>
     </row>
     <row r="1651" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1651">
-        <f t="shared" si="20"/>
-        <v>1217</v>
+        <f t="shared" si="18"/>
+        <v>332</v>
       </c>
     </row>
     <row r="1652" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1652">
-        <f t="shared" si="20"/>
-        <v>1218</v>
+        <f t="shared" si="18"/>
+        <v>333</v>
       </c>
     </row>
     <row r="1653" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1653">
-        <f t="shared" si="20"/>
-        <v>1219</v>
+        <f t="shared" si="18"/>
+        <v>334</v>
       </c>
     </row>
     <row r="1654" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1654">
-        <f t="shared" si="20"/>
-        <v>1220</v>
+        <f t="shared" si="18"/>
+        <v>335</v>
       </c>
     </row>
     <row r="1655" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1655">
-        <f t="shared" si="20"/>
-        <v>1221</v>
+        <f t="shared" si="18"/>
+        <v>336</v>
       </c>
     </row>
     <row r="1656" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1656">
-        <f t="shared" si="20"/>
-        <v>1222</v>
+        <f t="shared" si="18"/>
+        <v>337</v>
       </c>
     </row>
     <row r="1657" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1657">
-        <f t="shared" si="20"/>
-        <v>1223</v>
+        <f t="shared" si="18"/>
+        <v>338</v>
       </c>
     </row>
     <row r="1658" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1658">
-        <f t="shared" si="20"/>
-        <v>1224</v>
+        <f t="shared" si="18"/>
+        <v>339</v>
       </c>
     </row>
     <row r="1659" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1659">
-        <f t="shared" si="20"/>
-        <v>1225</v>
+        <f t="shared" si="18"/>
+        <v>340</v>
       </c>
     </row>
     <row r="1660" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1660">
-        <f t="shared" si="20"/>
-        <v>1226</v>
+        <f t="shared" si="18"/>
+        <v>341</v>
       </c>
     </row>
     <row r="1661" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1661">
-        <f t="shared" si="20"/>
-        <v>1227</v>
+        <f t="shared" si="18"/>
+        <v>342</v>
       </c>
     </row>
     <row r="1662" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1662">
-        <f t="shared" si="20"/>
-        <v>1228</v>
+        <f t="shared" si="18"/>
+        <v>343</v>
       </c>
     </row>
     <row r="1663" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1663">
-        <f t="shared" si="20"/>
-        <v>1229</v>
+        <f t="shared" si="18"/>
+        <v>344</v>
       </c>
     </row>
     <row r="1664" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1664">
-        <f t="shared" si="20"/>
-        <v>1230</v>
+        <f t="shared" si="18"/>
+        <v>345</v>
       </c>
     </row>
     <row r="1665" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1665">
-        <f t="shared" si="20"/>
-        <v>1231</v>
+        <f t="shared" si="18"/>
+        <v>346</v>
       </c>
     </row>
     <row r="1666" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1666">
-        <f t="shared" si="20"/>
-        <v>1232</v>
+        <f t="shared" si="18"/>
+        <v>347</v>
       </c>
     </row>
     <row r="1667" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1667">
-        <f t="shared" si="20"/>
-        <v>1233</v>
+        <f t="shared" si="18"/>
+        <v>348</v>
       </c>
     </row>
     <row r="1668" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1668">
-        <f t="shared" si="20"/>
-        <v>1234</v>
+        <f t="shared" si="18"/>
+        <v>349</v>
       </c>
     </row>
     <row r="1669" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1669">
-        <f t="shared" si="20"/>
-        <v>1235</v>
+        <f t="shared" si="18"/>
+        <v>350</v>
       </c>
     </row>
     <row r="1670" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1670">
-        <f t="shared" si="20"/>
-        <v>1236</v>
+        <f t="shared" si="18"/>
+        <v>351</v>
       </c>
     </row>
     <row r="1671" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1671">
-        <f t="shared" si="20"/>
-        <v>1237</v>
+        <f t="shared" si="18"/>
+        <v>352</v>
       </c>
     </row>
     <row r="1672" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1672">
-        <f t="shared" si="20"/>
-        <v>1238</v>
+        <f t="shared" ref="A1672:A1735" si="19">ROW(A353)</f>
+        <v>353</v>
       </c>
     </row>
     <row r="1673" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1673">
-        <f t="shared" si="20"/>
-        <v>1239</v>
+        <f t="shared" si="19"/>
+        <v>354</v>
       </c>
     </row>
     <row r="1674" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1674">
-        <f t="shared" si="20"/>
-        <v>1240</v>
+        <f t="shared" si="19"/>
+        <v>355</v>
       </c>
     </row>
     <row r="1675" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1675">
-        <f t="shared" si="20"/>
-        <v>1241</v>
+        <f t="shared" si="19"/>
+        <v>356</v>
       </c>
     </row>
     <row r="1676" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1676">
-        <f t="shared" si="20"/>
-        <v>1242</v>
+        <f t="shared" si="19"/>
+        <v>357</v>
       </c>
     </row>
     <row r="1677" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1677">
-        <f t="shared" si="20"/>
-        <v>1243</v>
+        <f t="shared" si="19"/>
+        <v>358</v>
       </c>
     </row>
     <row r="1678" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1678">
-        <f t="shared" si="20"/>
-        <v>1244</v>
+        <f t="shared" si="19"/>
+        <v>359</v>
       </c>
     </row>
     <row r="1679" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1679">
-        <f t="shared" si="20"/>
-        <v>1245</v>
+        <f t="shared" si="19"/>
+        <v>360</v>
       </c>
     </row>
     <row r="1680" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1680">
-        <f t="shared" si="20"/>
-        <v>1246</v>
+        <f t="shared" si="19"/>
+        <v>361</v>
       </c>
     </row>
     <row r="1681" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1681">
-        <f t="shared" si="20"/>
-        <v>1247</v>
+        <f t="shared" si="19"/>
+        <v>362</v>
       </c>
     </row>
     <row r="1682" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1682">
-        <f t="shared" si="20"/>
-        <v>1248</v>
+        <f t="shared" si="19"/>
+        <v>363</v>
       </c>
     </row>
     <row r="1683" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1683">
-        <f t="shared" si="20"/>
-        <v>1249</v>
+        <f t="shared" si="19"/>
+        <v>364</v>
       </c>
     </row>
     <row r="1684" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1684">
-        <f t="shared" si="20"/>
-        <v>1250</v>
+        <f t="shared" si="19"/>
+        <v>365</v>
       </c>
     </row>
     <row r="1685" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1685">
-        <f t="shared" si="20"/>
-        <v>1251</v>
+        <f t="shared" si="19"/>
+        <v>366</v>
       </c>
     </row>
     <row r="1686" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1686">
-        <f t="shared" si="20"/>
-        <v>1252</v>
+        <f t="shared" si="19"/>
+        <v>367</v>
       </c>
     </row>
     <row r="1687" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1687">
-        <f t="shared" si="20"/>
-        <v>1253</v>
+        <f t="shared" si="19"/>
+        <v>368</v>
       </c>
     </row>
     <row r="1688" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1688">
-        <f t="shared" si="20"/>
-        <v>1254</v>
+        <f t="shared" si="19"/>
+        <v>369</v>
       </c>
     </row>
     <row r="1689" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1689">
-        <f t="shared" si="20"/>
-        <v>1255</v>
+        <f t="shared" si="19"/>
+        <v>370</v>
       </c>
     </row>
     <row r="1690" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1690">
-        <f t="shared" si="20"/>
-        <v>1256</v>
+        <f t="shared" si="19"/>
+        <v>371</v>
       </c>
     </row>
     <row r="1691" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1691">
-        <f t="shared" si="20"/>
-        <v>1257</v>
+        <f t="shared" si="19"/>
+        <v>372</v>
       </c>
     </row>
     <row r="1692" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1692">
-        <f t="shared" si="20"/>
-        <v>1258</v>
+        <f t="shared" si="19"/>
+        <v>373</v>
       </c>
     </row>
     <row r="1693" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1693">
-        <f t="shared" si="20"/>
-        <v>1259</v>
+        <f t="shared" si="19"/>
+        <v>374</v>
       </c>
     </row>
     <row r="1694" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1694">
-        <f t="shared" si="20"/>
-        <v>1260</v>
+        <f t="shared" si="19"/>
+        <v>375</v>
       </c>
     </row>
     <row r="1695" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1695">
-        <f t="shared" si="20"/>
-        <v>1261</v>
+        <f t="shared" si="19"/>
+        <v>376</v>
       </c>
     </row>
     <row r="1696" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1696">
-        <f t="shared" si="20"/>
-        <v>1262</v>
+        <f t="shared" si="19"/>
+        <v>377</v>
       </c>
     </row>
     <row r="1697" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1697">
-        <f t="shared" si="20"/>
-        <v>1263</v>
+        <f t="shared" si="19"/>
+        <v>378</v>
       </c>
     </row>
     <row r="1698" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1698">
-        <f t="shared" si="20"/>
-        <v>1264</v>
+        <f t="shared" si="19"/>
+        <v>379</v>
       </c>
     </row>
     <row r="1699" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1699">
-        <f t="shared" si="20"/>
-        <v>1265</v>
+        <f t="shared" si="19"/>
+        <v>380</v>
       </c>
     </row>
     <row r="1700" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1700">
-        <f t="shared" si="20"/>
-        <v>1266</v>
+        <f t="shared" si="19"/>
+        <v>381</v>
       </c>
     </row>
     <row r="1701" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1701">
-        <f t="shared" si="20"/>
-        <v>1267</v>
+        <f t="shared" si="19"/>
+        <v>382</v>
       </c>
     </row>
     <row r="1702" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1702">
-        <f t="shared" si="20"/>
-        <v>1268</v>
+        <f t="shared" si="19"/>
+        <v>383</v>
       </c>
     </row>
     <row r="1703" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1703">
-        <f t="shared" si="20"/>
-        <v>1269</v>
+        <f t="shared" si="19"/>
+        <v>384</v>
       </c>
     </row>
     <row r="1704" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1704">
-        <f t="shared" si="20"/>
-        <v>1270</v>
+        <f t="shared" si="19"/>
+        <v>385</v>
       </c>
     </row>
     <row r="1705" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1705">
-        <f t="shared" si="20"/>
-        <v>1271</v>
+        <f t="shared" si="19"/>
+        <v>386</v>
       </c>
     </row>
     <row r="1706" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1706">
-        <f t="shared" si="20"/>
-        <v>1272</v>
+        <f t="shared" si="19"/>
+        <v>387</v>
       </c>
     </row>
     <row r="1707" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1707">
-        <f t="shared" si="20"/>
-        <v>1273</v>
+        <f t="shared" si="19"/>
+        <v>388</v>
       </c>
     </row>
     <row r="1708" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1708">
-        <f t="shared" si="20"/>
-        <v>1274</v>
+        <f t="shared" si="19"/>
+        <v>389</v>
       </c>
     </row>
     <row r="1709" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1709">
-        <f t="shared" si="20"/>
-        <v>1275</v>
+        <f t="shared" si="19"/>
+        <v>390</v>
       </c>
     </row>
     <row r="1710" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1710">
-        <f t="shared" ref="A1710:A1773" si="21">ROW(A1276)</f>
-        <v>1276</v>
+        <f t="shared" si="19"/>
+        <v>391</v>
       </c>
     </row>
     <row r="1711" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1711">
-        <f t="shared" si="21"/>
-        <v>1277</v>
+        <f t="shared" si="19"/>
+        <v>392</v>
       </c>
     </row>
     <row r="1712" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1712">
-        <f t="shared" si="21"/>
-        <v>1278</v>
+        <f t="shared" si="19"/>
+        <v>393</v>
       </c>
     </row>
     <row r="1713" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1713">
-        <f t="shared" si="21"/>
-        <v>1279</v>
+        <f t="shared" si="19"/>
+        <v>394</v>
       </c>
     </row>
     <row r="1714" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1714">
-        <f t="shared" si="21"/>
-        <v>1280</v>
+        <f t="shared" si="19"/>
+        <v>395</v>
       </c>
     </row>
     <row r="1715" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1715">
-        <f t="shared" si="21"/>
-        <v>1281</v>
+        <f t="shared" si="19"/>
+        <v>396</v>
       </c>
     </row>
     <row r="1716" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1716">
-        <f t="shared" si="21"/>
-        <v>1282</v>
+        <f t="shared" si="19"/>
+        <v>397</v>
       </c>
     </row>
     <row r="1717" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1717">
-        <f t="shared" si="21"/>
-        <v>1283</v>
+        <f t="shared" si="19"/>
+        <v>398</v>
       </c>
     </row>
     <row r="1718" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1718">
-        <f t="shared" si="21"/>
-        <v>1284</v>
+        <f t="shared" si="19"/>
+        <v>399</v>
       </c>
     </row>
     <row r="1719" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1719">
-        <f t="shared" si="21"/>
-        <v>1285</v>
+        <f t="shared" si="19"/>
+        <v>400</v>
       </c>
     </row>
     <row r="1720" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1720">
-        <f t="shared" si="21"/>
-        <v>1286</v>
+        <f t="shared" si="19"/>
+        <v>401</v>
       </c>
     </row>
     <row r="1721" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1721">
-        <f t="shared" si="21"/>
-        <v>1287</v>
+        <f t="shared" si="19"/>
+        <v>402</v>
       </c>
     </row>
     <row r="1722" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1722">
-        <f t="shared" si="21"/>
-        <v>1288</v>
+        <f t="shared" si="19"/>
+        <v>403</v>
       </c>
     </row>
     <row r="1723" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1723">
-        <f t="shared" si="21"/>
-        <v>1289</v>
+        <f t="shared" si="19"/>
+        <v>404</v>
       </c>
     </row>
     <row r="1724" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1724">
-        <f t="shared" si="21"/>
-        <v>1290</v>
+        <f t="shared" si="19"/>
+        <v>405</v>
       </c>
     </row>
     <row r="1725" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1725">
-        <f t="shared" si="21"/>
-        <v>1291</v>
+        <f t="shared" si="19"/>
+        <v>406</v>
       </c>
     </row>
     <row r="1726" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1726">
-        <f t="shared" si="21"/>
-        <v>1292</v>
+        <f t="shared" si="19"/>
+        <v>407</v>
       </c>
     </row>
     <row r="1727" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1727">
-        <f t="shared" si="21"/>
-        <v>1293</v>
+        <f t="shared" si="19"/>
+        <v>408</v>
       </c>
     </row>
     <row r="1728" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1728">
-        <f t="shared" si="21"/>
-        <v>1294</v>
+        <f t="shared" si="19"/>
+        <v>409</v>
       </c>
     </row>
     <row r="1729" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1729">
-        <f t="shared" si="21"/>
-        <v>1295</v>
+        <f t="shared" si="19"/>
+        <v>410</v>
       </c>
     </row>
     <row r="1730" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1730">
-        <f t="shared" si="21"/>
-        <v>1296</v>
+        <f t="shared" si="19"/>
+        <v>411</v>
       </c>
     </row>
     <row r="1731" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1731">
-        <f t="shared" si="21"/>
-        <v>1297</v>
+        <f t="shared" si="19"/>
+        <v>412</v>
       </c>
     </row>
     <row r="1732" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1732">
-        <f t="shared" si="21"/>
-        <v>1298</v>
+        <f t="shared" si="19"/>
+        <v>413</v>
       </c>
     </row>
     <row r="1733" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1733">
-        <f t="shared" si="21"/>
-        <v>1299</v>
+        <f t="shared" si="19"/>
+        <v>414</v>
       </c>
     </row>
     <row r="1734" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1734">
-        <f t="shared" si="21"/>
-        <v>1300</v>
+        <f t="shared" si="19"/>
+        <v>415</v>
       </c>
     </row>
     <row r="1735" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1735">
-        <f t="shared" si="21"/>
-        <v>1301</v>
+        <f t="shared" si="19"/>
+        <v>416</v>
       </c>
     </row>
     <row r="1736" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1736">
-        <f t="shared" si="21"/>
-        <v>1302</v>
+        <f t="shared" ref="A1736:A1799" si="20">ROW(A417)</f>
+        <v>417</v>
       </c>
     </row>
     <row r="1737" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1737">
-        <f t="shared" si="21"/>
-        <v>1303</v>
+        <f t="shared" si="20"/>
+        <v>418</v>
       </c>
     </row>
     <row r="1738" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1738">
-        <f t="shared" si="21"/>
-        <v>1304</v>
+        <f t="shared" si="20"/>
+        <v>419</v>
       </c>
     </row>
     <row r="1739" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1739">
-        <f t="shared" si="21"/>
-        <v>1305</v>
+        <f t="shared" si="20"/>
+        <v>420</v>
       </c>
     </row>
     <row r="1740" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1740">
-        <f t="shared" si="21"/>
-        <v>1306</v>
+        <f t="shared" si="20"/>
+        <v>421</v>
       </c>
     </row>
     <row r="1741" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1741">
-        <f t="shared" si="21"/>
-        <v>1307</v>
+        <f t="shared" si="20"/>
+        <v>422</v>
       </c>
     </row>
     <row r="1742" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1742">
-        <f t="shared" si="21"/>
-        <v>1308</v>
+        <f t="shared" si="20"/>
+        <v>423</v>
       </c>
     </row>
     <row r="1743" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1743">
-        <f t="shared" si="21"/>
-        <v>1309</v>
+        <f t="shared" si="20"/>
+        <v>424</v>
       </c>
     </row>
     <row r="1744" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1744">
-        <f t="shared" si="21"/>
-        <v>1310</v>
+        <f t="shared" si="20"/>
+        <v>425</v>
       </c>
     </row>
     <row r="1745" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1745">
-        <f t="shared" si="21"/>
-        <v>1311</v>
+        <f t="shared" si="20"/>
+        <v>426</v>
       </c>
     </row>
     <row r="1746" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1746">
-        <f t="shared" si="21"/>
-        <v>1312</v>
+        <f t="shared" si="20"/>
+        <v>427</v>
       </c>
     </row>
     <row r="1747" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1747">
-        <f t="shared" si="21"/>
-        <v>1313</v>
+        <f t="shared" si="20"/>
+        <v>428</v>
       </c>
     </row>
     <row r="1748" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1748">
-        <f t="shared" si="21"/>
-        <v>1314</v>
+        <f t="shared" si="20"/>
+        <v>429</v>
       </c>
     </row>
     <row r="1749" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1749">
-        <f t="shared" si="21"/>
-        <v>1315</v>
+        <f t="shared" si="20"/>
+        <v>430</v>
       </c>
     </row>
     <row r="1750" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1750">
-        <f t="shared" si="21"/>
-        <v>1316</v>
+        <f t="shared" si="20"/>
+        <v>431</v>
       </c>
     </row>
     <row r="1751" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1751">
-        <f t="shared" si="21"/>
-        <v>1317</v>
+        <f t="shared" si="20"/>
+        <v>432</v>
       </c>
     </row>
     <row r="1752" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1752">
-        <f t="shared" si="21"/>
-        <v>1318</v>
+        <f t="shared" si="20"/>
+        <v>433</v>
       </c>
     </row>
     <row r="1753" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1753">
-        <f t="shared" si="21"/>
-        <v>1319</v>
+        <f t="shared" si="20"/>
+        <v>434</v>
       </c>
     </row>
     <row r="1754" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1754">
-        <f t="shared" si="21"/>
-        <v>1320</v>
+        <f t="shared" si="20"/>
+        <v>435</v>
       </c>
     </row>
     <row r="1755" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1755">
-        <f t="shared" si="21"/>
-        <v>1321</v>
+        <f t="shared" si="20"/>
+        <v>436</v>
       </c>
     </row>
     <row r="1756" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1756">
-        <f t="shared" si="21"/>
-        <v>1322</v>
+        <f t="shared" si="20"/>
+        <v>437</v>
       </c>
     </row>
     <row r="1757" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1757">
-        <f t="shared" si="21"/>
-        <v>1323</v>
+        <f t="shared" si="20"/>
+        <v>438</v>
       </c>
     </row>
     <row r="1758" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1758">
-        <f t="shared" si="21"/>
-        <v>1324</v>
+        <f t="shared" si="20"/>
+        <v>439</v>
       </c>
     </row>
     <row r="1759" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1759">
-        <f t="shared" si="21"/>
-        <v>1325</v>
+        <f t="shared" si="20"/>
+        <v>440</v>
       </c>
     </row>
     <row r="1760" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1760">
-        <f t="shared" si="21"/>
-        <v>1326</v>
+        <f t="shared" si="20"/>
+        <v>441</v>
       </c>
     </row>
     <row r="1761" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1761">
-        <f t="shared" si="21"/>
-        <v>1327</v>
+        <f t="shared" si="20"/>
+        <v>442</v>
       </c>
     </row>
     <row r="1762" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1762">
-        <f t="shared" si="21"/>
-        <v>1328</v>
+        <f t="shared" si="20"/>
+        <v>443</v>
       </c>
     </row>
     <row r="1763" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1763">
-        <f t="shared" si="21"/>
-        <v>1329</v>
+        <f t="shared" si="20"/>
+        <v>444</v>
       </c>
     </row>
     <row r="1764" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1764">
-        <f t="shared" si="21"/>
-        <v>1330</v>
+        <f t="shared" si="20"/>
+        <v>445</v>
       </c>
     </row>
     <row r="1765" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1765">
-        <f t="shared" si="21"/>
-        <v>1331</v>
+        <f t="shared" si="20"/>
+        <v>446</v>
       </c>
     </row>
     <row r="1766" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1766">
-        <f t="shared" si="21"/>
-        <v>1332</v>
+        <f t="shared" si="20"/>
+        <v>447</v>
       </c>
     </row>
     <row r="1767" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1767">
-        <f t="shared" si="21"/>
-        <v>1333</v>
+        <f t="shared" si="20"/>
+        <v>448</v>
       </c>
     </row>
     <row r="1768" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1768">
-        <f t="shared" si="21"/>
-        <v>1334</v>
+        <f t="shared" si="20"/>
+        <v>449</v>
       </c>
     </row>
     <row r="1769" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1769">
-        <f t="shared" si="21"/>
-        <v>1335</v>
+        <f t="shared" si="20"/>
+        <v>450</v>
       </c>
     </row>
     <row r="1770" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1770">
-        <f t="shared" si="21"/>
-        <v>1336</v>
+        <f t="shared" si="20"/>
+        <v>451</v>
       </c>
     </row>
     <row r="1771" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1771">
-        <f t="shared" si="21"/>
-        <v>1337</v>
+        <f t="shared" si="20"/>
+        <v>452</v>
       </c>
     </row>
     <row r="1772" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1772">
-        <f t="shared" si="21"/>
-        <v>1338</v>
+        <f t="shared" si="20"/>
+        <v>453</v>
       </c>
     </row>
     <row r="1773" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1773">
-        <f t="shared" si="21"/>
-        <v>1339</v>
+        <f t="shared" si="20"/>
+        <v>454</v>
       </c>
     </row>
     <row r="1774" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1774">
-        <f t="shared" ref="A1774:A1837" si="22">ROW(A1340)</f>
-        <v>1340</v>
+        <f t="shared" si="20"/>
+        <v>455</v>
       </c>
     </row>
     <row r="1775" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1775">
-        <f t="shared" si="22"/>
-        <v>1341</v>
+        <f t="shared" si="20"/>
+        <v>456</v>
       </c>
     </row>
     <row r="1776" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1776">
-        <f t="shared" si="22"/>
-        <v>1342</v>
+        <f t="shared" si="20"/>
+        <v>457</v>
       </c>
     </row>
     <row r="1777" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1777">
-        <f t="shared" si="22"/>
-        <v>1343</v>
+        <f t="shared" si="20"/>
+        <v>458</v>
       </c>
     </row>
     <row r="1778" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1778">
-        <f t="shared" si="22"/>
-        <v>1344</v>
+        <f t="shared" si="20"/>
+        <v>459</v>
       </c>
     </row>
     <row r="1779" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1779">
-        <f t="shared" si="22"/>
-        <v>1345</v>
+        <f t="shared" si="20"/>
+        <v>460</v>
       </c>
     </row>
     <row r="1780" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1780">
-        <f t="shared" si="22"/>
-        <v>1346</v>
+        <f t="shared" si="20"/>
+        <v>461</v>
       </c>
     </row>
     <row r="1781" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1781">
-        <f t="shared" si="22"/>
-        <v>1347</v>
+        <f t="shared" si="20"/>
+        <v>462</v>
       </c>
     </row>
     <row r="1782" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1782">
-        <f t="shared" si="22"/>
-        <v>1348</v>
+        <f t="shared" si="20"/>
+        <v>463</v>
       </c>
     </row>
     <row r="1783" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1783">
-        <f t="shared" si="22"/>
-        <v>1349</v>
+        <f t="shared" si="20"/>
+        <v>464</v>
       </c>
     </row>
     <row r="1784" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1784">
-        <f t="shared" si="22"/>
-        <v>1350</v>
+        <f t="shared" si="20"/>
+        <v>465</v>
       </c>
     </row>
     <row r="1785" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1785">
-        <f t="shared" si="22"/>
-        <v>1351</v>
+        <f t="shared" si="20"/>
+        <v>466</v>
       </c>
     </row>
     <row r="1786" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1786">
-        <f t="shared" si="22"/>
-        <v>1352</v>
+        <f t="shared" si="20"/>
+        <v>467</v>
       </c>
     </row>
     <row r="1787" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1787">
-        <f t="shared" si="22"/>
-        <v>1353</v>
+        <f t="shared" si="20"/>
+        <v>468</v>
       </c>
     </row>
     <row r="1788" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1788">
-        <f t="shared" si="22"/>
-        <v>1354</v>
+        <f t="shared" si="20"/>
+        <v>469</v>
       </c>
     </row>
     <row r="1789" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1789">
-        <f t="shared" si="22"/>
-        <v>1355</v>
+        <f t="shared" si="20"/>
+        <v>470</v>
       </c>
     </row>
     <row r="1790" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1790">
-        <f t="shared" si="22"/>
-        <v>1356</v>
+        <f t="shared" si="20"/>
+        <v>471</v>
       </c>
     </row>
     <row r="1791" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1791">
-        <f t="shared" si="22"/>
-        <v>1357</v>
+        <f t="shared" si="20"/>
+        <v>472</v>
       </c>
     </row>
     <row r="1792" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1792">
-        <f t="shared" si="22"/>
-        <v>1358</v>
+        <f t="shared" si="20"/>
+        <v>473</v>
       </c>
     </row>
     <row r="1793" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1793">
-        <f t="shared" si="22"/>
-        <v>1359</v>
+        <f t="shared" si="20"/>
+        <v>474</v>
       </c>
     </row>
     <row r="1794" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1794">
-        <f t="shared" si="22"/>
-        <v>1360</v>
+        <f t="shared" si="20"/>
+        <v>475</v>
       </c>
     </row>
     <row r="1795" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1795">
-        <f t="shared" si="22"/>
-        <v>1361</v>
+        <f t="shared" si="20"/>
+        <v>476</v>
       </c>
     </row>
     <row r="1796" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1796">
-        <f t="shared" si="22"/>
-        <v>1362</v>
+        <f t="shared" si="20"/>
+        <v>477</v>
       </c>
     </row>
     <row r="1797" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1797">
-        <f t="shared" si="22"/>
-        <v>1363</v>
+        <f t="shared" si="20"/>
+        <v>478</v>
       </c>
     </row>
     <row r="1798" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1798">
-        <f t="shared" si="22"/>
-        <v>1364</v>
+        <f t="shared" si="20"/>
+        <v>479</v>
       </c>
     </row>
     <row r="1799" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1799">
-        <f t="shared" si="22"/>
-        <v>1365</v>
+        <f t="shared" si="20"/>
+        <v>480</v>
       </c>
     </row>
     <row r="1800" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1800">
-        <f t="shared" si="22"/>
-        <v>1366</v>
+        <f t="shared" ref="A1800:A1863" si="21">ROW(A481)</f>
+        <v>481</v>
       </c>
     </row>
     <row r="1801" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1801">
-        <f t="shared" si="22"/>
-        <v>1367</v>
+        <f t="shared" si="21"/>
+        <v>482</v>
       </c>
     </row>
     <row r="1802" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1802">
-        <f t="shared" si="22"/>
-        <v>1368</v>
+        <f t="shared" si="21"/>
+        <v>483</v>
       </c>
     </row>
     <row r="1803" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1803">
-        <f t="shared" si="22"/>
-        <v>1369</v>
+        <f t="shared" si="21"/>
+        <v>484</v>
       </c>
     </row>
     <row r="1804" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1804">
-        <f t="shared" si="22"/>
-        <v>1370</v>
+        <f t="shared" si="21"/>
+        <v>485</v>
       </c>
     </row>
     <row r="1805" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1805">
-        <f t="shared" si="22"/>
-        <v>1371</v>
+        <f t="shared" si="21"/>
+        <v>486</v>
       </c>
     </row>
     <row r="1806" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1806">
-        <f t="shared" si="22"/>
-        <v>1372</v>
+        <f t="shared" si="21"/>
+        <v>487</v>
       </c>
     </row>
     <row r="1807" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1807">
-        <f t="shared" si="22"/>
-        <v>1373</v>
+        <f t="shared" si="21"/>
+        <v>488</v>
       </c>
     </row>
     <row r="1808" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1808">
-        <f t="shared" si="22"/>
-        <v>1374</v>
+        <f t="shared" si="21"/>
+        <v>489</v>
       </c>
     </row>
     <row r="1809" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1809">
-        <f t="shared" si="22"/>
-        <v>1375</v>
+        <f t="shared" si="21"/>
+        <v>490</v>
       </c>
     </row>
     <row r="1810" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1810">
-        <f t="shared" si="22"/>
-        <v>1376</v>
+        <f t="shared" si="21"/>
+        <v>491</v>
       </c>
     </row>
     <row r="1811" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1811">
-        <f t="shared" si="22"/>
-        <v>1377</v>
+        <f t="shared" si="21"/>
+        <v>492</v>
       </c>
     </row>
     <row r="1812" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1812">
-        <f t="shared" si="22"/>
-        <v>1378</v>
+        <f t="shared" si="21"/>
+        <v>493</v>
       </c>
     </row>
     <row r="1813" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1813">
-        <f t="shared" si="22"/>
-        <v>1379</v>
+        <f t="shared" si="21"/>
+        <v>494</v>
       </c>
     </row>
     <row r="1814" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1814">
-        <f t="shared" si="22"/>
-        <v>1380</v>
+        <f t="shared" si="21"/>
+        <v>495</v>
       </c>
     </row>
     <row r="1815" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1815">
-        <f t="shared" si="22"/>
-        <v>1381</v>
+        <f t="shared" si="21"/>
+        <v>496</v>
       </c>
     </row>
     <row r="1816" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1816">
-        <f t="shared" si="22"/>
-        <v>1382</v>
+        <f t="shared" si="21"/>
+        <v>497</v>
       </c>
     </row>
     <row r="1817" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1817">
-        <f t="shared" si="22"/>
-        <v>1383</v>
+        <f t="shared" si="21"/>
+        <v>498</v>
       </c>
     </row>
     <row r="1818" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1818">
-        <f t="shared" si="22"/>
-        <v>1384</v>
+        <f t="shared" si="21"/>
+        <v>499</v>
       </c>
     </row>
     <row r="1819" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1819">
-        <f t="shared" si="22"/>
-        <v>1385</v>
+        <f t="shared" si="21"/>
+        <v>500</v>
       </c>
     </row>
     <row r="1820" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1820">
-        <f t="shared" si="22"/>
-        <v>1386</v>
+        <f t="shared" si="21"/>
+        <v>501</v>
       </c>
     </row>
     <row r="1821" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1821">
-        <f t="shared" si="22"/>
-        <v>1387</v>
+        <f t="shared" si="21"/>
+        <v>502</v>
       </c>
     </row>
     <row r="1822" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1822">
-        <f t="shared" si="22"/>
-        <v>1388</v>
+        <f t="shared" si="21"/>
+        <v>503</v>
       </c>
     </row>
     <row r="1823" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1823">
-        <f t="shared" si="22"/>
-        <v>1389</v>
+        <f t="shared" si="21"/>
+        <v>504</v>
       </c>
     </row>
     <row r="1824" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1824">
-        <f t="shared" si="22"/>
-        <v>1390</v>
+        <f t="shared" si="21"/>
+        <v>505</v>
       </c>
     </row>
     <row r="1825" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1825">
-        <f t="shared" si="22"/>
-        <v>1391</v>
+        <f t="shared" si="21"/>
+        <v>506</v>
       </c>
     </row>
     <row r="1826" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1826">
-        <f t="shared" si="22"/>
-        <v>1392</v>
+        <f t="shared" si="21"/>
+        <v>507</v>
       </c>
     </row>
     <row r="1827" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1827">
-        <f t="shared" si="22"/>
-        <v>1393</v>
+        <f t="shared" si="21"/>
+        <v>508</v>
       </c>
     </row>
     <row r="1828" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1828">
-        <f t="shared" si="22"/>
-        <v>1394</v>
+        <f t="shared" si="21"/>
+        <v>509</v>
       </c>
     </row>
     <row r="1829" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1829">
-        <f t="shared" si="22"/>
-        <v>1395</v>
+        <f t="shared" si="21"/>
+        <v>510</v>
       </c>
     </row>
     <row r="1830" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1830">
-        <f t="shared" si="22"/>
-        <v>1396</v>
+        <f t="shared" si="21"/>
+        <v>511</v>
       </c>
     </row>
     <row r="1831" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1831">
-        <f t="shared" si="22"/>
-        <v>1397</v>
+        <f t="shared" si="21"/>
+        <v>512</v>
       </c>
     </row>
     <row r="1832" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1832">
-        <f t="shared" si="22"/>
-        <v>1398</v>
+        <f t="shared" si="21"/>
+        <v>513</v>
       </c>
     </row>
     <row r="1833" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1833">
-        <f t="shared" si="22"/>
-        <v>1399</v>
+        <f t="shared" si="21"/>
+        <v>514</v>
       </c>
     </row>
     <row r="1834" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1834">
-        <f t="shared" si="22"/>
-        <v>1400</v>
+        <f t="shared" si="21"/>
+        <v>515</v>
       </c>
     </row>
     <row r="1835" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1835">
-        <f t="shared" si="22"/>
-        <v>1401</v>
+        <f t="shared" si="21"/>
+        <v>516</v>
       </c>
     </row>
     <row r="1836" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1836">
-        <f t="shared" si="22"/>
-        <v>1402</v>
+        <f t="shared" si="21"/>
+        <v>517</v>
       </c>
     </row>
     <row r="1837" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1837">
-        <f t="shared" si="22"/>
-        <v>1403</v>
+        <f t="shared" si="21"/>
+        <v>518</v>
       </c>
     </row>
     <row r="1838" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1838">
-        <f t="shared" ref="A1838:A1901" si="23">ROW(A1404)</f>
-        <v>1404</v>
+        <f t="shared" si="21"/>
+        <v>519</v>
       </c>
     </row>
     <row r="1839" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1839">
-        <f t="shared" si="23"/>
-        <v>1405</v>
+        <f t="shared" si="21"/>
+        <v>520</v>
       </c>
     </row>
     <row r="1840" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1840">
-        <f t="shared" si="23"/>
-        <v>1406</v>
+        <f t="shared" si="21"/>
+        <v>521</v>
       </c>
     </row>
     <row r="1841" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1841">
-        <f t="shared" si="23"/>
-        <v>1407</v>
+        <f t="shared" si="21"/>
+        <v>522</v>
       </c>
     </row>
     <row r="1842" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1842">
-        <f t="shared" si="23"/>
-        <v>1408</v>
+        <f t="shared" si="21"/>
+        <v>523</v>
       </c>
     </row>
     <row r="1843" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1843">
-        <f t="shared" si="23"/>
-        <v>1409</v>
+        <f t="shared" si="21"/>
+        <v>524</v>
       </c>
     </row>
     <row r="1844" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1844">
-        <f t="shared" si="23"/>
-        <v>1410</v>
+        <f t="shared" si="21"/>
+        <v>525</v>
       </c>
     </row>
     <row r="1845" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1845">
-        <f t="shared" si="23"/>
-        <v>1411</v>
+        <f t="shared" si="21"/>
+        <v>526</v>
       </c>
     </row>
     <row r="1846" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1846">
-        <f t="shared" si="23"/>
-        <v>1412</v>
+        <f t="shared" si="21"/>
+        <v>527</v>
       </c>
     </row>
     <row r="1847" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1847">
-        <f t="shared" si="23"/>
-        <v>1413</v>
+        <f t="shared" si="21"/>
+        <v>528</v>
       </c>
     </row>
     <row r="1848" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1848">
-        <f t="shared" si="23"/>
-        <v>1414</v>
+        <f t="shared" si="21"/>
+        <v>529</v>
       </c>
     </row>
     <row r="1849" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1849">
-        <f t="shared" si="23"/>
-        <v>1415</v>
+        <f t="shared" si="21"/>
+        <v>530</v>
       </c>
     </row>
     <row r="1850" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1850">
-        <f t="shared" si="23"/>
-        <v>1416</v>
+        <f t="shared" si="21"/>
+        <v>531</v>
       </c>
     </row>
     <row r="1851" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1851">
-        <f t="shared" si="23"/>
-        <v>1417</v>
+        <f t="shared" si="21"/>
+        <v>532</v>
       </c>
     </row>
     <row r="1852" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1852">
-        <f t="shared" si="23"/>
-        <v>1418</v>
+        <f t="shared" si="21"/>
+        <v>533</v>
       </c>
     </row>
     <row r="1853" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1853">
-        <f t="shared" si="23"/>
-        <v>1419</v>
+        <f t="shared" si="21"/>
+        <v>534</v>
       </c>
     </row>
     <row r="1854" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1854">
-        <f t="shared" si="23"/>
-        <v>1420</v>
+        <f t="shared" si="21"/>
+        <v>535</v>
       </c>
     </row>
     <row r="1855" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1855">
-        <f t="shared" si="23"/>
-        <v>1421</v>
+        <f t="shared" si="21"/>
+        <v>536</v>
       </c>
     </row>
     <row r="1856" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1856">
-        <f t="shared" si="23"/>
-        <v>1422</v>
+        <f t="shared" si="21"/>
+        <v>537</v>
       </c>
     </row>
     <row r="1857" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1857">
-        <f t="shared" si="23"/>
-        <v>1423</v>
+        <f t="shared" si="21"/>
+        <v>538</v>
       </c>
     </row>
     <row r="1858" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1858">
-        <f t="shared" si="23"/>
-        <v>1424</v>
+        <f t="shared" si="21"/>
+        <v>539</v>
       </c>
     </row>
     <row r="1859" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1859">
-        <f t="shared" si="23"/>
-        <v>1425</v>
+        <f t="shared" si="21"/>
+        <v>540</v>
       </c>
     </row>
     <row r="1860" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1860">
-        <f t="shared" si="23"/>
-        <v>1426</v>
+        <f t="shared" si="21"/>
+        <v>541</v>
       </c>
     </row>
     <row r="1861" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1861">
-        <f t="shared" si="23"/>
-        <v>1427</v>
+        <f t="shared" si="21"/>
+        <v>542</v>
       </c>
     </row>
     <row r="1862" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1862">
-        <f t="shared" si="23"/>
-        <v>1428</v>
+        <f t="shared" si="21"/>
+        <v>543</v>
       </c>
     </row>
     <row r="1863" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1863">
-        <f t="shared" si="23"/>
-        <v>1429</v>
+        <f t="shared" si="21"/>
+        <v>544</v>
       </c>
     </row>
     <row r="1864" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1864">
-        <f t="shared" si="23"/>
-        <v>1430</v>
+        <f t="shared" ref="A1864:A1927" si="22">ROW(A545)</f>
+        <v>545</v>
       </c>
     </row>
     <row r="1865" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1865">
-        <f t="shared" si="23"/>
-        <v>1431</v>
+        <f t="shared" si="22"/>
+        <v>546</v>
       </c>
     </row>
     <row r="1866" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1866">
-        <f t="shared" si="23"/>
-        <v>1432</v>
+        <f t="shared" si="22"/>
+        <v>547</v>
       </c>
     </row>
     <row r="1867" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1867">
-        <f t="shared" si="23"/>
-        <v>1433</v>
+        <f t="shared" si="22"/>
+        <v>548</v>
       </c>
     </row>
     <row r="1868" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1868">
-        <f t="shared" si="23"/>
-        <v>1434</v>
+        <f t="shared" si="22"/>
+        <v>549</v>
       </c>
     </row>
     <row r="1869" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1869">
-        <f t="shared" si="23"/>
-        <v>1435</v>
+        <f t="shared" si="22"/>
+        <v>550</v>
       </c>
     </row>
     <row r="1870" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1870">
-        <f t="shared" si="23"/>
-        <v>1436</v>
+        <f t="shared" si="22"/>
+        <v>551</v>
       </c>
     </row>
     <row r="1871" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1871">
-        <f t="shared" si="23"/>
-        <v>1437</v>
+        <f t="shared" si="22"/>
+        <v>552</v>
       </c>
     </row>
     <row r="1872" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1872">
-        <f t="shared" si="23"/>
-        <v>1438</v>
+        <f t="shared" si="22"/>
+        <v>553</v>
       </c>
     </row>
     <row r="1873" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1873">
-        <f t="shared" si="23"/>
-        <v>1439</v>
+        <f t="shared" si="22"/>
+        <v>554</v>
       </c>
     </row>
     <row r="1874" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1874">
-        <f t="shared" si="23"/>
-        <v>1440</v>
+        <f t="shared" si="22"/>
+        <v>555</v>
       </c>
     </row>
     <row r="1875" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1875">
-        <f t="shared" si="23"/>
-        <v>1441</v>
+        <f t="shared" si="22"/>
+        <v>556</v>
       </c>
     </row>
     <row r="1876" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1876">
-        <f t="shared" si="23"/>
-        <v>1442</v>
+        <f t="shared" si="22"/>
+        <v>557</v>
       </c>
     </row>
     <row r="1877" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1877">
-        <f t="shared" si="23"/>
-        <v>1443</v>
+        <f t="shared" si="22"/>
+        <v>558</v>
       </c>
     </row>
     <row r="1878" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1878">
-        <f t="shared" si="23"/>
-        <v>1444</v>
+        <f t="shared" si="22"/>
+        <v>559</v>
       </c>
     </row>
     <row r="1879" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1879">
-        <f t="shared" si="23"/>
-        <v>1445</v>
+        <f t="shared" si="22"/>
+        <v>560</v>
       </c>
     </row>
     <row r="1880" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1880">
-        <f t="shared" si="23"/>
-        <v>1446</v>
+        <f t="shared" si="22"/>
+        <v>561</v>
       </c>
     </row>
     <row r="1881" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1881">
-        <f t="shared" si="23"/>
-        <v>1447</v>
+        <f t="shared" si="22"/>
+        <v>562</v>
       </c>
     </row>
     <row r="1882" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1882">
-        <f t="shared" si="23"/>
-        <v>1448</v>
+        <f t="shared" si="22"/>
+        <v>563</v>
       </c>
     </row>
     <row r="1883" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1883">
-        <f t="shared" si="23"/>
-        <v>1449</v>
+        <f t="shared" si="22"/>
+        <v>564</v>
       </c>
     </row>
     <row r="1884" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1884">
-        <f t="shared" si="23"/>
-        <v>1450</v>
+        <f t="shared" si="22"/>
+        <v>565</v>
       </c>
     </row>
     <row r="1885" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1885">
-        <f t="shared" si="23"/>
-        <v>1451</v>
+        <f t="shared" si="22"/>
+        <v>566</v>
       </c>
     </row>
     <row r="1886" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1886">
-        <f t="shared" si="23"/>
-        <v>1452</v>
+        <f t="shared" si="22"/>
+        <v>567</v>
       </c>
     </row>
     <row r="1887" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1887">
-        <f t="shared" si="23"/>
-        <v>1453</v>
+        <f t="shared" si="22"/>
+        <v>568</v>
       </c>
     </row>
     <row r="1888" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1888">
-        <f t="shared" si="23"/>
-        <v>1454</v>
+        <f t="shared" si="22"/>
+        <v>569</v>
       </c>
     </row>
     <row r="1889" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1889">
-        <f t="shared" si="23"/>
-        <v>1455</v>
+        <f t="shared" si="22"/>
+        <v>570</v>
       </c>
     </row>
     <row r="1890" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1890">
-        <f t="shared" si="23"/>
-        <v>1456</v>
+        <f t="shared" si="22"/>
+        <v>571</v>
       </c>
     </row>
     <row r="1891" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1891">
-        <f t="shared" si="23"/>
-        <v>1457</v>
+        <f t="shared" si="22"/>
+        <v>572</v>
       </c>
     </row>
     <row r="1892" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1892">
-        <f t="shared" si="23"/>
-        <v>1458</v>
+        <f t="shared" si="22"/>
+        <v>573</v>
       </c>
     </row>
     <row r="1893" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1893">
-        <f t="shared" si="23"/>
-        <v>1459</v>
+        <f t="shared" si="22"/>
+        <v>574</v>
       </c>
     </row>
     <row r="1894" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1894">
-        <f t="shared" si="23"/>
-        <v>1460</v>
+        <f t="shared" si="22"/>
+        <v>575</v>
       </c>
     </row>
     <row r="1895" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1895">
-        <f t="shared" si="23"/>
-        <v>1461</v>
+        <f t="shared" si="22"/>
+        <v>576</v>
       </c>
     </row>
     <row r="1896" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1896">
-        <f t="shared" si="23"/>
-        <v>1462</v>
+        <f t="shared" si="22"/>
+        <v>577</v>
       </c>
     </row>
     <row r="1897" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1897">
-        <f t="shared" si="23"/>
-        <v>1463</v>
+        <f t="shared" si="22"/>
+        <v>578</v>
       </c>
     </row>
     <row r="1898" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1898">
-        <f t="shared" si="23"/>
-        <v>1464</v>
+        <f t="shared" si="22"/>
+        <v>579</v>
       </c>
     </row>
     <row r="1899" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1899">
-        <f t="shared" si="23"/>
-        <v>1465</v>
+        <f t="shared" si="22"/>
+        <v>580</v>
       </c>
     </row>
     <row r="1900" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1900">
-        <f t="shared" si="23"/>
-        <v>1466</v>
+        <f t="shared" si="22"/>
+        <v>581</v>
       </c>
     </row>
     <row r="1901" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1901">
-        <f t="shared" si="23"/>
-        <v>1467</v>
+        <f t="shared" si="22"/>
+        <v>582</v>
       </c>
     </row>
     <row r="1902" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1902">
-        <f t="shared" ref="A1902:A1965" si="24">ROW(A1468)</f>
-        <v>1468</v>
+        <f t="shared" si="22"/>
+        <v>583</v>
       </c>
     </row>
     <row r="1903" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1903">
-        <f t="shared" si="24"/>
-        <v>1469</v>
+        <f t="shared" si="22"/>
+        <v>584</v>
       </c>
     </row>
     <row r="1904" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1904">
-        <f t="shared" si="24"/>
-        <v>1470</v>
+        <f t="shared" si="22"/>
+        <v>585</v>
       </c>
     </row>
     <row r="1905" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1905">
-        <f t="shared" si="24"/>
-        <v>1471</v>
+        <f t="shared" si="22"/>
+        <v>586</v>
       </c>
     </row>
     <row r="1906" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1906">
-        <f t="shared" si="24"/>
-        <v>1472</v>
+        <f t="shared" si="22"/>
+        <v>587</v>
       </c>
     </row>
     <row r="1907" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1907">
-        <f t="shared" si="24"/>
-        <v>1473</v>
+        <f t="shared" si="22"/>
+        <v>588</v>
       </c>
     </row>
     <row r="1908" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1908">
-        <f t="shared" si="24"/>
-        <v>1474</v>
+        <f t="shared" si="22"/>
+        <v>589</v>
       </c>
     </row>
     <row r="1909" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1909">
-        <f t="shared" si="24"/>
-        <v>1475</v>
+        <f t="shared" si="22"/>
+        <v>590</v>
       </c>
     </row>
     <row r="1910" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1910">
-        <f t="shared" si="24"/>
-        <v>1476</v>
+        <f t="shared" si="22"/>
+        <v>591</v>
       </c>
     </row>
     <row r="1911" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1911">
-        <f t="shared" si="24"/>
-        <v>1477</v>
+        <f t="shared" si="22"/>
+        <v>592</v>
       </c>
     </row>
     <row r="1912" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1912">
-        <f t="shared" si="24"/>
-        <v>1478</v>
+        <f t="shared" si="22"/>
+        <v>593</v>
       </c>
     </row>
     <row r="1913" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1913">
-        <f t="shared" si="24"/>
-        <v>1479</v>
+        <f t="shared" si="22"/>
+        <v>594</v>
       </c>
     </row>
     <row r="1914" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1914">
-        <f t="shared" si="24"/>
-        <v>1480</v>
+        <f t="shared" si="22"/>
+        <v>595</v>
       </c>
     </row>
     <row r="1915" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1915">
-        <f t="shared" si="24"/>
-        <v>1481</v>
+        <f t="shared" si="22"/>
+        <v>596</v>
       </c>
     </row>
     <row r="1916" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1916">
-        <f t="shared" si="24"/>
-        <v>1482</v>
+        <f t="shared" si="22"/>
+        <v>597</v>
       </c>
     </row>
     <row r="1917" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1917">
-        <f t="shared" si="24"/>
-        <v>1483</v>
+        <f t="shared" si="22"/>
+        <v>598</v>
       </c>
     </row>
     <row r="1918" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1918">
-        <f t="shared" si="24"/>
-        <v>1484</v>
+        <f t="shared" si="22"/>
+        <v>599</v>
       </c>
     </row>
     <row r="1919" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1919">
-        <f t="shared" si="24"/>
-        <v>1485</v>
+        <f t="shared" si="22"/>
+        <v>600</v>
       </c>
     </row>
     <row r="1920" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1920">
-        <f t="shared" si="24"/>
-        <v>1486</v>
+        <f t="shared" si="22"/>
+        <v>601</v>
       </c>
     </row>
     <row r="1921" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1921">
-        <f t="shared" si="24"/>
-        <v>1487</v>
+        <f t="shared" si="22"/>
+        <v>602</v>
       </c>
     </row>
     <row r="1922" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1922">
-        <f t="shared" si="24"/>
-        <v>1488</v>
+        <f t="shared" si="22"/>
+        <v>603</v>
       </c>
     </row>
     <row r="1923" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1923">
-        <f t="shared" si="24"/>
-        <v>1489</v>
+        <f t="shared" si="22"/>
+        <v>604</v>
       </c>
     </row>
     <row r="1924" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1924">
-        <f t="shared" si="24"/>
-        <v>1490</v>
+        <f t="shared" si="22"/>
+        <v>605</v>
       </c>
     </row>
     <row r="1925" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1925">
-        <f t="shared" si="24"/>
-        <v>1491</v>
+        <f t="shared" si="22"/>
+        <v>606</v>
       </c>
     </row>
     <row r="1926" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1926">
-        <f t="shared" si="24"/>
-        <v>1492</v>
+        <f t="shared" si="22"/>
+        <v>607</v>
       </c>
     </row>
     <row r="1927" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1927">
-        <f t="shared" si="24"/>
-        <v>1493</v>
+        <f t="shared" si="22"/>
+        <v>608</v>
       </c>
     </row>
     <row r="1928" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1928">
-        <f t="shared" si="24"/>
-        <v>1494</v>
+        <f t="shared" ref="A1928:A1991" si="23">ROW(A609)</f>
+        <v>609</v>
       </c>
     </row>
     <row r="1929" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1929">
-        <f t="shared" si="24"/>
-        <v>1495</v>
+        <f t="shared" si="23"/>
+        <v>610</v>
       </c>
     </row>
     <row r="1930" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1930">
-        <f t="shared" si="24"/>
-        <v>1496</v>
+        <f t="shared" si="23"/>
+        <v>611</v>
       </c>
     </row>
     <row r="1931" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1931">
-        <f t="shared" si="24"/>
-        <v>1497</v>
+        <f t="shared" si="23"/>
+        <v>612</v>
       </c>
     </row>
     <row r="1932" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1932">
-        <f t="shared" si="24"/>
-        <v>1498</v>
+        <f t="shared" si="23"/>
+        <v>613</v>
       </c>
     </row>
     <row r="1933" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1933">
-        <f t="shared" si="24"/>
-        <v>1499</v>
+        <f t="shared" si="23"/>
+        <v>614</v>
       </c>
     </row>
     <row r="1934" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1934">
-        <f t="shared" si="24"/>
-        <v>1500</v>
+        <f t="shared" si="23"/>
+        <v>615</v>
       </c>
     </row>
     <row r="1935" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1935">
-        <f t="shared" si="24"/>
-        <v>1501</v>
+        <f t="shared" si="23"/>
+        <v>616</v>
       </c>
     </row>
     <row r="1936" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1936">
-        <f t="shared" si="24"/>
-        <v>1502</v>
+        <f t="shared" si="23"/>
+        <v>617</v>
       </c>
     </row>
     <row r="1937" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1937">
-        <f t="shared" si="24"/>
-        <v>1503</v>
+        <f t="shared" si="23"/>
+        <v>618</v>
       </c>
     </row>
     <row r="1938" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1938">
-        <f t="shared" si="24"/>
-        <v>1504</v>
+        <f t="shared" si="23"/>
+        <v>619</v>
       </c>
     </row>
     <row r="1939" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1939">
-        <f t="shared" si="24"/>
-        <v>1505</v>
+        <f t="shared" si="23"/>
+        <v>620</v>
       </c>
     </row>
     <row r="1940" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1940">
-        <f t="shared" si="24"/>
-        <v>1506</v>
+        <f t="shared" si="23"/>
+        <v>621</v>
       </c>
     </row>
     <row r="1941" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1941">
-        <f t="shared" si="24"/>
-        <v>1507</v>
+        <f t="shared" si="23"/>
+        <v>622</v>
       </c>
     </row>
     <row r="1942" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1942">
-        <f t="shared" si="24"/>
-        <v>1508</v>
+        <f t="shared" si="23"/>
+        <v>623</v>
       </c>
     </row>
     <row r="1943" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1943">
-        <f t="shared" si="24"/>
-        <v>1509</v>
+        <f t="shared" si="23"/>
+        <v>624</v>
       </c>
     </row>
     <row r="1944" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1944">
-        <f t="shared" si="24"/>
-        <v>1510</v>
+        <f t="shared" si="23"/>
+        <v>625</v>
       </c>
     </row>
     <row r="1945" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1945">
-        <f t="shared" si="24"/>
-        <v>1511</v>
+        <f t="shared" si="23"/>
+        <v>626</v>
       </c>
     </row>
     <row r="1946" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1946">
-        <f t="shared" si="24"/>
-        <v>1512</v>
+        <f t="shared" si="23"/>
+        <v>627</v>
       </c>
     </row>
     <row r="1947" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1947">
-        <f t="shared" si="24"/>
-        <v>1513</v>
+        <f t="shared" si="23"/>
+        <v>628</v>
       </c>
     </row>
     <row r="1948" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1948">
-        <f t="shared" si="24"/>
-        <v>1514</v>
+        <f t="shared" si="23"/>
+        <v>629</v>
       </c>
     </row>
     <row r="1949" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1949">
-        <f t="shared" si="24"/>
-        <v>1515</v>
+        <f t="shared" si="23"/>
+        <v>630</v>
       </c>
     </row>
     <row r="1950" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1950">
-        <f t="shared" si="24"/>
-        <v>1516</v>
+        <f t="shared" si="23"/>
+        <v>631</v>
       </c>
     </row>
     <row r="1951" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1951">
-        <f t="shared" si="24"/>
-        <v>1517</v>
+        <f t="shared" si="23"/>
+        <v>632</v>
       </c>
     </row>
     <row r="1952" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1952">
-        <f t="shared" si="24"/>
-        <v>1518</v>
+        <f t="shared" si="23"/>
+        <v>633</v>
       </c>
     </row>
     <row r="1953" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1953">
-        <f t="shared" si="24"/>
-        <v>1519</v>
+        <f t="shared" si="23"/>
+        <v>634</v>
       </c>
     </row>
     <row r="1954" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1954">
-        <f t="shared" si="24"/>
-        <v>1520</v>
+        <f t="shared" si="23"/>
+        <v>635</v>
       </c>
     </row>
     <row r="1955" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1955">
-        <f t="shared" si="24"/>
-        <v>1521</v>
+        <f t="shared" si="23"/>
+        <v>636</v>
       </c>
     </row>
     <row r="1956" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1956">
-        <f t="shared" si="24"/>
-        <v>1522</v>
+        <f t="shared" si="23"/>
+        <v>637</v>
       </c>
     </row>
     <row r="1957" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1957">
-        <f t="shared" si="24"/>
-        <v>1523</v>
+        <f t="shared" si="23"/>
+        <v>638</v>
       </c>
     </row>
     <row r="1958" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1958">
-        <f t="shared" si="24"/>
-        <v>1524</v>
+        <f t="shared" si="23"/>
+        <v>639</v>
       </c>
     </row>
     <row r="1959" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1959">
-        <f t="shared" si="24"/>
-        <v>1525</v>
+        <f t="shared" si="23"/>
+        <v>640</v>
       </c>
     </row>
     <row r="1960" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1960">
-        <f t="shared" si="24"/>
-        <v>1526</v>
+        <f t="shared" si="23"/>
+        <v>641</v>
       </c>
     </row>
     <row r="1961" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1961">
-        <f t="shared" si="24"/>
-        <v>1527</v>
+        <f t="shared" si="23"/>
+        <v>642</v>
       </c>
     </row>
     <row r="1962" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1962">
-        <f t="shared" si="24"/>
-        <v>1528</v>
+        <f t="shared" si="23"/>
+        <v>643</v>
       </c>
     </row>
     <row r="1963" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1963">
-        <f t="shared" si="24"/>
-        <v>1529</v>
+        <f t="shared" si="23"/>
+        <v>644</v>
       </c>
     </row>
     <row r="1964" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1964">
-        <f t="shared" si="24"/>
-        <v>1530</v>
+        <f t="shared" si="23"/>
+        <v>645</v>
       </c>
     </row>
     <row r="1965" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1965">
-        <f t="shared" si="24"/>
-        <v>1531</v>
+        <f t="shared" si="23"/>
+        <v>646</v>
       </c>
     </row>
     <row r="1966" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1966">
-        <f t="shared" ref="A1966:A2029" si="25">ROW(A1532)</f>
-        <v>1532</v>
+        <f t="shared" si="23"/>
+        <v>647</v>
       </c>
     </row>
     <row r="1967" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1967">
-        <f t="shared" si="25"/>
-        <v>1533</v>
+        <f t="shared" si="23"/>
+        <v>648</v>
       </c>
     </row>
     <row r="1968" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1968">
-        <f t="shared" si="25"/>
-        <v>1534</v>
+        <f t="shared" si="23"/>
+        <v>649</v>
       </c>
     </row>
     <row r="1969" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1969">
-        <f t="shared" si="25"/>
-        <v>1535</v>
+        <f t="shared" si="23"/>
+        <v>650</v>
       </c>
     </row>
     <row r="1970" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1970">
-        <f t="shared" si="25"/>
-        <v>1536</v>
+        <f t="shared" si="23"/>
+        <v>651</v>
       </c>
     </row>
     <row r="1971" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1971">
-        <f t="shared" si="25"/>
-        <v>1537</v>
+        <f t="shared" si="23"/>
+        <v>652</v>
       </c>
     </row>
     <row r="1972" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1972">
-        <f t="shared" si="25"/>
-        <v>1538</v>
+        <f t="shared" si="23"/>
+        <v>653</v>
       </c>
     </row>
     <row r="1973" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1973">
-        <f t="shared" si="25"/>
-        <v>1539</v>
+        <f t="shared" si="23"/>
+        <v>654</v>
       </c>
     </row>
     <row r="1974" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1974">
-        <f t="shared" si="25"/>
-        <v>1540</v>
+        <f t="shared" si="23"/>
+        <v>655</v>
       </c>
     </row>
     <row r="1975" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1975">
-        <f t="shared" si="25"/>
-        <v>1541</v>
+        <f t="shared" si="23"/>
+        <v>656</v>
       </c>
     </row>
     <row r="1976" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1976">
-        <f t="shared" si="25"/>
-        <v>1542</v>
+        <f t="shared" si="23"/>
+        <v>657</v>
       </c>
     </row>
     <row r="1977" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1977">
-        <f t="shared" si="25"/>
-        <v>1543</v>
+        <f t="shared" si="23"/>
+        <v>658</v>
       </c>
     </row>
     <row r="1978" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1978">
-        <f t="shared" si="25"/>
-        <v>1544</v>
+        <f t="shared" si="23"/>
+        <v>659</v>
       </c>
     </row>
     <row r="1979" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1979">
-        <f t="shared" si="25"/>
-        <v>1545</v>
+        <f t="shared" si="23"/>
+        <v>660</v>
       </c>
     </row>
     <row r="1980" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1980">
-        <f t="shared" si="25"/>
-        <v>1546</v>
+        <f t="shared" si="23"/>
+        <v>661</v>
       </c>
     </row>
     <row r="1981" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1981">
-        <f t="shared" si="25"/>
-        <v>1547</v>
+        <f t="shared" si="23"/>
+        <v>662</v>
       </c>
     </row>
     <row r="1982" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1982">
-        <f t="shared" si="25"/>
-        <v>1548</v>
+        <f t="shared" si="23"/>
+        <v>663</v>
       </c>
     </row>
     <row r="1983" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1983">
-        <f t="shared" si="25"/>
-        <v>1549</v>
+        <f t="shared" si="23"/>
+        <v>664</v>
       </c>
     </row>
     <row r="1984" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1984">
-        <f t="shared" si="25"/>
-        <v>1550</v>
+        <f t="shared" si="23"/>
+        <v>665</v>
       </c>
     </row>
     <row r="1985" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1985">
-        <f t="shared" si="25"/>
-        <v>1551</v>
+        <f t="shared" si="23"/>
+        <v>666</v>
       </c>
     </row>
     <row r="1986" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1986">
-        <f t="shared" si="25"/>
-        <v>1552</v>
+        <f t="shared" si="23"/>
+        <v>667</v>
       </c>
     </row>
     <row r="1987" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1987">
-        <f t="shared" si="25"/>
-        <v>1553</v>
+        <f t="shared" si="23"/>
+        <v>668</v>
       </c>
     </row>
     <row r="1988" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1988">
-        <f t="shared" si="25"/>
-        <v>1554</v>
+        <f t="shared" si="23"/>
+        <v>669</v>
       </c>
     </row>
     <row r="1989" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1989">
-        <f t="shared" si="25"/>
-        <v>1555</v>
+        <f t="shared" si="23"/>
+        <v>670</v>
       </c>
     </row>
     <row r="1990" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1990">
-        <f t="shared" si="25"/>
-        <v>1556</v>
+        <f t="shared" si="23"/>
+        <v>671</v>
       </c>
     </row>
     <row r="1991" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1991">
-        <f t="shared" si="25"/>
-        <v>1557</v>
+        <f t="shared" si="23"/>
+        <v>672</v>
       </c>
     </row>
     <row r="1992" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1992">
-        <f t="shared" si="25"/>
-        <v>1558</v>
+        <f t="shared" ref="A1992:A2055" si="24">ROW(A673)</f>
+        <v>673</v>
       </c>
     </row>
     <row r="1993" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1993">
-        <f t="shared" si="25"/>
-        <v>1559</v>
+        <f t="shared" si="24"/>
+        <v>674</v>
       </c>
     </row>
     <row r="1994" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1994">
-        <f t="shared" si="25"/>
-        <v>1560</v>
+        <f t="shared" si="24"/>
+        <v>675</v>
       </c>
     </row>
     <row r="1995" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1995">
-        <f t="shared" si="25"/>
-        <v>1561</v>
+        <f t="shared" si="24"/>
+        <v>676</v>
       </c>
     </row>
     <row r="1996" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1996">
-        <f t="shared" si="25"/>
-        <v>1562</v>
+        <f t="shared" si="24"/>
+        <v>677</v>
       </c>
     </row>
     <row r="1997" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1997">
-        <f t="shared" si="25"/>
-        <v>1563</v>
+        <f t="shared" si="24"/>
+        <v>678</v>
       </c>
     </row>
     <row r="1998" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1998">
-        <f t="shared" si="25"/>
-        <v>1564</v>
+        <f t="shared" si="24"/>
+        <v>679</v>
       </c>
     </row>
     <row r="1999" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1999">
-        <f t="shared" si="25"/>
-        <v>1565</v>
+        <f t="shared" si="24"/>
+        <v>680</v>
       </c>
     </row>
     <row r="2000" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2000">
-        <f t="shared" si="25"/>
-        <v>1566</v>
+        <f t="shared" si="24"/>
+        <v>681</v>
       </c>
     </row>
     <row r="2001" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2001">
-        <f t="shared" si="25"/>
-        <v>1567</v>
+        <f t="shared" si="24"/>
+        <v>682</v>
       </c>
     </row>
     <row r="2002" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2002">
-        <f t="shared" si="25"/>
-        <v>1568</v>
+        <f t="shared" si="24"/>
+        <v>683</v>
       </c>
     </row>
     <row r="2003" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2003">
-        <f t="shared" si="25"/>
-        <v>1569</v>
+        <f t="shared" si="24"/>
+        <v>684</v>
       </c>
     </row>
     <row r="2004" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2004">
-        <f t="shared" si="25"/>
-        <v>1570</v>
+        <f t="shared" si="24"/>
+        <v>685</v>
       </c>
     </row>
     <row r="2005" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2005">
-        <f t="shared" si="25"/>
-        <v>1571</v>
+        <f t="shared" si="24"/>
+        <v>686</v>
       </c>
     </row>
     <row r="2006" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2006">
-        <f t="shared" si="25"/>
-        <v>1572</v>
+        <f t="shared" si="24"/>
+        <v>687</v>
       </c>
     </row>
     <row r="2007" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2007">
-        <f t="shared" si="25"/>
-        <v>1573</v>
+        <f t="shared" si="24"/>
+        <v>688</v>
       </c>
     </row>
     <row r="2008" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2008">
-        <f t="shared" si="25"/>
-        <v>1574</v>
+        <f t="shared" si="24"/>
+        <v>689</v>
       </c>
     </row>
     <row r="2009" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2009">
-        <f t="shared" si="25"/>
-        <v>1575</v>
+        <f t="shared" si="24"/>
+        <v>690</v>
       </c>
     </row>
     <row r="2010" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2010">
-        <f t="shared" si="25"/>
-        <v>1576</v>
+        <f t="shared" si="24"/>
+        <v>691</v>
       </c>
     </row>
     <row r="2011" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2011">
-        <f t="shared" si="25"/>
-        <v>1577</v>
+        <f t="shared" si="24"/>
+        <v>692</v>
       </c>
     </row>
     <row r="2012" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2012">
-        <f t="shared" si="25"/>
-        <v>1578</v>
+        <f t="shared" si="24"/>
+        <v>693</v>
       </c>
     </row>
     <row r="2013" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2013">
-        <f t="shared" si="25"/>
-        <v>1579</v>
+        <f t="shared" si="24"/>
+        <v>694</v>
       </c>
     </row>
     <row r="2014" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2014">
-        <f t="shared" si="25"/>
-        <v>1580</v>
+        <f t="shared" si="24"/>
+        <v>695</v>
       </c>
     </row>
     <row r="2015" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2015">
-        <f t="shared" si="25"/>
-        <v>1581</v>
+        <f t="shared" si="24"/>
+        <v>696</v>
       </c>
     </row>
     <row r="2016" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2016">
-        <f t="shared" si="25"/>
-        <v>1582</v>
+        <f t="shared" si="24"/>
+        <v>697</v>
       </c>
     </row>
     <row r="2017" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2017">
-        <f t="shared" si="25"/>
-        <v>1583</v>
+        <f t="shared" si="24"/>
+        <v>698</v>
       </c>
     </row>
     <row r="2018" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2018">
-        <f t="shared" si="25"/>
-        <v>1584</v>
+        <f t="shared" si="24"/>
+        <v>699</v>
       </c>
     </row>
     <row r="2019" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2019">
-        <f t="shared" si="25"/>
-        <v>1585</v>
+        <f t="shared" si="24"/>
+        <v>700</v>
       </c>
     </row>
     <row r="2020" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2020">
-        <f t="shared" si="25"/>
-        <v>1586</v>
+        <f t="shared" si="24"/>
+        <v>701</v>
       </c>
     </row>
     <row r="2021" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2021">
-        <f t="shared" si="25"/>
-        <v>1587</v>
+        <f t="shared" si="24"/>
+        <v>702</v>
       </c>
     </row>
     <row r="2022" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2022">
-        <f t="shared" si="25"/>
-        <v>1588</v>
+        <f t="shared" si="24"/>
+        <v>703</v>
       </c>
     </row>
     <row r="2023" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2023">
-        <f t="shared" si="25"/>
-        <v>1589</v>
+        <f t="shared" si="24"/>
+        <v>704</v>
       </c>
     </row>
     <row r="2024" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2024">
-        <f t="shared" si="25"/>
-        <v>1590</v>
+        <f t="shared" si="24"/>
+        <v>705</v>
       </c>
     </row>
     <row r="2025" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2025">
-        <f t="shared" si="25"/>
-        <v>1591</v>
+        <f t="shared" si="24"/>
+        <v>706</v>
       </c>
     </row>
     <row r="2026" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2026">
-        <f t="shared" si="25"/>
-        <v>1592</v>
+        <f t="shared" si="24"/>
+        <v>707</v>
       </c>
     </row>
     <row r="2027" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2027">
-        <f t="shared" si="25"/>
-        <v>1593</v>
+        <f t="shared" si="24"/>
+        <v>708</v>
       </c>
     </row>
     <row r="2028" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2028">
-        <f t="shared" si="25"/>
-        <v>1594</v>
+        <f t="shared" si="24"/>
+        <v>709</v>
       </c>
     </row>
     <row r="2029" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2029">
-        <f t="shared" si="25"/>
-        <v>1595</v>
+        <f t="shared" si="24"/>
+        <v>710</v>
       </c>
     </row>
     <row r="2030" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2030">
-        <f t="shared" ref="A2030:A2070" si="26">ROW(A1596)</f>
-        <v>1596</v>
+        <f t="shared" si="24"/>
+        <v>711</v>
       </c>
     </row>
     <row r="2031" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2031">
-        <f t="shared" si="26"/>
-        <v>1597</v>
+        <f t="shared" si="24"/>
+        <v>712</v>
       </c>
     </row>
     <row r="2032" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2032">
-        <f t="shared" si="26"/>
-        <v>1598</v>
+        <f t="shared" si="24"/>
+        <v>713</v>
       </c>
     </row>
     <row r="2033" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2033">
-        <f t="shared" si="26"/>
-        <v>1599</v>
+        <f t="shared" si="24"/>
+        <v>714</v>
       </c>
     </row>
     <row r="2034" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2034">
-        <f t="shared" si="26"/>
-        <v>1600</v>
+        <f t="shared" si="24"/>
+        <v>715</v>
       </c>
     </row>
     <row r="2035" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2035">
-        <f t="shared" si="26"/>
-        <v>1601</v>
+        <f t="shared" si="24"/>
+        <v>716</v>
       </c>
     </row>
     <row r="2036" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2036">
-        <f t="shared" si="26"/>
-        <v>1602</v>
+        <f t="shared" si="24"/>
+        <v>717</v>
       </c>
     </row>
     <row r="2037" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2037">
-        <f t="shared" si="26"/>
-        <v>1603</v>
+        <f t="shared" si="24"/>
+        <v>718</v>
       </c>
     </row>
     <row r="2038" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2038">
-        <f t="shared" si="26"/>
-        <v>1604</v>
+        <f t="shared" si="24"/>
+        <v>719</v>
       </c>
     </row>
     <row r="2039" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2039">
-        <f t="shared" si="26"/>
-        <v>1605</v>
+        <f t="shared" si="24"/>
+        <v>720</v>
       </c>
     </row>
     <row r="2040" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2040">
-        <f t="shared" si="26"/>
-        <v>1606</v>
+        <f t="shared" si="24"/>
+        <v>721</v>
       </c>
     </row>
     <row r="2041" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2041">
-        <f t="shared" si="26"/>
-        <v>1607</v>
+        <f t="shared" si="24"/>
+        <v>722</v>
       </c>
     </row>
     <row r="2042" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2042">
-        <f t="shared" si="26"/>
-        <v>1608</v>
+        <f t="shared" si="24"/>
+        <v>723</v>
       </c>
     </row>
     <row r="2043" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2043">
-        <f t="shared" si="26"/>
-        <v>1609</v>
+        <f t="shared" si="24"/>
+        <v>724</v>
       </c>
     </row>
     <row r="2044" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2044">
-        <f t="shared" si="26"/>
-        <v>1610</v>
+        <f t="shared" si="24"/>
+        <v>725</v>
       </c>
     </row>
     <row r="2045" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2045">
-        <f t="shared" si="26"/>
-        <v>1611</v>
+        <f t="shared" si="24"/>
+        <v>726</v>
       </c>
     </row>
     <row r="2046" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2046">
-        <f t="shared" si="26"/>
-        <v>1612</v>
+        <f t="shared" si="24"/>
+        <v>727</v>
       </c>
     </row>
     <row r="2047" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2047">
-        <f t="shared" si="26"/>
-        <v>1613</v>
+        <f t="shared" si="24"/>
+        <v>728</v>
       </c>
     </row>
     <row r="2048" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2048">
-        <f t="shared" si="26"/>
-        <v>1614</v>
+        <f t="shared" si="24"/>
+        <v>729</v>
       </c>
     </row>
     <row r="2049" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2049">
-        <f t="shared" si="26"/>
-        <v>1615</v>
+        <f t="shared" si="24"/>
+        <v>730</v>
       </c>
     </row>
     <row r="2050" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2050">
-        <f t="shared" si="26"/>
-        <v>1616</v>
+        <f t="shared" si="24"/>
+        <v>731</v>
       </c>
     </row>
     <row r="2051" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2051">
-        <f t="shared" si="26"/>
-        <v>1617</v>
+        <f t="shared" si="24"/>
+        <v>732</v>
       </c>
     </row>
     <row r="2052" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2052">
-        <f t="shared" si="26"/>
-        <v>1618</v>
+        <f t="shared" si="24"/>
+        <v>733</v>
       </c>
     </row>
     <row r="2053" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2053">
-        <f t="shared" si="26"/>
-        <v>1619</v>
+        <f t="shared" si="24"/>
+        <v>734</v>
       </c>
     </row>
     <row r="2054" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2054">
-        <f t="shared" si="26"/>
-        <v>1620</v>
+        <f t="shared" si="24"/>
+        <v>735</v>
       </c>
     </row>
     <row r="2055" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2055">
-        <f t="shared" si="26"/>
-        <v>1621</v>
+        <f t="shared" si="24"/>
+        <v>736</v>
       </c>
     </row>
     <row r="2056" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2056">
-        <f t="shared" si="26"/>
-        <v>1622</v>
+        <f t="shared" ref="A2056:A2070" si="25">ROW(A737)</f>
+        <v>737</v>
       </c>
     </row>
     <row r="2057" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2057">
-        <f t="shared" si="26"/>
-        <v>1623</v>
+        <f t="shared" si="25"/>
+        <v>738</v>
       </c>
     </row>
     <row r="2058" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2058">
-        <f t="shared" si="26"/>
-        <v>1624</v>
+        <f t="shared" si="25"/>
+        <v>739</v>
       </c>
     </row>
     <row r="2059" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2059">
-        <f t="shared" si="26"/>
-        <v>1625</v>
+        <f t="shared" si="25"/>
+        <v>740</v>
       </c>
     </row>
     <row r="2060" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2060">
-        <f t="shared" si="26"/>
-        <v>1626</v>
+        <f t="shared" si="25"/>
+        <v>741</v>
       </c>
     </row>
     <row r="2061" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2061">
-        <f t="shared" si="26"/>
-        <v>1627</v>
+        <f t="shared" si="25"/>
+        <v>742</v>
       </c>
     </row>
     <row r="2062" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2062">
-        <f t="shared" si="26"/>
-        <v>1628</v>
+        <f t="shared" si="25"/>
+        <v>743</v>
       </c>
     </row>
     <row r="2063" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2063">
-        <f t="shared" si="26"/>
-        <v>1629</v>
+        <f t="shared" si="25"/>
+        <v>744</v>
       </c>
     </row>
     <row r="2064" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2064">
-        <f t="shared" si="26"/>
-        <v>1630</v>
+        <f t="shared" si="25"/>
+        <v>745</v>
       </c>
     </row>
     <row r="2065" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2065">
-        <f t="shared" si="26"/>
-        <v>1631</v>
+        <f t="shared" si="25"/>
+        <v>746</v>
       </c>
     </row>
     <row r="2066" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2066">
-        <f t="shared" si="26"/>
-        <v>1632</v>
+        <f t="shared" si="25"/>
+        <v>747</v>
       </c>
     </row>
     <row r="2067" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2067">
-        <f t="shared" si="26"/>
-        <v>1633</v>
+        <f t="shared" si="25"/>
+        <v>748</v>
       </c>
     </row>
     <row r="2068" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2068">
-        <f t="shared" si="26"/>
-        <v>1634</v>
+        <f t="shared" si="25"/>
+        <v>749</v>
       </c>
     </row>
     <row r="2069" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2069">
-        <f t="shared" si="26"/>
-        <v>1635</v>
+        <f t="shared" si="25"/>
+        <v>750</v>
       </c>
     </row>
     <row r="2070" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2070">
-        <f t="shared" si="26"/>
-        <v>1636</v>
+        <f t="shared" si="25"/>
+        <v>751</v>
       </c>
     </row>
   </sheetData>
